--- a/Texte/Textbausteine_LENA_September2024.xlsx
+++ b/Texte/Textbausteine_LENA_September2024.xlsx
@@ -9,7 +9,7 @@
     <sheet state="visible" name="XX_NameVorlage" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="GE_formation_enseignants" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="GE_baisse_impots_entrepreneurs" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="FR_prestations_complementaires_" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="FR_prestations_complementaires" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="BE_Concordat" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="JU_Concordat" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="ZG_Transparenzinitiative" sheetId="10" r:id="rId13"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="268">
   <si>
     <t>Kanton</t>
   </si>
@@ -617,9 +617,6 @@
     <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix le Concordat réglant le transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Les habitants de #Gemeinde_f refusent avec #NeinStimmenInProzent pour cent de non le Concordat réglant le transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
   </si>
   <si>
@@ -642,6 +639,9 @@
   </si>
   <si>
     <t>Le rejet le plus net du concordat a été enregistré à #Gemeinde_f.</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
   <si>
     <t>Intro_HauptvorlageJa_GegenvorschlagJa_StichentscheidHauptvorlage</t>
@@ -41612,8 +41612,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1">
-        <v>2.0</v>
+      <c r="A1" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>48</v>
@@ -41680,9 +41680,6 @@
       <c r="C6" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="E6" s="21"/>
     </row>
     <row r="7">
@@ -41691,7 +41688,7 @@
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E7" s="22"/>
     </row>
@@ -41701,7 +41698,7 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E8" s="22"/>
     </row>
@@ -41711,7 +41708,7 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="21"/>
@@ -41722,7 +41719,7 @@
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="21"/>
@@ -41733,7 +41730,7 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
@@ -41744,7 +41741,7 @@
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
@@ -41755,7 +41752,7 @@
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
@@ -41766,7 +41763,7 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
@@ -47609,8 +47606,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1">
-        <v>2.0</v>
+      <c r="A1" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>48</v>
@@ -47678,7 +47675,7 @@
         <v>197</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E6" s="21"/>
     </row>
@@ -47688,7 +47685,7 @@
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E7" s="22"/>
     </row>
@@ -47698,7 +47695,7 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E8" s="22"/>
     </row>
@@ -47708,7 +47705,7 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="21"/>
@@ -47719,7 +47716,7 @@
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="21"/>
@@ -47730,7 +47727,7 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
@@ -47741,7 +47738,7 @@
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
@@ -47752,7 +47749,7 @@
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
@@ -47763,7 +47760,7 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>

--- a/Texte/Textbausteine_LENA_September2024.xlsx
+++ b/Texte/Textbausteine_LENA_September2024.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="382">
   <si>
     <t>Kanton</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Biodiversitätsinitiative</t>
   </si>
   <si>
-    <t>Initiative biodiversité</t>
+    <t>Initiative pour la biodiversité</t>
   </si>
   <si>
     <t>Iniziativa biodiversità</t>
@@ -53,7 +53,7 @@
     <t>Reform der beruflichen Vorsorge</t>
   </si>
   <si>
-    <t>Réforme de la prévoyance professionnelle</t>
+    <t>Réforme de la LPP</t>
   </si>
   <si>
     <t>Iniziativa per un freno ai costi</t>
@@ -77,7 +77,7 @@
     <t>Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura</t>
   </si>
   <si>
-    <t>Concordat sur le transfert de la commune de Moutier au canton du Jura</t>
+    <t>Concordat sur le transfert de Moutier au canton du Jura</t>
   </si>
   <si>
     <t>LU</t>
@@ -152,16 +152,16 @@
     <t>GE</t>
   </si>
   <si>
-    <t>Loi modifiant la loi sur l'imposition des personnes physiques (LIPP)</t>
+    <t>Baisse de l'imposition des entrepreneurs</t>
   </si>
   <si>
-    <t>Loi modifiant la loi sur l'instruction publique (LIP)</t>
+    <t>Modification de la durée de formation des enseignants de l'école primaire</t>
   </si>
   <si>
     <t>JU</t>
   </si>
   <si>
-    <t>Acte relatif à l'approbation du Concordat entre le Canton de Berne et la République et Canton du Jura concernant le transfert de la commune municipale de Moutier dans le canton du Jura et à l'abrogation de l'article 139 de la Constitution</t>
+    <t>Concordat sur le transfert de Moutier au canton du Jura (et suppression de l'article 138)</t>
   </si>
   <si>
     <t>Text_ID</t>
@@ -182,22 +182,43 @@
     <t>Intro_Ja</t>
   </si>
   <si>
+    <t>Die Gemeinde #Gemeinde_d hat die Biodiversitätsinitiative mit #JaStimmenInProzent Prozent Ja-Stimmen angenommen.</t>
+  </si>
+  <si>
     <t>Les habitants de #Gemeinde_f acceptent l'initiative pour la biodiversité avec #JaStimmenInProzent pour cent de oui.</t>
+  </si>
+  <si>
+    <t>Ja zur Biodiversitätsinitiative in #Gemeinde_d: Mit #JaStimmenInProzent Prozent haben die Stimmbürgerinnen und Stimmbürger das Volksbegehren angenommen.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f approuvent l'initiative pour la biodiversité avec #JaStimmenInProzent pour cent des voix.</t>
   </si>
   <si>
+    <t>Die Stimmbevölkerung von #Gemeinde_d hat die Biodiversitätsinitiative mit #JaStimmenInProzent Prozent angenommen.</t>
+  </si>
+  <si>
     <t>A #Gemeinde_f, les habitants disent oui à #JaStimmenInProzent pour cent à l'initiative pour la biodiversité.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In #Gemeinde_d hat die Stimmbevölkerung der Biodiversitätsinitiative zugestimmt. Sie wurde mit einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent angenommen. </t>
   </si>
   <si>
     <t>A #Gemeinde_f, les habitants sont favorables à l'initiative pour la biodiversité avec #JaStimmenInProzent pour cent des suffrages.</t>
   </si>
   <si>
+    <t xml:space="preserve">#JaStimmenInProzent Prozent der Abstimmenden in der Gemeinde #Gemeinde_d haben Ja gesagt zur Biodiversitätsinitiative. </t>
+  </si>
+  <si>
     <t>C'est oui à #JaStimmenInProzent pour cent à l'initiative pour la biodiversité à #Gemeinde_f.</t>
   </si>
   <si>
+    <t>Ja zur Biodiversitätsinitiative in #Gemeinde_d. Die Gemeinde hat das Volksbegehren mit #JaStimmenInProzent Prozent der Stimmen angenommen.</t>
+  </si>
+  <si>
     <t>L'initiative pour la biodiversité passe la rampe à #Gemeinde_f avec #JaStimmenInProzent pour cent de oui.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben die Biodiversitätsinitiative angenommen. </t>
   </si>
   <si>
     <t>Les électeurs de #Gemeinde_f valident l'initiative pour la biodiversité avec #JaStimmenInProzent pour cent des voix.</t>
@@ -206,7 +227,13 @@
     <t>Intro_kleineGemeinde_Ja</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat die Biodiversitätsinitiative mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen angenommen.</t>
+  </si>
+  <si>
     <t>L'initiative pour la biodiversité passe la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #JaStimmenAbsolut à approuver le texte et #NeinStimmenAbsolut à le refuser.</t>
+  </si>
+  <si>
+    <t>Ja zur Biodiversitätsinitiative in #Gemeinde_d. Mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen ist das Volksbegehren angenommen worden.</t>
   </si>
   <si>
     <t>L'initiative pour la biodiversité est acceptée à #Gemeinde_f. Les électeurs de cette petite commune sont #JaStimmenAbsolut à y dire oui, contre #NeinStimmenAbsolut à s'y opposer.</t>
@@ -215,22 +242,43 @@
     <t>Intro_Nein</t>
   </si>
   <si>
+    <t>In #Gemeinde_d hat die Biodiversitätsinitiative keine Mehrheit gefunden. Auf #NeinStimmenInProzent Prozent der abgegebenen Stimmzettel stand ein Nein.</t>
+  </si>
+  <si>
     <t>Les habitants de #Gemeinde_f rejettent l'initiative pour la biodiversité avec #NeinStimmenInProzent pour cent de non.</t>
+  </si>
+  <si>
+    <t>#NeinStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben Nein gesagt zur Biodiversitätsinitiative.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f s'opposent à l'initiative pour la biodiversité avec #NeinStimmenInProzent pour cent de non.</t>
   </si>
   <si>
+    <t xml:space="preserve">Nein zur Biodiversitätsinitiative in #Gemeinde_d. Die Gemeinde hat die Vorlage mit #NeinStimmenInProzent Prozent abgelehnt. </t>
+  </si>
+  <si>
     <t>A #Gemeinde_f, les habitants disent non à #NeinStimmenInProzent pour cent à l'initiative pour la biodiversité.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In #Gemeinde_d hat die Stimmbevölkerung die Biodiversitätsinitiative abgelehnt. Das Volksbegehren wurde mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent verworfen. </t>
   </si>
   <si>
     <t>A #Gemeinde_f, les habitants sont défavorables à l'initiative pour la biodiversité avec #NeinStimmenInProzent pour cent des voix.</t>
   </si>
   <si>
+    <t>Keine Mehrheit für die Biodiversitätsinitiative in #Gemeinde_d: Mit #NeinStimmenAbsolut Nein-Stimmen zu #JaStimmenAbsolut Ja-Stimmen oder #NeinStimmenInProzent Prozent hat die Gemeinde das Volksbegehren verworfen.</t>
+  </si>
+  <si>
     <t>C'est non à #NeinStimmenInProzent pour cent à l'initiative pour la biodiversité à #Gemeinde_f.</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat die Biodiversitätsinitiative mit #NeinStimmenInProzent Prozent abgelehnt.</t>
+  </si>
+  <si>
     <t>L'initiative pour la biodiversité ne passe pas la rampe à #Gemeinde_f avec #NeinStimmenInProzent pour cent de non.</t>
+  </si>
+  <si>
+    <t>Nein zur Biodiversitätsinitiative in #Gemeinde_d: Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmbürgerinnen und Stimmbürger das Volksbegehren abgelehnt. Das sind #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
     <t>L'initiative pour la biodiversité échoue à #Gemeinde_f avec #NeinStimmenInProzent pour cent des suffrages.</t>
@@ -239,7 +287,13 @@
     <t>Intro_kleineGemeinde_Nein</t>
   </si>
   <si>
+    <t>#Gemeinde_d sagt Nein zur Biodiversitätsinitiative: Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen hat die Gemeinde das Volksbegehren verworfen.</t>
+  </si>
+  <si>
     <t>L'initiative pour la biodiversité ne passe pas la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à refuser le texte et #JaStimmenAbsolut à l'approuver.</t>
+  </si>
+  <si>
+    <t>Nein zur Biodiversitätsinitiative in #Gemeinde_d. Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmberechtigten die Volksinitiative verworfen.</t>
   </si>
   <si>
     <t>L'initiative pour la biodiversité est rejetée à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à dire non et #JaStimmenAbsolut à accepter le texte.</t>
@@ -248,10 +302,16 @@
     <t>Intro_Sonderfall</t>
   </si>
   <si>
+    <t>Unentschieden in #Gemeinde_d: Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner der Biodiversitätsinitiative genau die Waage.</t>
+  </si>
+  <si>
     <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver l'initiative pour la biodiversité et #JaStimmenAbsolut à la refuser.</t>
   </si>
   <si>
     <t>Intro_Unanimous_Ja</t>
+  </si>
+  <si>
+    <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden der Biodiversitätsinitiative zugestimmt.</t>
   </si>
   <si>
     <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous l'initiative pour la biodiversité.</t>
@@ -260,10 +320,16 @@
     <t>Intro_Unanimous_Nein</t>
   </si>
   <si>
+    <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden die Biodiversitätsinitiative abgelehnt.</t>
+  </si>
+  <si>
     <t>Refus clair et net à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous l'initiative pour la biodiversité.</t>
   </si>
   <si>
     <t>Intro_Highest_Yes_CH</t>
+  </si>
+  <si>
+    <t>Die Gemeinde #Gemeinde_d hat am Abstimmungssonntag für einen Rekord gesorgt: Sie hat die Biodiversitätsinitiative mit dem höchsten Ja-Anteil in der ganzen Schweiz angenommen: #JaStimmenInProzent Prozent befürworteten die Vorlage.</t>
   </si>
   <si>
     <t>Nulle part ailleurs en Suisse, l'initiative pour la biodiversité est approuvée plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
@@ -272,10 +338,16 @@
     <t>Intro_2Highest_Yes_CH</t>
   </si>
   <si>
+    <t>Die Gemeinde #Gemeinde_d hat der Biodiversitätsinitiative mit dem zweithöchsten Ja-Anteil in der ganzen Schweiz zugestimmt: #JaStimmenInProzent Prozent befürworteten die Vorlage.</t>
+  </si>
+  <si>
     <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations de l'initiative pour la biodiversité. Ses citoyens disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>Intro_3Highest_Yes_CH</t>
+  </si>
+  <si>
+    <t>Die Gemeinde #Gemeinde_d hat die Biodiversitätsinitiative mit dem dritthöchsten Ja-Anteil in der ganzen Schweiz angenommen: #JaStimmenInProzent Prozent stimmten für die Biodiversitätsinitiative.</t>
   </si>
   <si>
     <t>#Gemeinde_f se classe au troisième rang des plus fortes approbations de l'initiative pour la biodiversité. Ses citoyens disent oui à #JaStimmenInProzent pour cent.</t>
@@ -284,10 +356,16 @@
     <t>Intro_Highest_No_CH</t>
   </si>
   <si>
+    <t>Keine Schweizer Gemeinde hat sich deutlicher gegen die Biodiversitätsinitiative ausgesprochen als #Gemeinde_d mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent.</t>
+  </si>
+  <si>
     <t>Nulle part ailleurs en Suisse, l'initiative pour la biodiversité n'est rejetée plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>Intro_2Highest_No_CH</t>
+  </si>
+  <si>
+    <t>Die Gemeinde #Gemeinde_d hat die Biodiversitätsinitiative mit dem zweithöchsten Nein-Anteil in der ganzen Schweiz abgelehnt: #NeinStimmenInProzent Prozent legten ein Nein in die Urne.</t>
   </si>
   <si>
     <t>#Gemeinde_f se classe au deuxième rang des plus forts refus de l'initiative pour la biodiversité. Ses citoyens disent non à #NeinStimmenInProzent pour cent.</t>
@@ -296,10 +374,16 @@
     <t>Intro_3Highest_No_CH</t>
   </si>
   <si>
+    <t>Die Gemeinde #Gemeinde_d hat die Biodiversitätsinitiative mit dem dritthöchsten Nein-Anteil in der ganzen Schweiz abgelehnt: #NeinStimmenInProzent Prozent legten ein Nein in die Urne.</t>
+  </si>
+  <si>
     <t>#Gemeinde_f se classe au troisième rang des plus forts refus de l'initiative pour la biodiversité. Ses citoyens disent non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>KantonPhrase_Highest_Yes_Kant</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Ja-Anteil im Kanton #Kanton_d.</t>
   </si>
   <si>
     <t>Le plus fort pourcentage de oui du canton de #Kanton_f a été obtenu à #Gemeinde_f.</t>
@@ -308,10 +392,16 @@
     <t>KantonPhrase_Highest_No_Kant</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Nein-Anteil im Kanton #Kanton_d.</t>
+  </si>
+  <si>
     <t>Le plus fort pourcentage de non du canton de #Kanton_f a été obtenu à #Gemeinde_f.</t>
   </si>
   <si>
     <t>KantonPhrase_Ja_Ja</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat damit gleich wie der Kanton #Kanton_d Ja gesagt zu dieser Vorlage.</t>
   </si>
   <si>
     <t>#Gemeinde_f a approuvé l'initiative, tout comme son canton.</t>
@@ -320,10 +410,16 @@
     <t>KantonPhrase_Nein_Ja</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat damit anders abgestimmt als der Kanton #Kanton_d, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
     <t>#Gemeinde_f a rejeté l'initiative, contrairement à son canton.</t>
   </si>
   <si>
     <t>KantonPhrase_Ja_Nein</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat damit anders abgestimmt als der Kanton #Kanton_d, der die Vorlage abgelehnt hat.</t>
   </si>
   <si>
     <t>#Gemeinde_f a approuvé l'initiative, contrairement à son canton.</t>
@@ -332,7 +428,13 @@
     <t>KantonPhrase_Nein_Nein</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat damit gleich wie der Kanton #Kanton_d Nein gesagt zu dieser Vorlage.</t>
+  </si>
+  <si>
     <t>#Gemeinde_f a rejeté l'initiative, tout comme son canton.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit #JaStimmenInProzent Prozent Ja-Stimmen hat eine Mehrheit der Abstimmenden in #Gemeinde_d für die Pensionskassenreform gestimmt. </t>
   </si>
   <si>
     <t>La population de #Gemeinde_f approuve à #JaStimmenInProzent pour cent la réforme de la LPP.</t>
@@ -341,22 +443,43 @@
     <t>Mehr Ja- als Nein-Stimmen</t>
   </si>
   <si>
+    <t>Mit #JaStimmenAbsolut Ja zu #NeinStimmenAbsolut Nein hat sich #Gemeinde_d für die Pensionskassenreform ausgesprochen. Das entspricht einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent.</t>
+  </si>
+  <si>
     <t>#Gemeinde_f dit oui à #JaStimmenInProzent pour cent à de la réforme de la LPP.</t>
+  </si>
+  <si>
+    <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben sich für die Pensionskassenreform ausgesprochen.</t>
   </si>
   <si>
     <t>A #Gemeinde_f, les habitants disent oui à  #JaStimmenInProzent pour cent à la réforme de la LPP.</t>
   </si>
   <si>
+    <t>Die Pensionskassenreform ist in #Gemeinde_d mit #JaStimmenInProzent Prozent der Stimmen angenommen worden.</t>
+  </si>
+  <si>
     <t>La réforme de la LPP est approuvée à #Gemeinde_f par #JaStimmenInProzent pour cent des votants.</t>
+  </si>
+  <si>
+    <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger in #Gemeinde_d haben Ja gesagt zur Pensionskassenreform.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui la réforme de la LPP.</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat die Pensionskassenreform angenommen. Die Gemeinde stimmte der Vorlage mit Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent zu.</t>
+  </si>
+  <si>
     <t>La réforme de la LPP passe la rampe avec #JaStimmenInProzent pour cent de oui à #Gemeinde_f.</t>
   </si>
   <si>
+    <t>Ja zur Pensionskassenreform in #Gemeinde_d. Die Gemeinde hat Vorlage mit #JaStimmenInProzent Prozent der Stimmen angenommen.</t>
+  </si>
+  <si>
     <t>Les habitants de #Gemeinde_f soutiennent à #JaStimmenInProzent pour cent la réforme de la LPP.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat die Pensionskassenreform mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen angenommen.</t>
   </si>
   <si>
     <t xml:space="preserve"> La réforme de la LPP est validée à #Gemeinde_f. Les citoyens de cette petite commune sont #JaStimmenAbsolut à soutenir le texte, contre #NeinStimmenAbsolut à le refuser.</t>
@@ -365,7 +488,13 @@
     <t>Gemeinden mit weniger als 100 Stimmabgaben</t>
   </si>
   <si>
+    <t>Ja zur Pensionskassenreform in #Gemeinde_d. Mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen ist Vorlage angenommen worden.</t>
+  </si>
+  <si>
     <t>Les électeurs de la petite commune de #Gemeinde_f ont accordé leur confiance à la réforme de la LPP. Ils ont dit oui au texte par #JaStimmenAbsolut voix, contre #NeinStimmenAbsolut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Gemeinde_d ist gegen die Pensionskassenreform: Die Gemeinde hat die Vorlage mit #NeinStimmenInProzent Prozent Nein verworfen. </t>
   </si>
   <si>
     <t>La réforme de la LPP est refusée à #NeinStimmenInProzent pour cent à #Gemeinde_f.</t>
@@ -374,28 +503,55 @@
     <t>Mehr Nein- als Ja-Stimmen</t>
   </si>
   <si>
+    <t>#NeinStimmenInProzent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben die Pensionskassenreform abgelehnt.</t>
+  </si>
+  <si>
     <t>Les habitants de #Gemeinde_f s'opposent à la réforme de la LPP par #NeinStimmenInProzent pour cent des voix.</t>
+  </si>
+  <si>
+    <t>#NeinStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben sich gegen die Pensionskassenreform ausgesprochen.</t>
   </si>
   <si>
     <t>A #Gemeinde_f, les citoyens rejettent à #NeinStimmenInProzent pour cent la réforme de la LPP.</t>
   </si>
   <si>
+    <t>Mit #NeinStimmenAbsolut Nein zu #JaStimmenAbsolut Ja haben die Stimmbürgerinnen und Stimmbürger von #Gemeinde_d die Pensionskassenreform abgelehnt. Das sind #NeinStimmenInProzent Prozent.</t>
+  </si>
+  <si>
     <t>La population de #Gemeinde_f rejette à #NeinStimmenInProzent pour cent des voix la réforme de la LPP.</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d ist die Pensionskassenreform mit #NeinStimmenInProzent Prozent gescheitert.</t>
   </si>
   <si>
     <t>La réforme de la LPP n'a pas convaincu à #Gemeinde_f. Les citoyens de la commune ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat die Pensionskassenreform mit #NeinStimmenInProzent Prozent Nein-Stimmen verworfen.</t>
+  </si>
+  <si>
     <t>La réforme de la LPP n'a pas trouvé grâce aux yeux des citoyens de #Gemeinde_f. Ils ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d hat die Pensionskassenreform keine Mehrheit gefunden: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
   </si>
   <si>
     <t>C'est non à la réforme de la LPP à #Gemeinde_f. Les habitants ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat die Pensionskassenreform mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen verworfen.</t>
+  </si>
+  <si>
     <t>Les habitants de la petite commune de #Gemeinde_f ont refusé la réforme de la LPP. Ils ont dit non à cet objet par #NeinStimmenAbsolut voix contre #JaStimmenAbsolut.</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat die Pensionskassenreform mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen abgelehnt.</t>
+  </si>
+  <si>
     <t>La réforme de la LPP ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune l'ont rejetée par #NeinStimmenAbsolut voix, contre #JaStimmenAbsolut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unentschieden in #Gemeinde_d: Genau gleich viele Stimmbürgerinnen und Stimmbürger haben bei der Abstimmung über die Pensionskassenreform ein Ja oder ein Nein in die Urne gelegt, nämlich #JaStimmenAbsolut. </t>
   </si>
   <si>
     <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la réforme de la LPP et #NeinStimmenAbsolut à la refuser.</t>
@@ -404,10 +560,16 @@
     <t>Gleich viele Ja- wie Nein-Stimmen</t>
   </si>
   <si>
+    <t>Klares Resultat in #Gemeinde_d: Alle #JaStimmenAbsolut Abstimmenden haben ein Ja zur Pensionskassenreform in die Urne gelegt.</t>
+  </si>
+  <si>
     <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous la réforme de la LPP.</t>
   </si>
   <si>
     <t>Einstimmiges Resultat Ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutlicher geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden ein Nein zur Pensionskassenreform in die Urne gelegt. </t>
   </si>
   <si>
     <t>Un non sec et sonnant à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous la réforme de la LPP.</t>
@@ -416,10 +578,16 @@
     <t>Einstimmiges Resultat Nein</t>
   </si>
   <si>
+    <t>Mit einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent hat #Gemeinde_d bei dieser Vorlage schweizweit den höchsten Ja-Anteil erreicht.</t>
+  </si>
+  <si>
     <t>Nulle part ailleurs en Suisse, la réforme de la LPP est approuvée plus clairement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>Gemeinde mit dem höchsten Ja-Anteil (schweizweit)</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat die Vorlage schweizweit mit dem zweithöchsten Ja-Anteil zugestimmt: #JaStimmenInProzent Prozent haben sich für die Vorlage ausgesprochen.</t>
   </si>
   <si>
     <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations de la réforme de la LPP. Ses habitants disent oui à #JaStimmenInProzent pour cent.</t>
@@ -428,10 +596,16 @@
     <t>Gemeinde mit dem zweithöchsten Ja-Anteil</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat die Vorlage mit dem schweizweit dritthöchsten Ja-Anteil angenommen: #JaStimmenInProzent Prozent haben der Vorlage zugestimmt..</t>
+  </si>
+  <si>
     <t>#Gemeinde_f se classe au troisième rang des plus fortes approbations de la réforme de la LPP. Ses citoyens disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>Gemeinde mit dem dritthöchsten Ja-Anteil</t>
+  </si>
+  <si>
+    <t>Keine Schweizer Gemeinde hat sich deutlicher gegen die Vorlage ausgesprochen als #Gemeinde_d mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
     <t>Nulle part ailleurs en Suisse, la réforme de la LPP n'est rejetée plus fortement qu'à #Gemeinde_f: c'est non à #NeinStimmenInProzent pour cent.</t>
@@ -440,10 +614,16 @@
     <t>Gemeinde mit dem höchsten Nein-Anteil (schweizweit)</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat schweizweit den zweithöchsten Nein-Anteil bei dieser Abstimmung: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
+  </si>
+  <si>
     <t>#Gemeinde_f se classe au deuxième rang des plus forts refus de la réforme de la LPP. Elle dit non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>Gemeinde mit dem zweithöchsten Nein-Anteil</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat schweizweit den dritthöchsten Nein-Anteil bei dieser Abstimmung: #NeinStimmenInProzent Prozent haben die Vorlage verworfen.</t>
   </si>
   <si>
     <t>#Gemeinde_f se classe au troisième rang des plus forts refus de la réforme de la LPP. Le rejet atteint #NeinStimmenInProzent pour cent.</t>
@@ -551,43 +731,43 @@
     <t>Vergleich nicht möglich</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix la loi sur les prestations complémentaires pour les familles. Le crédit doit permettre le déménagement du musée et l'élaboration d'une nouvelle exposition permanente.</t>
+    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix le maintien de la durée de la formation des enseignants. Ces derniers seront toujours formés durant quatre années.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte la précarité qui concernera 1500 familles.</t>
+    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui le maintien de la durée de la formation des enseignants de l'école primaire. Ces derniers seront toujours formés durant quatre années.</t>
   </si>
   <si>
-    <t>C'est oui à #JaStimmenInProzent pour cent au crédit de 65,5 millions de francs en faveur du Musée d'histoire naturelle à Fribourg à #Gemeinde_f. Cette mesure de lutte la précarité qui concernera 1500 familles.</t>
+    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f en faveur de le maintien de la durée de la formation des enseignants de l'école primaire. Les enseignants seront toujours formés dans quatre années.</t>
   </si>
   <si>
-    <t>Le crédit de 65,5 millions de francs en faveur du Musée d'histoire naturelle à Fribourg passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à ce crédit, qui doit permettre le déménagement du musée et l'élaboration d'une nouvelle exposition permanente.</t>
+    <t>Le maintien de la durée de la formation des enseignants de l'école primaire passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à une formation qui s'étale sur quatre années.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte la précarité qui concernera 1500 familles.</t>
+    <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix le maintien de la durée de la formation des enseignants de l'école primaire. Les enseignants seront toujours formés dans quatre années.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f refusent avec #NeinStimmenInProzent pour cent de non la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte la précarité qui concernera 1500 familles.</t>
+    <t>Les habitants de #Gemeinde_f refusent avec #NeinStimmenInProzent pour cent de non le maintien de la durée de la formation des enseignants de l'école primaire. Les enseignants seront toujours formés dans quatre années.</t>
   </si>
   <si>
-    <t>C'est non à #NeinStimmenInProzent pour cent au crédit de 65,5 millions de francs en faveur du Musée d'histoire naturelle à Fribourg à #Gemeinde_f. Cette mesure de lutte la précarité qui concernera 1500 familles.</t>
+    <t>C'est non à #NeinStimmenInProzent pour cent à la modification de la loi sur la formation des enseignants à #Gemeinde_f. Les enseignants seront toujours formés dans quatre années.</t>
   </si>
   <si>
-    <t>Le crédit de 65,5 millions de francs en faveur du Musée d'histoire naturelle à Fribourg ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à ce crédit, qui doit permettre le déménagement du musée et l'élaboration d'une nouvelle exposition permanente.</t>
+    <t>La modification de la loi sur la formation des enseignants ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non et maintiennent la durée de formation à quatre années.</t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter la loi sur les prestations complémentaires pour les familles et #NeinStimmenAbsolut à le refuser. Cette mesure de lutte la précarité qui concernera 1500 familles.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter le maintien de la durée de la formation des enseignants de l'école primaire et #NeinStimmenAbsolut à le refuser. Les enseignants seront toujours formés dans quatre années.</t>
   </si>
   <si>
-    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont déplacés dimanche ont tous accepté la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte la précarité qui concernera 1500 familles.</t>
+    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont déplacés dimanche ont tous accepté le maintien de la durée de la formation des enseignants de l'école primaire. Les enseignants seront toujours formés dans quatre années.</t>
   </si>
   <si>
-    <t>Le crédit de 65,5 millions de francs en faveur du Musée d'histoire naturelle à Fribourg a été balayé à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé ce crédit, qui doit permettre le déménagement du musée et l'élaboration d'une nouvelle exposition permanente.</t>
+    <t>Le maintien de la durée de la formation des enseignants de l'école primaire a été balayé à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé. Les enseignants seront toujours formés dans quatre années.</t>
   </si>
   <si>
-    <t>C'est à #Gemeinde_f que le crédit a été la plus fortement approuvé.</t>
+    <t>C'est à #Gemeinde_f que le texte a été la plus fortement approuvé.</t>
   </si>
   <si>
-    <t>Le rejet le plus net du crédit a été enregistré à #Gemeinde_f.</t>
+    <t>Le rejet le plus net du texte a été enregistré à #Gemeinde_f.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f ont approuvé le texte, tout comme le canton.</t>
@@ -602,46 +782,209 @@
     <t>Les habitants de #Gemeinde_f ont rejeté le texte, tout comme le canton.</t>
   </si>
   <si>
+    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix une baisse de l'imposition des entrepreneurs. Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
+  </si>
+  <si>
+    <t>une baisse de l'imposition des entrepreneurs</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui une baisse de l'imposition des entrepreneurs. Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
+  </si>
+  <si>
+    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f en faveur de une baisse de l'imposition des entrepreneurs. Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
+  </si>
+  <si>
+    <t>Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton a, elle aussi</t>
+  </si>
+  <si>
+    <t>Une baisse de l'imposition des entrepreneurs passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à cette diminution concernant les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix une baisse de l'imposition des entrepreneurs. Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f refusent avec #NeinStimmenInProzent pour cent de non une baisse de l'imposition des entrepreneurs. Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
+  </si>
+  <si>
+    <t>C'est non à #NeinStimmenInProzent pour cent à une baisse de l'imposition des entrepreneurs à #Gemeinde_f. Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
+  </si>
+  <si>
+    <t>La baisse de l'imposition des entrepreneurs ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à cette diminution concernant les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
+  </si>
+  <si>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter une baisse de l'imposition des entrepreneurs et #NeinStimmenAbsolut à le refuser. Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
+  </si>
+  <si>
+    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont déplacés dimanche ont tous accepté une baisse de l'imposition des entrepreneurs. Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
+  </si>
+  <si>
+    <t>La baisse de l'imposition des entrepreneurs a été balayé à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé cette diminution concernant les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
+  </si>
+  <si>
+    <t>C'est à #Gemeinde_f que la loi a été la plus fortement approuvée.</t>
+  </si>
+  <si>
+    <t>Le rejet le plus net de la loi a été enregistré à #Gemeinde_f.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
+  </si>
+  <si>
+    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f en faveur de la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
+  </si>
+  <si>
+    <t>La loi sur les prestations complémentaires pour les familles passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à cette mesure de lutte contre la précarité, qui concerne 1500 familles.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f refusent avec #NeinStimmenInProzent pour cent de non la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
+  </si>
+  <si>
+    <t>C'est non à #NeinStimmenInProzent pour cent à la loi sur les prestations complémentaires à #Gemeinde_f. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
+  </si>
+  <si>
+    <t>La loi sur les prestations complémentaires pour les familles ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à cette mesure, qui concerne 1500 familles.</t>
+  </si>
+  <si>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter la loi sur les prestations complémentaires pour les familles et #NeinStimmenAbsolut à le refuser. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
+  </si>
+  <si>
+    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont déplacés dimanche ont tous accepté la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
+  </si>
+  <si>
+    <t>La loi sur les prestations complémentaires pour les familles a été balayé à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé cette mesure qui concerne 1500 familles.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura mit #JaStimmenInProzent Prozent angenommen.</t>
+  </si>
+  <si>
     <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix le Concordat réglant le transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit #JaStimmenInProzent Prozent Ja hat sich #Gemeinde_d für das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura ausgesprochen. </t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui le Concordat réglant le transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
   </si>
   <si>
+    <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben dem Konkordat über den Wechsel der Gemeinde
+Moutier zum Kanton Jura zugestimmt.</t>
+  </si>
+  <si>
     <t>C'est oui à #JaStimmenInProzent pour cent au concordat de 65,5 millions de francs en faveur du Musée d'histoire naturelle à Fribourg à #Gemeinde_f. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
+  </si>
+  <si>
+    <t>Das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura ist in #Gemeinde_d angenommen worden: #JaStimmenAbsolut Stimmberechtigte stimmten dafür, #NeinStimmenAbsolut lehnten sie ab.</t>
   </si>
   <si>
     <t>Le Concordat réglant le transfert de Moutier passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à ce texte, qui exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura mit #NeinStimmenInProzent Prozent abgelehnt.</t>
+  </si>
+  <si>
     <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix le Concordat réglant le transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
+  </si>
+  <si>
+    <t>Nein zum Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura in #Gemeinde_d: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f refusent avec #NeinStimmenInProzent pour cent de non le Concordat réglant le transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
   </si>
   <si>
+    <t>Keine Mehrheit für das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura in #Gemeinde_d. #NeinStimmenInProzent Prozent haben sie verworfen.</t>
+  </si>
+  <si>
     <t>C'est non à #NeinStimmenInProzent pour cent au concordat réglant le transfert de Moutier à #Gemeinde_f. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
+  </si>
+  <si>
+    <t>Das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura ist in #Gemeinde_d mit #NeinStimmenAbsolut zu #JaStimmenAbsolut Stimmen abgelehnt worden.</t>
   </si>
   <si>
     <t>Le concordat réglant le transfort de Moutier ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à ce texte, qui exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
   </si>
   <si>
+    <t>Unentschieden in #Gemeinde_d bei der Abstimmung über das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura: Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner genau die Waage.</t>
+  </si>
+  <si>
     <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter le Concordat réglant le transfert de Moutier dans le canton du Jura et #NeinStimmenAbsolut à le refuser. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
+  </si>
+  <si>
+    <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura zugestimmt.</t>
   </si>
   <si>
     <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont déplacés dimanche ont tous accepté le Concordat réglant le transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
   </si>
   <si>
+    <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura abgelehnt.</t>
+  </si>
+  <si>
     <t>Le concordat réglant le transfert de Moutier a été balayé à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé ce concordat, qui doit permettre le déménagement du musée et l'élaboration d'une nouvelle exposition permanente.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Ja-Anteil im Kanton.</t>
   </si>
   <si>
     <t>C'est à #Gemeinde_f que le concordat a été la plus fortement approuvé.</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Nein-Anteil im Kanton.</t>
+  </si>
+  <si>
     <t>Le rejet le plus net du concordat a été enregistré à #Gemeinde_f.</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat damit gleich abgestimmt wie der Kanton Aargau, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat damit anders abgestimmt als der gesamte Kanton Aargau, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura und die Aufhebung von Artikel 139 der Verfassung mit #JaStimmenInProzent Prozent angenommen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit #JaStimmenInProzent Prozent Ja hat sich #Gemeinde_d für das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura und die Aufhebung von Artikel 139 der Verfassung ausgesprochen. </t>
+  </si>
+  <si>
+    <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben dem Konkordat zwischen den Kantonen Bern und Jura über den Kantonswechsel von Moutier und der Aufhebung von Artikel 139 der Verfassung zugestimmt.</t>
+  </si>
+  <si>
+    <t>Das Konkordat zwischen den Kantonen Bern und Jura über den Kantonswechsel von Moutier und die Aufhebung von Artikel 139 der Verfassung ist in #Gemeinde_d angenommen worden: #JaStimmenAbsolut Stimmberechtigte stimmten dafür, #NeinStimmenAbsolut lehnten es ab.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura und die Aufhebung von Artikel 139 der Verfassung mit #NeinStimmenInProzent Prozent abgelehnt.</t>
+  </si>
+  <si>
     <t>Text</t>
+  </si>
+  <si>
+    <t>Nein zum Konkordat zwischen den Kantonen Bern und Jura über den Kantonswechsel von Moutier und der Aufhebung von Artikel 139 der Verfassung in #Gemeinde_d: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura und die Aufhebung von Artikel 139 der Verfassung in #Gemeinde_d. #NeinStimmenInProzent Prozent haben den Erlass verworfen.</t>
+  </si>
+  <si>
+    <t>Das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura und die Aufhebung von Artikel 139 der Verfassung ist in #Gemeinde_d mit #NeinStimmenAbsolut zu #JaStimmenAbsolut Stimmen abgelehnt worden.</t>
+  </si>
+  <si>
+    <t>Unentschieden in #Gemeinde_d bei der Abstimmung über das Konkordat zwischen den Kantonen Bern und Jura über den Kantonswechsel von Moutier und die Aufhebung von Artikel 139 der Verfassung: Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner genau die Waage.</t>
+  </si>
+  <si>
+    <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura und die Aufhebung von Artikel 139 der Verfassung zugestimmt.</t>
+  </si>
+  <si>
+    <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura und die Aufhebung von Artikel 139 der Verfassung abgelehnt.</t>
   </si>
   <si>
     <t>Intro_HauptvorlageJa_GegenvorschlagJa_StichentscheidHauptvorlage</t>
@@ -746,7 +1089,7 @@
     <t>#Kanton_f</t>
   </si>
   <si>
-    <t>Geneva</t>
+    <t>Genève</t>
   </si>
   <si>
     <t>#JaStimmenInProzent</t>
@@ -855,14 +1198,14 @@
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
@@ -993,10 +1336,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -1088,6 +1431,9 @@
     <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -1097,23 +1443,20 @@
     <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1524,23 +1867,23 @@
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>258259.0</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
@@ -1549,11 +1892,11 @@
       <c r="B8" s="6">
         <v>259426.0</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
@@ -1562,11 +1905,11 @@
       <c r="B9" s="6">
         <v>259427.0</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
@@ -1575,24 +1918,24 @@
       <c r="B10" s="6">
         <v>259387.0</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>259363.0</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
@@ -1604,81 +1947,81 @@
       <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>259447.0</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>259448.0</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>259397.0</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>259399.0</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>259401.0</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>259432.0</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1691,7 +2034,7 @@
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>259376.0</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -1704,11 +2047,11 @@
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>259456.0</v>
       </c>
       <c r="C20" s="11"/>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="12"/>
@@ -1717,41 +2060,41 @@
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>259457.0</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>259405.0</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23">
       <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24">
       <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25">
       <c r="D25" s="13"/>
@@ -1791,87 +2134,87 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>208</v>
+      <c r="A2" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>322</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30" t="s">
-        <v>209</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="46" t="s">
-        <v>207</v>
+      <c r="A3" s="47" t="s">
+        <v>321</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>210</v>
+        <v>324</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
     </row>
     <row r="4">
-      <c r="A4" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>211</v>
+      <c r="A4" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>325</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
     </row>
     <row r="5">
-      <c r="A5" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>213</v>
+      <c r="A5" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>327</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="31" t="s">
-        <v>214</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="46" t="s">
-        <v>212</v>
+      <c r="A6" s="47" t="s">
+        <v>326</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>215</v>
+        <v>329</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
     </row>
     <row r="7">
-      <c r="A7" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>216</v>
+      <c r="A7" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>330</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -1879,23 +2222,23 @@
     </row>
     <row r="8">
       <c r="A8" s="48" t="s">
-        <v>217</v>
+        <v>331</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>218</v>
+        <v>332</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30" t="s">
-        <v>219</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>220</v>
+        <v>331</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>334</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -1903,10 +2246,10 @@
     </row>
     <row r="10">
       <c r="A10" s="48" t="s">
-        <v>217</v>
+        <v>331</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>221</v>
+        <v>335</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -1914,23 +2257,23 @@
     </row>
     <row r="11">
       <c r="A11" s="49" t="s">
-        <v>222</v>
+        <v>336</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>223</v>
+        <v>337</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30" t="s">
-        <v>224</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="49" t="s">
-        <v>222</v>
+        <v>336</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>225</v>
+        <v>339</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -1938,10 +2281,10 @@
     </row>
     <row r="13">
       <c r="A13" s="49" t="s">
-        <v>222</v>
+        <v>336</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>226</v>
+        <v>340</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -1949,23 +2292,23 @@
     </row>
     <row r="14">
       <c r="A14" s="50" t="s">
-        <v>227</v>
+        <v>341</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>228</v>
+        <v>342</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30" t="s">
-        <v>229</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="50" t="s">
-        <v>227</v>
+        <v>341</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>230</v>
+        <v>344</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -1973,10 +2316,10 @@
     </row>
     <row r="16">
       <c r="A16" s="50" t="s">
-        <v>227</v>
+        <v>341</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>231</v>
+        <v>345</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
@@ -2002,47 +2345,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="51" t="s">
-        <v>232</v>
+        <v>346</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>233</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>234</v>
+        <v>348</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>235</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>236</v>
+        <v>350</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>237</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>238</v>
+        <v>352</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>239</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>240</v>
+        <v>354</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>241</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>242</v>
+        <v>356</v>
       </c>
       <c r="B6" s="53">
         <v>60.4</v>
@@ -2050,7 +2393,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>243</v>
+        <v>357</v>
       </c>
       <c r="B7" s="53">
         <v>39.6</v>
@@ -2058,23 +2401,23 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>244</v>
+        <v>358</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>245</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>247</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>248</v>
+        <v>362</v>
       </c>
       <c r="B10" s="53">
         <v>60.4</v>
@@ -2082,7 +2425,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>249</v>
+        <v>363</v>
       </c>
       <c r="B11" s="53">
         <v>39.6</v>
@@ -2090,26 +2433,26 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>245</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>251</v>
+        <v>365</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>247</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>252</v>
+        <v>366</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>253</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15">
@@ -2117,13 +2460,13 @@
     </row>
     <row r="16">
       <c r="A16" s="55" t="s">
-        <v>254</v>
+        <v>368</v>
       </c>
       <c r="B16" s="54"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>255</v>
+        <v>369</v>
       </c>
       <c r="B17" s="53">
         <v>60.4</v>
@@ -2131,7 +2474,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>256</v>
+        <v>370</v>
       </c>
       <c r="B18" s="53">
         <v>39.6</v>
@@ -2139,23 +2482,23 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>257</v>
+        <v>371</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>245</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>258</v>
+        <v>372</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>247</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>259</v>
+        <v>373</v>
       </c>
       <c r="B21" s="53">
         <v>60.4</v>
@@ -2163,7 +2506,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>260</v>
+        <v>374</v>
       </c>
       <c r="B22" s="53">
         <v>39.6</v>
@@ -2171,23 +2514,23 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>261</v>
+        <v>375</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>245</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>262</v>
+        <v>376</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>247</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="30" t="s">
-        <v>263</v>
+        <v>377</v>
       </c>
       <c r="B25" s="56">
         <v>60.4</v>
@@ -2195,7 +2538,7 @@
     </row>
     <row r="26">
       <c r="A26" s="30" t="s">
-        <v>264</v>
+        <v>378</v>
       </c>
       <c r="B26" s="56">
         <v>39.6</v>
@@ -2206,19 +2549,19 @@
     </row>
     <row r="28">
       <c r="A28" s="55" t="s">
-        <v>265</v>
+        <v>379</v>
       </c>
       <c r="B28" s="54"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>266</v>
+        <v>380</v>
       </c>
       <c r="B29" s="54"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>267</v>
+        <v>381</v>
       </c>
       <c r="B30" s="54"/>
     </row>
@@ -5170,9 +5513,11 @@
       <c r="A2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="C2" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="21"/>
@@ -5181,9 +5526,11 @@
       <c r="A3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="C3" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="22"/>
@@ -5192,9 +5539,11 @@
       <c r="A4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="C4" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="22"/>
@@ -5203,9 +5552,11 @@
       <c r="A5" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="C5" s="19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="22"/>
@@ -5214,9 +5565,11 @@
       <c r="A6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="C6" s="19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="22"/>
@@ -5225,9 +5578,11 @@
       <c r="A7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="C7" s="19" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="22"/>
@@ -5236,97 +5591,115 @@
       <c r="A8" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="C8" s="19" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="22"/>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="C9" s="19" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="21"/>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="C10" s="19" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="22"/>
     </row>
     <row r="11">
       <c r="A11" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="24"/>
+        <v>72</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="C11" s="19" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
     </row>
     <row r="12">
       <c r="A12" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="19"/>
+        <v>72</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="C12" s="19" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="22"/>
     </row>
     <row r="13">
       <c r="A13" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="19"/>
+        <v>72</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="C13" s="19" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="22"/>
     </row>
     <row r="14">
       <c r="A14" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="19"/>
+        <v>72</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="C14" s="19" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="22"/>
     </row>
     <row r="15">
       <c r="A15" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="19"/>
+        <v>72</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="C15" s="19" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="22"/>
     </row>
     <row r="16">
       <c r="A16" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="C16" s="19" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="22"/>
@@ -5334,99 +5707,117 @@
     </row>
     <row r="17">
       <c r="A17" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="C17" s="19" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="22"/>
     </row>
     <row r="18">
       <c r="A18" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="C18" s="19" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="21"/>
     </row>
     <row r="19">
       <c r="A19" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="18"/>
+        <v>87</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="C19" s="19" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="22"/>
     </row>
     <row r="20">
       <c r="A20" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>93</v>
+      </c>
       <c r="C20" s="19" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="21"/>
     </row>
     <row r="21">
       <c r="A21" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="19"/>
+        <v>95</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="C21" s="19" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
     </row>
     <row r="22">
       <c r="A22" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="19"/>
+        <v>98</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>99</v>
+      </c>
       <c r="C22" s="19" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="21"/>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="27"/>
+        <v>101</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>102</v>
+      </c>
       <c r="C23" s="19" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="21"/>
     </row>
     <row r="24">
       <c r="A24" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="27"/>
+        <v>104</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>105</v>
+      </c>
       <c r="C24" s="19" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="21"/>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="27"/>
+        <v>107</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>108</v>
+      </c>
       <c r="C25" s="19" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="21"/>
@@ -5434,11 +5825,13 @@
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>111</v>
+      </c>
       <c r="C26" s="19" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="21"/>
@@ -5446,11 +5839,13 @@
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="27"/>
+        <v>113</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>114</v>
+      </c>
       <c r="C27" s="19" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="21"/>
@@ -5458,11 +5853,13 @@
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="27"/>
+        <v>116</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="C28" s="19" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="21"/>
@@ -5470,11 +5867,13 @@
     </row>
     <row r="29">
       <c r="A29" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="28"/>
+        <v>119</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>120</v>
+      </c>
       <c r="C29" s="19" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="30"/>
@@ -5503,11 +5902,13 @@
     </row>
     <row r="30">
       <c r="A30" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="28"/>
+        <v>122</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>123</v>
+      </c>
       <c r="C30" s="19" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="31"/>
@@ -5536,11 +5937,13 @@
     </row>
     <row r="31">
       <c r="A31" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="28"/>
+        <v>125</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>126</v>
+      </c>
       <c r="C31" s="19" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="30"/>
@@ -5569,11 +5972,13 @@
     </row>
     <row r="32">
       <c r="A32" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="28"/>
+        <v>128</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>129</v>
+      </c>
       <c r="C32" s="19" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="30"/>
@@ -5602,11 +6007,13 @@
     </row>
     <row r="33">
       <c r="A33" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>132</v>
+      </c>
       <c r="C33" s="19" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="30"/>
@@ -5635,11 +6042,13 @@
     </row>
     <row r="34">
       <c r="A34" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="28"/>
+        <v>134</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>135</v>
+      </c>
       <c r="C34" s="19" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="30"/>
@@ -11488,22 +11897,26 @@
       <c r="A2" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="C2" s="19" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="35" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="19" t="s">
+        <v>140</v>
+      </c>
       <c r="C3" s="19" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="30"/>
@@ -11512,9 +11925,11 @@
       <c r="A4" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="19" t="s">
+        <v>142</v>
+      </c>
       <c r="C4" s="19" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="30"/>
@@ -11523,9 +11938,11 @@
       <c r="A5" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="C5" s="19" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="30"/>
@@ -11534,9 +11951,11 @@
       <c r="A6" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="C6" s="19" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="30"/>
@@ -11545,9 +11964,11 @@
       <c r="A7" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="C7" s="19" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="30"/>
@@ -11556,101 +11977,119 @@
       <c r="A8" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="C8" s="19" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="30"/>
     </row>
     <row r="9">
       <c r="A9" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="C9" s="19" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="35" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>155</v>
+      </c>
       <c r="C10" s="19" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="30"/>
     </row>
     <row r="11">
       <c r="A11" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="24"/>
+        <v>72</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="C11" s="19" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="35" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="19"/>
+        <v>72</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="C12" s="19" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="30"/>
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="19"/>
+        <v>72</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="C13" s="19" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="30"/>
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="19"/>
+        <v>72</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>164</v>
+      </c>
       <c r="C14" s="19" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="30"/>
     </row>
     <row r="15">
       <c r="A15" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="19"/>
+        <v>72</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>166</v>
+      </c>
       <c r="C15" s="19" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="30"/>
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>168</v>
+      </c>
       <c r="C16" s="19" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="30"/>
@@ -11658,301 +12097,337 @@
     </row>
     <row r="17">
       <c r="A17" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="C17" s="19" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="30"/>
     </row>
     <row r="18">
       <c r="A18" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>172</v>
+      </c>
       <c r="C18" s="19" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="35" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="18"/>
+        <v>87</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>174</v>
+      </c>
       <c r="C19" s="19" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="30"/>
     </row>
     <row r="20">
       <c r="A20" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="C20" s="19" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="35" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="19"/>
+        <v>95</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>179</v>
+      </c>
       <c r="C21" s="19" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="35" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="19"/>
+        <v>98</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>182</v>
+      </c>
       <c r="C22" s="19" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="35" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="27"/>
+        <v>101</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>185</v>
+      </c>
       <c r="C23" s="19" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="35" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="27"/>
+        <v>104</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>188</v>
+      </c>
       <c r="C24" s="19" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="35" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="27"/>
+        <v>107</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>191</v>
+      </c>
       <c r="C25" s="19" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="35" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26">
       <c r="A26" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>194</v>
+      </c>
       <c r="C26" s="19" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="35" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="F26" s="28"/>
     </row>
     <row r="27">
       <c r="A27" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="27"/>
+        <v>113</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>197</v>
+      </c>
       <c r="C27" s="19" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="35" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="F27" s="28"/>
     </row>
     <row r="28">
       <c r="A28" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="27"/>
+        <v>116</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>200</v>
+      </c>
       <c r="C28" s="19" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="35" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="F28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="27"/>
+      <c r="A29" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="C29" s="19" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="35" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" s="27"/>
+      <c r="A30" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>123</v>
+      </c>
       <c r="C30" s="19" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="35" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" s="27"/>
+      <c r="A31" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>126</v>
+      </c>
       <c r="C31" s="19" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="35" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" s="19"/>
+      <c r="A32" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>129</v>
+      </c>
       <c r="C32" s="19" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="35" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" s="27"/>
+      <c r="A33" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>132</v>
+      </c>
       <c r="C33" s="19" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="35" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="27"/>
+      <c r="A34" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>135</v>
+      </c>
       <c r="C34" s="19" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="35" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="19"/>
+      <c r="A35" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="19" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="35" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="B36" s="19"/>
+      <c r="A36" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" s="10"/>
       <c r="C36" s="19" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="35" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="27"/>
+      <c r="A37" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="19" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="35" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="B38" s="27"/>
+      <c r="A38" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B38" s="10"/>
       <c r="C38" s="19" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="35" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="B39" s="19"/>
+      <c r="A39" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="10"/>
       <c r="C39" s="19" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="35" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40">
@@ -17702,6 +18177,12 @@
       <c r="C997" s="30"/>
       <c r="D997" s="22"/>
       <c r="E997" s="22"/>
+    </row>
+    <row r="998">
+      <c r="B998" s="30"/>
+      <c r="C998" s="30"/>
+      <c r="D998" s="22"/>
+      <c r="E998" s="22"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -17755,7 +18236,7 @@
       <c r="A3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="19"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
@@ -17771,7 +18252,7 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -17780,7 +18261,7 @@
     </row>
     <row r="6">
       <c r="A6" s="23" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -17789,7 +18270,7 @@
     </row>
     <row r="7">
       <c r="A7" s="23" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -17798,7 +18279,7 @@
     </row>
     <row r="8">
       <c r="A8" s="23" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -17807,7 +18288,7 @@
     </row>
     <row r="9">
       <c r="A9" s="23" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -17816,7 +18297,7 @@
     </row>
     <row r="10">
       <c r="A10" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="19"/>
@@ -17825,7 +18306,7 @@
     </row>
     <row r="11">
       <c r="A11" s="25" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -17834,7 +18315,7 @@
     </row>
     <row r="12">
       <c r="A12" s="25" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -17842,26 +18323,26 @@
       <c r="E12" s="21"/>
     </row>
     <row r="13">
-      <c r="A13" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
     </row>
     <row r="14">
-      <c r="A14" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
     </row>
     <row r="15">
       <c r="A15" s="43" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="44"/>
@@ -17870,7 +18351,7 @@
     </row>
     <row r="16">
       <c r="A16" s="43" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="44"/>
@@ -17879,18 +18360,18 @@
     </row>
     <row r="17">
       <c r="A17" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="42"/>
+        <v>131</v>
+      </c>
+      <c r="B17" s="39"/>
       <c r="C17" s="44"/>
       <c r="D17" s="22"/>
       <c r="E17" s="21"/>
     </row>
     <row r="18">
       <c r="A18" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="42"/>
+        <v>134</v>
+      </c>
+      <c r="B18" s="39"/>
       <c r="C18" s="44"/>
       <c r="D18" s="22"/>
       <c r="E18" s="21"/>
@@ -23710,16 +24191,20 @@
         <v>52</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="22"/>
+      <c r="C2" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="21"/>
       <c r="E2" s="21"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="19" t="s">
+        <v>237</v>
+      </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
     </row>
@@ -23728,133 +24213,163 @@
         <v>52</v>
       </c>
       <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>238</v>
+      </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="C5" s="19" t="s">
+        <v>239</v>
+      </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
     </row>
     <row r="6">
       <c r="A6" s="23" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="C6" s="19" t="s">
+        <v>240</v>
+      </c>
       <c r="D6" s="22"/>
       <c r="E6" s="21"/>
     </row>
     <row r="7">
       <c r="A7" s="23" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="C7" s="19" t="s">
+        <v>241</v>
+      </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8">
       <c r="A8" s="23" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>242</v>
+      </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
     </row>
     <row r="9">
       <c r="A9" s="23" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>243</v>
+      </c>
       <c r="D9" s="22"/>
       <c r="E9" s="21"/>
     </row>
     <row r="10">
       <c r="A10" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>244</v>
+      </c>
       <c r="D10" s="22"/>
       <c r="E10" s="21"/>
     </row>
     <row r="11">
       <c r="A11" s="25" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>245</v>
+      </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
     </row>
     <row r="12">
       <c r="A12" s="25" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="C12" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
     </row>
     <row r="13">
-      <c r="A13" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="19" t="s">
+        <v>247</v>
+      </c>
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
     </row>
     <row r="14">
-      <c r="A14" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="19" t="s">
+        <v>248</v>
+      </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
     </row>
     <row r="15">
       <c r="A15" s="43" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="44"/>
+      <c r="C15" s="19" t="s">
+        <v>249</v>
+      </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21"/>
     </row>
     <row r="16">
       <c r="A16" s="43" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="B16" s="19"/>
-      <c r="C16" s="44"/>
+      <c r="C16" s="19" t="s">
+        <v>250</v>
+      </c>
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
     </row>
     <row r="17">
       <c r="A17" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="44"/>
+        <v>131</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="19" t="s">
+        <v>251</v>
+      </c>
       <c r="D17" s="22"/>
       <c r="E17" s="21"/>
     </row>
     <row r="18">
       <c r="A18" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="44"/>
+        <v>134</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="19" t="s">
+        <v>252</v>
+      </c>
       <c r="D18" s="22"/>
       <c r="E18" s="21"/>
     </row>
@@ -29673,17 +30188,22 @@
         <v>52</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="22"/>
+      <c r="C2" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="E2" s="21"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="19" t="s">
+        <v>255</v>
+      </c>
       <c r="E3" s="22"/>
     </row>
     <row r="4">
@@ -29691,133 +30211,162 @@
         <v>52</v>
       </c>
       <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="E4" s="22"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="C5" s="19" t="s">
+        <v>258</v>
+      </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
     </row>
     <row r="6">
       <c r="A6" s="23" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="19" t="s">
+        <v>259</v>
+      </c>
       <c r="E6" s="21"/>
     </row>
     <row r="7">
       <c r="A7" s="23" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="19" t="s">
+        <v>260</v>
+      </c>
       <c r="E7" s="22"/>
     </row>
     <row r="8">
       <c r="A8" s="23" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="19" t="s">
+        <v>261</v>
+      </c>
       <c r="E8" s="22"/>
     </row>
     <row r="9">
       <c r="A9" s="23" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="19" t="s">
+        <v>262</v>
+      </c>
       <c r="E9" s="21"/>
     </row>
     <row r="10">
       <c r="A10" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="19" t="s">
+        <v>263</v>
+      </c>
       <c r="E10" s="21"/>
     </row>
     <row r="11">
       <c r="A11" s="25" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="E11" s="21"/>
     </row>
     <row r="12">
       <c r="A12" s="25" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="C12" s="19" t="s">
+        <v>265</v>
+      </c>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
     </row>
     <row r="13">
-      <c r="A13" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="19" t="s">
+        <v>266</v>
+      </c>
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
     </row>
     <row r="14">
-      <c r="A14" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="19" t="s">
+        <v>267</v>
+      </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
     </row>
     <row r="15">
       <c r="A15" s="43" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="44"/>
+      <c r="C15" s="19" t="s">
+        <v>249</v>
+      </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21"/>
     </row>
     <row r="16">
       <c r="A16" s="43" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="B16" s="19"/>
-      <c r="C16" s="44"/>
+      <c r="C16" s="19" t="s">
+        <v>250</v>
+      </c>
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
     </row>
     <row r="17">
       <c r="A17" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="44"/>
+        <v>131</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="19" t="s">
+        <v>251</v>
+      </c>
       <c r="D17" s="22"/>
       <c r="E17" s="21"/>
     </row>
     <row r="18">
       <c r="A18" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="44"/>
+        <v>134</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="19" t="s">
+        <v>252</v>
+      </c>
       <c r="D18" s="22"/>
       <c r="E18" s="21"/>
     </row>
@@ -35637,7 +36186,7 @@
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="21"/>
@@ -35646,9 +36195,9 @@
       <c r="A3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="19" t="s">
-        <v>177</v>
+        <v>269</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
@@ -35659,161 +36208,161 @@
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
     </row>
     <row r="6">
       <c r="A6" s="23" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="21"/>
     </row>
     <row r="7">
       <c r="A7" s="23" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
-        <v>181</v>
+        <v>273</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8">
       <c r="A8" s="23" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
     </row>
     <row r="9">
       <c r="A9" s="23" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="21"/>
     </row>
     <row r="10">
       <c r="A10" s="25" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="19" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="21"/>
     </row>
     <row r="11">
       <c r="A11" s="25" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
     </row>
     <row r="12">
       <c r="A12" s="25" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
     </row>
     <row r="13">
-      <c r="A13" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="42"/>
+      <c r="A13" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="39"/>
       <c r="C13" s="19" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
     </row>
     <row r="14">
-      <c r="A14" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="42"/>
+      <c r="A14" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="39"/>
       <c r="C14" s="19" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
     </row>
     <row r="15">
       <c r="A15" s="43" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21"/>
     </row>
     <row r="16">
       <c r="A16" s="43" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="19" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
     </row>
     <row r="17">
       <c r="A17" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="42"/>
+        <v>131</v>
+      </c>
+      <c r="B17" s="39"/>
       <c r="C17" s="19" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="21"/>
     </row>
     <row r="18">
       <c r="A18" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="42"/>
+        <v>134</v>
+      </c>
+      <c r="B18" s="39"/>
       <c r="C18" s="19" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="21"/>
@@ -41632,9 +42181,11 @@
       <c r="A2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="45" t="s">
+        <v>279</v>
+      </c>
       <c r="C2" s="19" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="21"/>
@@ -41643,9 +42194,11 @@
       <c r="A3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="41" t="s">
+        <v>281</v>
+      </c>
       <c r="C3" s="19" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
@@ -41654,160 +42207,190 @@
       <c r="A4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="45" t="s">
+        <v>283</v>
+      </c>
       <c r="C4" s="19" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>285</v>
+      </c>
       <c r="C5" s="19" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
     </row>
     <row r="6">
       <c r="A6" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="19"/>
+        <v>72</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>287</v>
+      </c>
       <c r="C6" s="19" t="s">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="E6" s="21"/>
     </row>
     <row r="7">
       <c r="A7" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="19"/>
+        <v>72</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>289</v>
+      </c>
       <c r="C7" s="19" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="E7" s="22"/>
     </row>
     <row r="8">
       <c r="A8" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="19"/>
+        <v>72</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="C8" s="19" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="E8" s="22"/>
     </row>
     <row r="9">
       <c r="A9" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>293</v>
+      </c>
       <c r="C9" s="19" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="21"/>
     </row>
     <row r="10">
       <c r="A10" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="27"/>
+        <v>92</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>295</v>
+      </c>
       <c r="C10" s="19" t="s">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="21"/>
     </row>
     <row r="11">
       <c r="A11" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="19"/>
+        <v>95</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>297</v>
+      </c>
       <c r="C11" s="19" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
     </row>
     <row r="12">
       <c r="A12" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="19"/>
+        <v>98</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>299</v>
+      </c>
       <c r="C12" s="19" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
     </row>
     <row r="13">
-      <c r="A13" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="42"/>
+      <c r="A13" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>301</v>
+      </c>
       <c r="C13" s="19" t="s">
-        <v>204</v>
+        <v>302</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
     </row>
     <row r="14">
-      <c r="A14" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="42"/>
+      <c r="A14" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>303</v>
+      </c>
       <c r="C14" s="19" t="s">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
     </row>
     <row r="15">
       <c r="A15" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="19"/>
+        <v>125</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>305</v>
+      </c>
       <c r="C15" s="19" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21"/>
     </row>
     <row r="16">
       <c r="A16" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="19"/>
+        <v>128</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>306</v>
+      </c>
       <c r="C16" s="19" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
     </row>
     <row r="17">
       <c r="A17" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="42"/>
+        <v>131</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>307</v>
+      </c>
       <c r="C17" s="19" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="21"/>
     </row>
     <row r="18">
       <c r="A18" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="42"/>
+        <v>134</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>308</v>
+      </c>
       <c r="C18" s="19" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="21"/>
@@ -47626,9 +48209,11 @@
       <c r="A2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="45" t="s">
+        <v>309</v>
+      </c>
       <c r="C2" s="19" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="21"/>
@@ -47637,9 +48222,11 @@
       <c r="A3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="41" t="s">
+        <v>310</v>
+      </c>
       <c r="C3" s="19" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
@@ -47648,163 +48235,193 @@
       <c r="A4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="45" t="s">
+        <v>311</v>
+      </c>
       <c r="C4" s="19" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>312</v>
+      </c>
       <c r="C5" s="19" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
     </row>
     <row r="6">
       <c r="A6" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="19"/>
+        <v>72</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>313</v>
+      </c>
       <c r="C6" s="19" t="s">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>206</v>
+        <v>314</v>
       </c>
       <c r="E6" s="21"/>
     </row>
     <row r="7">
       <c r="A7" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="19"/>
+        <v>72</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>315</v>
+      </c>
       <c r="C7" s="19" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="E7" s="22"/>
     </row>
     <row r="8">
       <c r="A8" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="19"/>
+        <v>72</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>316</v>
+      </c>
       <c r="C8" s="19" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="E8" s="22"/>
     </row>
     <row r="9">
       <c r="A9" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>317</v>
+      </c>
       <c r="C9" s="19" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="21"/>
     </row>
     <row r="10">
       <c r="A10" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="27"/>
+        <v>92</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>318</v>
+      </c>
       <c r="C10" s="19" t="s">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="21"/>
     </row>
     <row r="11">
       <c r="A11" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="19"/>
+        <v>95</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>319</v>
+      </c>
       <c r="C11" s="19" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
     </row>
     <row r="12">
       <c r="A12" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="19"/>
+        <v>98</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>320</v>
+      </c>
       <c r="C12" s="19" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
     </row>
     <row r="13">
-      <c r="A13" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="42"/>
+      <c r="A13" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>301</v>
+      </c>
       <c r="C13" s="19" t="s">
-        <v>204</v>
+        <v>302</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
     </row>
     <row r="14">
-      <c r="A14" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="42"/>
+      <c r="A14" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>303</v>
+      </c>
       <c r="C14" s="19" t="s">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
     </row>
     <row r="15">
       <c r="A15" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="19"/>
+        <v>125</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>305</v>
+      </c>
       <c r="C15" s="19" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21"/>
     </row>
     <row r="16">
       <c r="A16" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="19"/>
+        <v>128</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>306</v>
+      </c>
       <c r="C16" s="19" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
     </row>
     <row r="17">
       <c r="A17" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="42"/>
+        <v>131</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>307</v>
+      </c>
       <c r="C17" s="19" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="21"/>
     </row>
     <row r="18">
       <c r="A18" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="42"/>
+        <v>134</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>308</v>
+      </c>
       <c r="C18" s="19" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="21"/>

--- a/Texte/Textbausteine_LENA_September2024.xlsx
+++ b/Texte/Textbausteine_LENA_September2024.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="483">
   <si>
     <t>Kanton</t>
   </si>
@@ -540,6 +540,9 @@
     <t>La population de #Gemeinde_f approuve à #JaStimmenInProzent pour cent la réforme de la LPP.</t>
   </si>
   <si>
+    <t>I cittadini di #Gemeinde_i hanno accolto la riforma LPP con il #JaStimmenInProzent per cento di voti a favore.</t>
+  </si>
+  <si>
     <t>Mehr Ja- als Nein-Stimmen</t>
   </si>
   <si>
@@ -549,10 +552,16 @@
     <t>#Gemeinde_f dit oui à #JaStimmenInProzent pour cent à de la réforme de la LPP.</t>
   </si>
   <si>
+    <t>Gli abitanti di #Gemeinde_i hanno accolto la riforma LPP con il #JaStimmenInProzent per cento di "sì".</t>
+  </si>
+  <si>
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben sich für die Pensionskassenreform ausgesprochen.</t>
   </si>
   <si>
     <t>A #Gemeinde_f, les habitants disent oui à  #JaStimmenInProzent pour cent à la réforme de la LPP.</t>
+  </si>
+  <si>
+    <t>Nel comune di #Gemeinde_i, i cittadini hanno accolto la riforma LPP con il #JaStimmenInProzent per cento di voti favorevoli.</t>
   </si>
   <si>
     <t>Die Pensionskassenreform ist in #Gemeinde_d mit #JaStimmenInProzent Prozent der Stimmen angenommen worden.</t>
@@ -561,10 +570,16 @@
     <t>La réforme de la LPP est approuvée à #Gemeinde_f par #JaStimmenInProzent pour cent des votants.</t>
   </si>
   <si>
+    <t>A #Gemeinde_i gli abitanti hanno accolto la riforma LPP con il #JaStimmenInProzent per cento di "sì".</t>
+  </si>
+  <si>
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger in #Gemeinde_d haben Ja gesagt zur Pensionskassenreform.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui la réforme de la LPP.</t>
+  </si>
+  <si>
+    <t>Il #JaStimmenInProzent per cento degli elettori di #Gemeinde_i ha accolto la riforma LPP.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat die Pensionskassenreform angenommen. Die Gemeinde stimmte der Vorlage mit Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent zu.</t>
@@ -573,16 +588,25 @@
     <t>La réforme de la LPP passe la rampe avec #JaStimmenInProzent pour cent de oui à #Gemeinde_f.</t>
   </si>
   <si>
+    <t>la riforma LPP è stata accolta a #Gemeinde_i, dove ha riscosso il #JaStimmenInProzent per cento di voti a favore.</t>
+  </si>
+  <si>
     <t>Ja zur Pensionskassenreform in #Gemeinde_d. Die Gemeinde hat Vorlage mit #JaStimmenInProzent Prozent der Stimmen angenommen.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f soutiennent à #JaStimmenInProzent pour cent la réforme de la LPP.</t>
   </si>
   <si>
+    <t>Gli elettori di #Gemeinde_i si sono mostrati favorevoli alla riforma LPP, che ha ricevuto il #JaStimmenInProzent per cento di "sì".</t>
+  </si>
+  <si>
     <t>#Gemeinde_d hat die Pensionskassenreform mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen angenommen.</t>
   </si>
   <si>
     <t xml:space="preserve"> La réforme de la LPP est validée à #Gemeinde_f. Les citoyens de cette petite commune sont #JaStimmenAbsolut à soutenir le texte, contre #NeinStimmenAbsolut à le refuser.</t>
+  </si>
+  <si>
+    <t>la riforma LPP ha passato la prova delle urne a #Gemeinde_i, dove ha raccolto #JaStimmenAbsolut voti favorevoli e #NeinStimmenAbsolut voti contrari.</t>
   </si>
   <si>
     <t>Gemeinden mit weniger als 100 Stimmabgaben</t>
@@ -594,10 +618,16 @@
     <t>Les électeurs de la petite commune de #Gemeinde_f ont accordé leur confiance à la réforme de la LPP. Ils ont dit oui au texte par #JaStimmenAbsolut voix, contre #NeinStimmenAbsolut.</t>
   </si>
   <si>
+    <t>la riforma LPP è stata accolta dagli elettori di #Gemeinde_i, dove i voti a favore sono stati #JaStimmenAbsolut e quelli contrari #NeinStimmenAbsolut.</t>
+  </si>
+  <si>
     <t xml:space="preserve">#Gemeinde_d ist gegen die Pensionskassenreform: Die Gemeinde hat die Vorlage mit #NeinStimmenInProzent Prozent Nein verworfen. </t>
   </si>
   <si>
     <t>La réforme de la LPP est refusée à #NeinStimmenInProzent pour cent à #Gemeinde_f.</t>
+  </si>
+  <si>
+    <t>I cittadini di #Gemeinde_i hanno respinto la riforma LPP con il #NeinStimmenInProzent per cento di voti contrari.</t>
   </si>
   <si>
     <t>Mehr Nein- als Ja-Stimmen</t>
@@ -609,10 +639,16 @@
     <t>Les habitants de #Gemeinde_f s'opposent à la réforme de la LPP par #NeinStimmenInProzent pour cent des voix.</t>
   </si>
   <si>
+    <t>Gli abitanti di #Gemeinde_i hanno respinto la riforma LPP con il #NeinStimmenInProzent per cento di "no".</t>
+  </si>
+  <si>
     <t>#NeinStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben sich gegen die Pensionskassenreform ausgesprochen.</t>
   </si>
   <si>
     <t>A #Gemeinde_f, les citoyens rejettent à #NeinStimmenInProzent pour cent la réforme de la LPP.</t>
+  </si>
+  <si>
+    <t>Nel comune di #Gemeinde_i, i cittadini hanno respinto la riforma LPP con il #NeinStimmenInProzent per cento di voti contrari.</t>
   </si>
   <si>
     <t>Mit #NeinStimmenAbsolut Nein zu #JaStimmenAbsolut Ja haben die Stimmbürgerinnen und Stimmbürger von #Gemeinde_d die Pensionskassenreform abgelehnt. Das sind #NeinStimmenInProzent Prozent.</t>
@@ -621,10 +657,16 @@
     <t>La population de #Gemeinde_f rejette à #NeinStimmenInProzent pour cent des voix la réforme de la LPP.</t>
   </si>
   <si>
+    <t>A #Gemeinde_i gli abitanti si sono opposti alla riforma LPP con il #NeinStimmenInProzent per cento di voti a sfavore.</t>
+  </si>
+  <si>
     <t>In #Gemeinde_d ist die Pensionskassenreform mit #NeinStimmenInProzent Prozent gescheitert.</t>
   </si>
   <si>
     <t>La réforme de la LPP n'a pas convaincu à #Gemeinde_f. Les citoyens de la commune ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
+    <t>Il #NeinStimmenInProzent per cento degli elettori di #Gemeinde_i ha respinto la riforma LPP.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat die Pensionskassenreform mit #NeinStimmenInProzent Prozent Nein-Stimmen verworfen.</t>
@@ -633,10 +675,16 @@
     <t>La réforme de la LPP n'a pas trouvé grâce aux yeux des citoyens de #Gemeinde_f. Ils ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
+    <t>la riforma LPP è stata respinta a #Gemeinde_i, dove ha riscosso il #NeinStimmenInProzent per cento di "no".</t>
+  </si>
+  <si>
     <t>In #Gemeinde_d hat die Pensionskassenreform keine Mehrheit gefunden: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
   </si>
   <si>
     <t>C'est non à la réforme de la LPP à #Gemeinde_f. Les habitants ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
+    <t>Gli elettori di #Gemeinde_i si sono mostrati scettici nei confronti della riforma LPP, che è stata respinta con il #NeinStimmenInProzent per cento di voti contrari.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat die Pensionskassenreform mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen verworfen.</t>
@@ -645,16 +693,25 @@
     <t>Les habitants de la petite commune de #Gemeinde_f ont refusé la réforme de la LPP. Ils ont dit non à cet objet par #NeinStimmenAbsolut voix contre #JaStimmenAbsolut.</t>
   </si>
   <si>
+    <t>la riforma LPP non ha passato la prova delle urne a #Gemeinde_i, dove è stata respinta con #NeinStimmenAbsolut voti contro i #JaStimmenAbsolut a favore.</t>
+  </si>
+  <si>
     <t>#Gemeinde_d hat die Pensionskassenreform mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen abgelehnt.</t>
   </si>
   <si>
     <t>La réforme de la LPP ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune l'ont rejetée par #NeinStimmenAbsolut voix, contre #JaStimmenAbsolut.</t>
   </si>
   <si>
+    <t>la riforma LPP è stata respinta dagli elettori di #Gemeinde_i, dove i "no" sono stati #NeinStimmenAbsolut e i voti favorevoli #JaStimmenAbsolut.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unentschieden in #Gemeinde_d: Genau gleich viele Stimmbürgerinnen und Stimmbürger haben bei der Abstimmung über die Pensionskassenreform ein Ja oder ein Nein in die Urne gelegt, nämlich #JaStimmenAbsolut. </t>
   </si>
   <si>
     <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la réforme de la LPP et #NeinStimmenAbsolut à la refuser.</t>
+  </si>
+  <si>
+    <t>A #Gemeinde_i è stato raggiunto un risultato di parità. la riforma LPP ha ricevuto #JaStimmenAbsolut voti a favore e altrettanti contrari.</t>
   </si>
   <si>
     <t>Gleich viele Ja- wie Nein-Stimmen</t>
@@ -666,6 +723,9 @@
     <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous la réforme de la LPP.</t>
   </si>
   <si>
+    <t>I cittadini di #Gemeinde_i si sono espressi nettamente a favore della riforma LPP, che ha collezionato #JaStimmenAbsolut "sì".</t>
+  </si>
+  <si>
     <t>Einstimmiges Resultat Ja</t>
   </si>
   <si>
@@ -673,6 +733,9 @@
   </si>
   <si>
     <t>Un non sec et sonnant à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous la réforme de la LPP.</t>
+  </si>
+  <si>
+    <t>A #Gemeinde_i la riforma LPP è stata nettamente respinta dagli elettori. I voti contrari sono stati #NeinStimmenAbsolut.</t>
   </si>
   <si>
     <t>Einstimmiges Resultat Nein</t>
@@ -684,6 +747,9 @@
     <t>Nulle part ailleurs en Suisse, la réforme de la LPP est approuvée plus clairement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
+    <t>In nessun altro comune svizzero la riforma LPP è stata accolta come a #Gemeinde_i, dove l'elettorato l'ha votata con il #JaStimmenInProzent per cento di voti a favore.</t>
+  </si>
+  <si>
     <t>Gemeinde mit dem höchsten Ja-Anteil (schweizweit)</t>
   </si>
   <si>
@@ -691,6 +757,9 @@
   </si>
   <si>
     <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations de la réforme de la LPP. Ses habitants disent oui à #JaStimmenInProzent pour cent.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_i si è posizionato secondo nella graduatoria dei comuni in cui la riforma LPP è stata accolta maggiormente. È stata votata con il #JaStimmenInProzent per cento di voti a favore.</t>
   </si>
   <si>
     <t>Gemeinde mit dem zweithöchsten Ja-Anteil</t>
@@ -702,6 +771,9 @@
     <t>#Gemeinde_f se classe au troisième rang des plus fortes approbations de la réforme de la LPP. Ses citoyens disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
+    <t>Terzo posto nella classifica dei comuni in cui la riforma LPP è stata accolta maggiormente per #Gemeinde_i. L'oggetto in votazione ha ricevuto il #JaStimmenInProzent per cento di "sì".</t>
+  </si>
+  <si>
     <t>Gemeinde mit dem dritthöchsten Ja-Anteil</t>
   </si>
   <si>
@@ -709,6 +781,9 @@
   </si>
   <si>
     <t>Nulle part ailleurs en Suisse, la réforme de la LPP n'est rejetée plus fortement qu'à #Gemeinde_f: c'est non à #NeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
+    <t>In nessun altro comune svizzero la riforma LPP è stata respinta come a #Gemeinde_i, dove l'elettorato l'ha affossata con il #NeinStimmenInProzent per cento di voti contrari.</t>
   </si>
   <si>
     <t>Gemeinde mit dem höchsten Nein-Anteil (schweizweit)</t>
@@ -720,6 +795,9 @@
     <t>#Gemeinde_f se classe au deuxième rang des plus forts refus de la réforme de la LPP. Elle dit non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
+    <t>#Gemeinde_i si è posizionato secondo nella graduatoria dei comuni in cui la riforma LPP è stata respinta maggiormente. È stata bocciata con il #NeinStimmenInProzent per cento di "no".</t>
+  </si>
+  <si>
     <t>Gemeinde mit dem zweithöchsten Nein-Anteil</t>
   </si>
   <si>
@@ -729,19 +807,25 @@
     <t>#Gemeinde_f se classe au troisième rang des plus forts refus de la réforme de la LPP. Le rejet atteint #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
+    <t>Terzo posto nella classifica dei comuni in cui la riforma LPP è stata respinta più nettamente per #Gemeinde_i. L'oggetto in votazione ha ricevuto il #NeinStimmenInProzent per cento di voti contrari.</t>
+  </si>
+  <si>
     <t>Gemeinde mit dem dritthöchsten Nein-Anteil</t>
   </si>
   <si>
     <t>HistoricPhrase_Ja_Ja_JaAnteilGestiegen</t>
   </si>
   <si>
-    <t>Im Vergleich zur letzten Abstimmung über die berufliche Vorsorge im Jahr 2010 hat in #Gemeinde_d die Zustimmung noch einmal zugenommen. Damals betrug der Ja-Stimmen-Anteil #HistJaStimmenInProzent Prozent.</t>
+    <t>Im Vergleich zur letzten Abstimmung über die berufliche Vorsorge im Jahr 2010 hat in #Gemeinde_d die Zustimmung zugenommen. Damals betrug der Ja-Stimmen-Anteil #HistJaStimmenInProzent Prozent.</t>
   </si>
   <si>
     <t>Le soutien à une réforme de la LPP a augmenté à #Gemeinde_f depuis la précédente votation de 2010. Lors de cette votation, #HistJaStimmenInProzent pour cent des habitants de la commune avaient accepté une adaptation du taux de conversion.</t>
   </si>
   <si>
-    <t>Mindestumwandlungssatz (Abst. 1990) Ja, Reform der beruflichen Vorsorge (Abst. September 2024) deutlicher Ja</t>
+    <t>Il sostegno alla riforma LPP è aumentato a #Gemeinde_i dalla precedente votazione del 2010. In quell'occasione il #HistJaStimmenInProzent per cento degli abitanti del comune aveva accolto un adeguamento dell'aliquota minima di conversione.</t>
+  </si>
+  <si>
+    <t>Mindestumwandlungssatz (Abst. 2010) Ja, Reform der beruflichen Vorsorge (Abst. September 2024) deutlicher Ja</t>
   </si>
   <si>
     <t>HistoricPhrase_Ja_Ja_JaAnteilGesunken</t>
@@ -753,7 +837,10 @@
     <t>Le soutien à une réforme de la LPP est toutefois moins appuyé que lors de la votation de 2010. Les habitants de #Gemeinde_f avaient alors dit oui à #HistJaStimmenInProzent pour cent à une adaptation du taux de conversion.</t>
   </si>
   <si>
-    <t>Mindestumwandlungssatz (Abst. 1990) Ja, Reform der beruflichen Vorsorge (Abst. September 2024) weniger deutlich Ja</t>
+    <t>Il sostegno alla riforma LPP è meno forte rispetto alla votazione del 2010, momento in cui il #HistJaStimmenInProzent per cento degli abitanti di #Gemeinde_i si era detto favorevole a un adeguamento dell'aliquota minima di conversione.</t>
+  </si>
+  <si>
+    <t>Mindestumwandlungssatz (Abst. 2010) Ja, Reform der beruflichen Vorsorge (Abst. September 2024) weniger deutlich Ja</t>
   </si>
   <si>
     <t>HistoricPhrase_Ja_Ja_JaAnteilÄhnlich</t>
@@ -765,7 +852,11 @@
     <t>Les avis restent ainsi stables sur la question d'une réforme de la LPP à #Gemeinde_f. En 2010, la commune avait déjà voté oui à #HistJaStimmenInProzent pour cent à une adaptation du taux de conversion.</t>
   </si>
   <si>
-    <t>Mindestumwandlungssatz (Abst. 1990) und Reform der beruflichen Vorsorge (Abst. September 2024) ähnlicher Ja-Anteil (+- 1%)</t>
+    <t xml:space="preserve">A #Gemeinde_i, i cittadini hanno confermato quanto votato nel 2010, quando il #HistJaStimmenInProzent per cento degli abitanti si era espresso favorevolmente a un adeguamneto del tasso di conversione.
+</t>
+  </si>
+  <si>
+    <t>Mindestumwandlungssatz (Abst. 2010) und Reform der beruflichen Vorsorge (Abst. September 2024) ähnlicher Ja-Anteil (+- 1%)</t>
   </si>
   <si>
     <t>HistoricPhrase_Ja_Ja_JaAnteilUnverändert</t>
@@ -777,19 +868,26 @@
     <t>Les citoyens de #Gemeinde_f n'ont pas changé d'avis sur une réforme de la LPP depuis la votation de 2010. La part de oui à une adaptation du taux de conversion est restée inchangée.</t>
   </si>
   <si>
-    <t>Mindestumwandlungssatz (Abst. 1990) und Reform der beruflichen Vorsorge (Abst. September 2024) gleicher Ja-Anteil</t>
+    <t xml:space="preserve">I cittadini di #Gemeinde_i non hanno cambiato parere sulla riforma LPP dalla votazione del 2010. La quota di "sì" a un adeguamento dell'aliquota minima di conversione è rimasta invariata.
+</t>
+  </si>
+  <si>
+    <t>Mindestumwandlungssatz (Abst. 2010) und Reform der beruflichen Vorsorge (Abst. September 2024) gleicher Ja-Anteil</t>
   </si>
   <si>
     <t>HistoricPhrase_Nein_Nein_NeinAnteilGestiegen</t>
   </si>
   <si>
-    <t>Damit ist in #Gemeinde_d die Ablehnung im Vergleich zur letzten Abstimmung über die berufliche Vorsorge im Jahr 2010 noch einmal gestiegen. Damals betrug der Nein-Stimmen-Anteil #HistNeinStimmenInProzent Prozent.</t>
+    <t>Damit ist in #Gemeinde_d die Ablehnung im Vergleich zur letzten Abstimmung über die berufliche Vorsorge im Jahr 2010 gestiegen. Damals betrug der Nein-Stimmen-Anteil #HistNeinStimmenInProzent Prozent.</t>
   </si>
   <si>
     <t>Le refus de la réforme de la LPP est plus fort que celui d'une précédente réforme en 2010. La proportion de "non" à #Gemeinde_f à une adaptation du taux de conversion était alors de #HistNeinStimmenInProzent pour cent.</t>
   </si>
   <si>
-    <t>Mindestumwandlungssatz (Abst. 1990) Nein, Reform der beruflichen Vorsorge (Abst. September 2024) deutlicher Nein</t>
+    <t>Il rifiuto della riforma LPP a #Gemeinde_i si è mostrato più forte rispetto a quanto verificatosi nella votazione del 2010, quando a votare "no" a un adeguamento del asso di conversione era stato il #HistNeinStimmenInProzent per cento dei cittadini.</t>
+  </si>
+  <si>
+    <t>Mindestumwandlungssatz (Abst. 2010) Nein, Reform der beruflichen Vorsorge (Abst. September 2024) deutlicher Nein</t>
   </si>
   <si>
     <t>HistoricPhrase_Nein_Nein_NeinAnteilGesunken</t>
@@ -801,7 +899,10 @@
     <t>Le rejet de la loi est toutefois moins fort que celui de la précédente réforme en 2010. Les habitants de #Gemeinde_f avaient alors dit non à #HistNeinStimmenInProzent pour cent à une adaptation du taux de conversion.</t>
   </si>
   <si>
-    <t>Mindestumwandlungssatz (Abst. 1990) Nein, Reform der beruflichen Vorsorge (Abst. September 2024) weniger deutlich Nein</t>
+    <t>Il rifiuto della riforma LPP è meno forte rispetto a quanto avvenuto durante la votazione del 2010, momento in cui il #HistNeinStimmenInProzent per cento degli abitanti di #Gemeinde_i aveva respinto un adeguamento dell'aliquota minima di conversione.</t>
+  </si>
+  <si>
+    <t>Mindestumwandlungssatz (Abst. 2010) Nein, Reform der beruflichen Vorsorge (Abst. September 2024) weniger deutlich Nein</t>
   </si>
   <si>
     <t>HistoricPhrase_Nein_Nein_NeinAnteilÄhnlich</t>
@@ -813,7 +914,11 @@
     <t>Le résultat a peu changé par rapport à la précédente réforme de la LPP en 2010. #Gemeinde_f avait alors dit non à #HistNeinStimmenInProzent pour cent à une adaptation du taux de conversion.</t>
   </si>
   <si>
-    <t>Mindestumwandlungssatz (Abst. 1990) und Reform der beruflichen Vorsorge (Abst. September 2024) ähnlicher Nein-Anteil (+- 1%)</t>
+    <t xml:space="preserve">Il risultato conseguito nel comune di #Gemeinde_i è cambiato di poco rispetto alla precedente votazione sulla riforma LPP del 2010, quando il #HistNeinStimmenInProzent per cento degli elettori aveva respinto l'idea di un adeguamento dell'aliquota minima di conversione.
+</t>
+  </si>
+  <si>
+    <t>Mindestumwandlungssatz (Abst. 2010) und Reform der beruflichen Vorsorge (Abst. September 2024) ähnlicher Nein-Anteil (+- 1%)</t>
   </si>
   <si>
     <t>HistoricPhrase_Nein_Nein_NeinAnteilUnverändert</t>
@@ -825,7 +930,11 @@
     <t>Avec ce score, le résultat des urnes reste à #Gemeinde_f identique à celui de 2010, lorsque les citoyens avaient dû se prononcer sur une adaptation du taux de conversion.</t>
   </si>
   <si>
-    <t>Mindestumwandlungssatz (Abst. 1990) und Reform der beruflichen Vorsorge (Abst. September 2024) gleicher Nein-Anteil</t>
+    <t xml:space="preserve">Con questo punteggio, il risultato delle urne a #Gemeinde_i rimane identico a quello del 2010, quando gli abitanti avevano dovuto esprimersi su un adeguamento dell'aliquota minima di conversione.
+</t>
+  </si>
+  <si>
+    <t>Mindestumwandlungssatz (Abst. 2010) und Reform der beruflichen Vorsorge (Abst. September 2024) gleicher Nein-Anteil</t>
   </si>
   <si>
     <t>HistoricPhrase_Nein_Ja</t>
@@ -837,7 +946,11 @@
     <t>Avec ce résultat, #Gemeinde_f bascule dans le camp du oui. La commune avait rejeté une précédente réforme de la LPP en 2010 avec #HistNeinStimmenInProzent pour cent des voix.</t>
   </si>
   <si>
-    <t>Mindestumwandlungssatz (Abst. 1990) Nein, Reform der beruflichen Vorsorge (Abst. September 2024) Ja</t>
+    <t xml:space="preserve">Con questo risultato, #Gemeinde_i si colloca nello schieramento dei fautori della LPP. Nel 2010 il comune aveva respinto la riforma LPP con il #HistNeinStimmenInProzent per cento dei voti contrari.
+</t>
+  </si>
+  <si>
+    <t>Mindestumwandlungssatz (Abst. 2010) Nein, Reform der beruflichen Vorsorge (Abst. September 2024) Ja</t>
   </si>
   <si>
     <t>HistoricPhrase_Ja_Nein</t>
@@ -849,16 +962,23 @@
     <t>En près de quinze ans, la commune a ainsi changé de camp en matière de réforme de la LPP. #Gemeinde_f avait rejeté une adaptation du taux de conversion à #HistNeinStimmenInProzent pour cent en 2010.</t>
   </si>
   <si>
-    <t>Mindestumwandlungssatz (Abst. 1990) Ja, Reform der beruflichen Vorsorge (Abst. September 2024) Nein</t>
+    <t>In quasi quindici anni, gli abitanti del comune hanno cambiato opinione in materia di riforma LPP. All'epoca, nel 2010, #Gemeinde_i aveva accolto un adeguamento dell'aliquota minima di conversione con il #HistJaStimmenInProzent per cento di voti a favore.</t>
+  </si>
+  <si>
+    <t>Mindestumwandlungssatz (Abst. 2010) Ja, Reform der beruflichen Vorsorge (Abst. September 2024) Nein</t>
   </si>
   <si>
     <t>HistoricPhrase_NichtMöglich</t>
   </si>
   <si>
-    <t xml:space="preserve">Wegen der Veränderung der Gemeindestruktur ist ein Vergleich mit der Abstimmung vor 13. Juni 2021 über das CO2-Gesetz in #Gemeinde_d nicht möglich. </t>
+    <t xml:space="preserve">Wegen der Veränderung der Gemeindestruktur ist ein Vergleich mit der Abstimmung vor 7. Juni 2010 über die berufliche Vorsorge in #Gemeinde_d nicht möglich. </t>
   </si>
   <si>
     <t>Il n'est pas possible de comparer les résultats de cette votation à ceux du 7 juin 2010 sur l'adaption du taux de conversion en raison de changements dans la structure de la commune de #Gemeinde_f.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non è possibile confrontare i risultati di questa votazione con quelli del 7 giugno 2010 sull'adeguamento dell'aliquota minima di conversione a causa di cambiamenti nella struttura del comune di #Gemeinde_i.
+</t>
   </si>
   <si>
     <t>Vergleich nicht möglich</t>
@@ -2351,12 +2471,12 @@
         <v>52</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
@@ -2364,7 +2484,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -2375,7 +2495,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -2386,12 +2506,12 @@
         <v>74</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="26" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6">
@@ -2399,12 +2519,12 @@
         <v>81</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="26" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7">
@@ -2412,7 +2532,7 @@
         <v>81</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -2423,7 +2543,7 @@
         <v>81</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -2434,12 +2554,12 @@
         <v>103</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="26" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10">
@@ -2447,12 +2567,12 @@
         <v>110</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="26" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
@@ -2460,12 +2580,12 @@
         <v>114</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="26" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -2473,12 +2593,12 @@
         <v>118</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="26" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13">
@@ -2486,12 +2606,12 @@
         <v>146</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="26" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14">
@@ -2499,12 +2619,12 @@
         <v>150</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="26" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15">
@@ -2512,12 +2632,12 @@
         <v>154</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="26" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16">
@@ -2525,12 +2645,12 @@
         <v>158</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="26" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17">
@@ -2538,12 +2658,12 @@
         <v>162</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" s="26" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18">
@@ -2551,12 +2671,12 @@
         <v>166</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="26" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19">
@@ -9327,23 +9447,23 @@
     </row>
     <row r="2">
       <c r="A2" s="46" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="46" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -9351,10 +9471,10 @@
     </row>
     <row r="4">
       <c r="A4" s="46" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -9362,23 +9482,23 @@
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -9386,10 +9506,10 @@
     </row>
     <row r="7">
       <c r="A7" s="46" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -9397,23 +9517,23 @@
     </row>
     <row r="8">
       <c r="A8" s="51" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="51" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>397</v>
+        <v>435</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -9421,10 +9541,10 @@
     </row>
     <row r="10">
       <c r="A10" s="51" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -9432,23 +9552,23 @@
     </row>
     <row r="11">
       <c r="A11" s="52" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="52" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -9456,10 +9576,10 @@
     </row>
     <row r="13">
       <c r="A13" s="52" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -9467,23 +9587,23 @@
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29" t="s">
-        <v>406</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -9491,10 +9611,10 @@
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -9520,47 +9640,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="53" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>417</v>
+        <v>455</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>418</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>419</v>
+        <v>457</v>
       </c>
       <c r="B6" s="55">
         <v>60.4</v>
@@ -9568,7 +9688,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>420</v>
+        <v>458</v>
       </c>
       <c r="B7" s="55">
         <v>39.6</v>
@@ -9576,23 +9696,23 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>423</v>
+        <v>461</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>424</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="B10" s="55">
         <v>60.4</v>
@@ -9600,7 +9720,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>426</v>
+        <v>464</v>
       </c>
       <c r="B11" s="55">
         <v>39.6</v>
@@ -9608,26 +9728,26 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>424</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15">
@@ -9635,13 +9755,13 @@
     </row>
     <row r="16">
       <c r="A16" s="57" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="B16" s="56"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="B17" s="55">
         <v>60.4</v>
@@ -9649,7 +9769,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="B18" s="55">
         <v>39.6</v>
@@ -9657,23 +9777,23 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>424</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="B21" s="55">
         <v>60.4</v>
@@ -9681,7 +9801,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="B22" s="55">
         <v>39.6</v>
@@ -9689,23 +9809,23 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>439</v>
+        <v>477</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>424</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="29" t="s">
-        <v>440</v>
+        <v>478</v>
       </c>
       <c r="B25" s="58">
         <v>60.4</v>
@@ -9713,7 +9833,7 @@
     </row>
     <row r="26">
       <c r="A26" s="29" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="B26" s="58">
         <v>39.6</v>
@@ -9724,19 +9844,19 @@
     </row>
     <row r="28">
       <c r="A28" s="57" t="s">
-        <v>442</v>
+        <v>480</v>
       </c>
       <c r="B28" s="56"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>443</v>
+        <v>481</v>
       </c>
       <c r="B29" s="56"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="B30" s="56"/>
     </row>
@@ -19144,9 +19264,11 @@
       <c r="C2" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="18" t="s">
+        <v>172</v>
+      </c>
       <c r="E2" s="34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
@@ -19154,12 +19276,14 @@
         <v>52</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="18"/>
+        <v>175</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="E3" s="29"/>
     </row>
     <row r="4">
@@ -19167,12 +19291,14 @@
         <v>52</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="18"/>
+        <v>178</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>179</v>
+      </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5">
@@ -19180,12 +19306,14 @@
         <v>52</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>181</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>182</v>
+      </c>
       <c r="E5" s="29"/>
     </row>
     <row r="6">
@@ -19193,12 +19321,14 @@
         <v>52</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>184</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>185</v>
+      </c>
       <c r="E6" s="29"/>
     </row>
     <row r="7">
@@ -19206,12 +19336,14 @@
         <v>52</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>187</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>188</v>
+      </c>
       <c r="E7" s="29"/>
     </row>
     <row r="8">
@@ -19219,12 +19351,14 @@
         <v>52</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>190</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>191</v>
+      </c>
       <c r="E8" s="29"/>
     </row>
     <row r="9">
@@ -19232,14 +19366,16 @@
         <v>74</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="18"/>
+        <v>193</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>194</v>
+      </c>
       <c r="E9" s="34" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10">
@@ -19247,12 +19383,14 @@
         <v>74</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="18"/>
+        <v>197</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>198</v>
+      </c>
       <c r="E10" s="29"/>
     </row>
     <row r="11">
@@ -19260,14 +19398,16 @@
         <v>81</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="18"/>
+        <v>200</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>201</v>
+      </c>
       <c r="E11" s="34" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12">
@@ -19275,12 +19415,14 @@
         <v>81</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" s="18"/>
+        <v>204</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="E12" s="29"/>
     </row>
     <row r="13">
@@ -19288,12 +19430,14 @@
         <v>81</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="18"/>
+        <v>207</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>208</v>
+      </c>
       <c r="E13" s="29"/>
     </row>
     <row r="14">
@@ -19301,12 +19445,14 @@
         <v>81</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="18"/>
+        <v>210</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>211</v>
+      </c>
       <c r="E14" s="29"/>
     </row>
     <row r="15">
@@ -19314,12 +19460,14 @@
         <v>81</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>213</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>214</v>
+      </c>
       <c r="E15" s="29"/>
     </row>
     <row r="16">
@@ -19327,12 +19475,14 @@
         <v>81</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>216</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>217</v>
+      </c>
       <c r="E16" s="29"/>
       <c r="F16" s="18"/>
     </row>
@@ -19341,12 +19491,14 @@
         <v>81</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>219</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>220</v>
+      </c>
       <c r="E17" s="29"/>
     </row>
     <row r="18">
@@ -19354,14 +19506,16 @@
         <v>103</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>222</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>223</v>
+      </c>
       <c r="E18" s="34" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
@@ -19369,12 +19523,14 @@
         <v>103</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="D19" s="18"/>
+        <v>225</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>226</v>
+      </c>
       <c r="E19" s="29"/>
     </row>
     <row r="20">
@@ -19382,14 +19538,16 @@
         <v>110</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D20" s="18"/>
+        <v>228</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="E20" s="34" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21">
@@ -19397,14 +19555,16 @@
         <v>114</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" s="18"/>
+        <v>232</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>233</v>
+      </c>
       <c r="E21" s="34" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22">
@@ -19412,14 +19572,16 @@
         <v>118</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D22" s="18"/>
+        <v>236</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>237</v>
+      </c>
       <c r="E22" s="34" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23">
@@ -19427,14 +19589,16 @@
         <v>122</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>240</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>241</v>
+      </c>
       <c r="E23" s="34" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24">
@@ -19442,14 +19606,16 @@
         <v>126</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>244</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>245</v>
+      </c>
       <c r="E24" s="34" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25">
@@ -19457,14 +19623,16 @@
         <v>130</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>248</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>249</v>
+      </c>
       <c r="E25" s="34" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="F25" s="26"/>
     </row>
@@ -19473,14 +19641,16 @@
         <v>134</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>252</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>253</v>
+      </c>
       <c r="E26" s="34" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="F26" s="26"/>
     </row>
@@ -19489,14 +19659,16 @@
         <v>138</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="18"/>
+        <v>256</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>257</v>
+      </c>
       <c r="E27" s="34" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="F27" s="26"/>
     </row>
@@ -19505,180 +19677,204 @@
         <v>142</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="D28" s="18"/>
+        <v>260</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="E28" s="34" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="F28" s="26"/>
     </row>
     <row r="29">
       <c r="A29" s="38" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="18"/>
+        <v>265</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>266</v>
+      </c>
       <c r="E29" s="34" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="38" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="D30" s="18"/>
+        <v>270</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>271</v>
+      </c>
       <c r="E30" s="34" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="38" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="D31" s="18"/>
+        <v>275</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>276</v>
+      </c>
       <c r="E31" s="34" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="38" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="D32" s="18"/>
+        <v>280</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>281</v>
+      </c>
       <c r="E32" s="34" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="38" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="D33" s="18"/>
+        <v>285</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>286</v>
+      </c>
       <c r="E33" s="34" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="38" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="D34" s="18"/>
+        <v>290</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>291</v>
+      </c>
       <c r="E34" s="34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="38" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="D35" s="18"/>
+        <v>295</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>296</v>
+      </c>
       <c r="E35" s="34" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="38" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="D36" s="18"/>
+        <v>300</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>301</v>
+      </c>
       <c r="E36" s="34" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="38" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D37" s="18"/>
+        <v>305</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>306</v>
+      </c>
       <c r="E37" s="34" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="38" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="D38" s="18"/>
+        <v>310</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>311</v>
+      </c>
       <c r="E38" s="34" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>277</v>
+        <v>313</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>314</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D39" s="18"/>
+        <v>315</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>316</v>
+      </c>
       <c r="E39" s="34" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40">
@@ -31443,7 +31639,7 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -31454,7 +31650,7 @@
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="18" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
@@ -31465,7 +31661,7 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -31476,7 +31672,7 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="19"/>
@@ -31487,7 +31683,7 @@
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="19"/>
@@ -31498,7 +31694,7 @@
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -31509,7 +31705,7 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -31520,7 +31716,7 @@
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="19"/>
@@ -31531,7 +31727,7 @@
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="18" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="19"/>
@@ -31542,7 +31738,7 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="19"/>
@@ -31553,7 +31749,7 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="19"/>
@@ -31564,7 +31760,7 @@
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="18" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="19"/>
@@ -31575,7 +31771,7 @@
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="18" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="19"/>
@@ -31586,7 +31782,7 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="19"/>
@@ -31597,7 +31793,7 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="19"/>
@@ -31608,7 +31804,7 @@
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="18" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="19"/>
@@ -31619,7 +31815,7 @@
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="18" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="19"/>
@@ -37440,10 +37636,10 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -37453,7 +37649,7 @@
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="18" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="E3" s="20"/>
     </row>
@@ -37463,10 +37659,10 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="E4" s="20"/>
     </row>
@@ -37476,7 +37672,7 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="19"/>
@@ -37487,7 +37683,7 @@
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="E6" s="19"/>
     </row>
@@ -37497,7 +37693,7 @@
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="E7" s="20"/>
     </row>
@@ -37507,7 +37703,7 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="E8" s="20"/>
     </row>
@@ -37517,7 +37713,7 @@
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="E9" s="19"/>
     </row>
@@ -37527,7 +37723,7 @@
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="18" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="E10" s="19"/>
     </row>
@@ -37537,10 +37733,10 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="E11" s="19"/>
     </row>
@@ -37550,7 +37746,7 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="19"/>
@@ -37561,7 +37757,7 @@
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="18" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="19"/>
@@ -37572,7 +37768,7 @@
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="18" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="19"/>
@@ -37583,7 +37779,7 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="19"/>
@@ -37594,7 +37790,7 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="19"/>
@@ -37605,7 +37801,7 @@
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="18" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="19"/>
@@ -37616,7 +37812,7 @@
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="18" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="19"/>
@@ -43437,7 +43633,7 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="19"/>
@@ -43448,7 +43644,7 @@
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="18" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
@@ -43459,7 +43655,7 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -43470,7 +43666,7 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="19"/>
@@ -43481,7 +43677,7 @@
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="19"/>
@@ -43492,7 +43688,7 @@
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -43503,7 +43699,7 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -43514,7 +43710,7 @@
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="19"/>
@@ -43525,7 +43721,7 @@
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="18" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="19"/>
@@ -43536,7 +43732,7 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="19"/>
@@ -43547,7 +43743,7 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="19"/>
@@ -43558,7 +43754,7 @@
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="18" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="19"/>
@@ -43569,7 +43765,7 @@
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="18" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="19"/>
@@ -43580,7 +43776,7 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="19"/>
@@ -43591,7 +43787,7 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="19"/>
@@ -43602,7 +43798,7 @@
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="18" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="19"/>
@@ -43613,7 +43809,7 @@
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="18" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="19"/>
@@ -49433,10 +49629,10 @@
         <v>52</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="19"/>
@@ -49446,10 +49642,10 @@
         <v>52</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
@@ -49459,10 +49655,10 @@
         <v>52</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -49472,10 +49668,10 @@
         <v>74</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="19"/>
@@ -49485,10 +49681,10 @@
         <v>81</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="E6" s="19"/>
     </row>
@@ -49497,10 +49693,10 @@
         <v>81</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="E7" s="20"/>
     </row>
@@ -49509,10 +49705,10 @@
         <v>81</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="E8" s="20"/>
     </row>
@@ -49521,10 +49717,10 @@
         <v>103</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="19"/>
@@ -49534,10 +49730,10 @@
         <v>110</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="19"/>
@@ -49547,10 +49743,10 @@
         <v>114</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="19"/>
@@ -49560,10 +49756,10 @@
         <v>118</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="19"/>
@@ -49573,10 +49769,10 @@
         <v>146</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="19"/>
@@ -49586,10 +49782,10 @@
         <v>150</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="19"/>
@@ -49599,10 +49795,10 @@
         <v>154</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="19"/>
@@ -49612,10 +49808,10 @@
         <v>158</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="19"/>
@@ -49625,10 +49821,10 @@
         <v>162</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="19"/>
@@ -49638,10 +49834,10 @@
         <v>166</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="19"/>
@@ -55461,10 +55657,10 @@
         <v>52</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="19"/>
@@ -55474,10 +55670,10 @@
         <v>52</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
@@ -55487,10 +55683,10 @@
         <v>52</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -55500,10 +55696,10 @@
         <v>74</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="19"/>
@@ -55513,13 +55709,13 @@
         <v>81</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="E6" s="19"/>
     </row>
@@ -55528,10 +55724,10 @@
         <v>81</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="E7" s="20"/>
     </row>
@@ -55540,10 +55736,10 @@
         <v>81</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="E8" s="20"/>
     </row>
@@ -55552,10 +55748,10 @@
         <v>103</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="19"/>
@@ -55565,10 +55761,10 @@
         <v>110</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="19"/>
@@ -55578,10 +55774,10 @@
         <v>114</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="19"/>
@@ -55591,10 +55787,10 @@
         <v>118</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="19"/>
@@ -55604,10 +55800,10 @@
         <v>146</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="19"/>
@@ -55617,10 +55813,10 @@
         <v>150</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="19"/>
@@ -55630,10 +55826,10 @@
         <v>154</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="19"/>
@@ -55643,10 +55839,10 @@
         <v>158</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="19"/>
@@ -55656,10 +55852,10 @@
         <v>162</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="19"/>
@@ -55669,10 +55865,10 @@
         <v>166</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="19"/>

--- a/Texte/Textbausteine_LENA_September2024.xlsx
+++ b/Texte/Textbausteine_LENA_September2024.xlsx
@@ -16,13 +16,15 @@
     <sheet state="visible" name="ZG_Transparenzinitiative" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="Variablen" sheetId="12" r:id="rId15"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">GE_baisse_impots_entrepreneurs!$A$1:$E$18</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="484">
   <si>
     <t>Kanton</t>
   </si>
@@ -1240,37 +1242,40 @@
     <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura und die Aufhebung von Artikel 139 der Verfassung abgelehnt.</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat die Vorlage zur Pistenverlängerung Flughafen Zürich mit #JaStimmenInProzent Prozent angenommen.</t>
+    <t>Le concordat réglant le transfert de Moutier a été balayé à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé ce concordat, qui règle les modalités du transfert de la ville dans son nouveau canton.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mit #JaStimmenInProzent Prozent Ja hat sich #Gemeinde_d für die Vorlage zur Pistenverlängerung Flughafen Zürich ausgesprochen. </t>
+    <t>#Gemeinde_d hat die Änderung des Steuergesetzes mit #JaStimmenInProzent Prozent angenommen.</t>
   </si>
   <si>
-    <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben der Vorlage zur Pistenverlängerung Flughafen Zürich zugestimmt.</t>
+    <t xml:space="preserve">Mit #JaStimmenInProzent Prozent Ja hat sich #Gemeinde_d für die Änderung des Steuergesetzes ausgesprochen. </t>
   </si>
   <si>
-    <t>Die Vorlage zur Pistenverlängerung Flughafen Zürich ist in #Gemeinde_d angenommen worden: #JaStimmenAbsolut Stimmberechtigte stimmten dafür, #NeinStimmenAbsolut lehnten sie ab.</t>
+    <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben der Änderung des Steuergesetzes zugestimmt.</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat die Vorlage zur Pistenverlängerung Flughafen Zürich mit #NeinStimmenInProzent Prozent abgelehnt.</t>
+    <t>Die Änderung des Steuergesetzes ist in #Gemeinde_d angenommen worden: #JaStimmenAbsolut Stimmberechtigte stimmten dafür, #NeinStimmenAbsolut lehnten sie ab.</t>
   </si>
   <si>
-    <t>Nein zur Vorlage zur Pistenverlängerung Flughafen Zürich in #Gemeinde_d: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
+    <t>#Gemeinde_d hat die Änderung des Steuergesetzes mit #NeinStimmenInProzent Prozent abgelehnt.</t>
   </si>
   <si>
-    <t>Keine Mehrheit für die Vorlage zur Pistenverlängerung Flughafen Zürich in #Gemeinde_d. #NeinStimmenInProzent Prozent haben sie verworfen.</t>
+    <t>Nein zur Änderung des Steuergesetzes in #Gemeinde_d: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
   </si>
   <si>
-    <t>Die Vorlage zur Pistenverlängerung Flughafen Zürich ist in #Gemeinde_d mit #NeinStimmenAbsolut zu #JaStimmenAbsolut Stimmen abgelehnt worden.</t>
+    <t>Keine Mehrheit für die Änderung des Steuergesetzes in #Gemeinde_d. #NeinStimmenInProzent Prozent haben sie verworfen.</t>
   </si>
   <si>
-    <t>Unentschieden in #Gemeinde_d bei der Abstimmung über die Vorlage zur Pistenverlängerung Flughafen Zürich: Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner genau die Waage.</t>
+    <t>Die Änderung des Steuergesetzes ist in #Gemeinde_d mit #NeinStimmenAbsolut zu #JaStimmenAbsolut Stimmen abgelehnt worden.</t>
   </si>
   <si>
-    <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden der Vorlage zur Pistenverlängerung Flughafen Zürich zugestimmt.</t>
+    <t>Unentschieden in #Gemeinde_d bei der Abstimmung über die Änderung des Steuergesetzes: Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner genau die Waage.</t>
   </si>
   <si>
-    <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden die Vorlage zur Pistenverlängerung Flughafen Zürich abgelehnt.</t>
+    <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden der Änderung des Steuergesetzes zugestimmt.</t>
+  </si>
+  <si>
+    <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden die Änderung des Steuergesetzes abgelehnt.</t>
   </si>
   <si>
     <t>Gemeinde mit dem höchsten Ja-Anteil im Kanton (Ja-Anteil muss über 50 liegen)</t>
@@ -1621,7 +1626,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1754,6 +1759,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -2443,8 +2451,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="18.63"/>
-    <col customWidth="1" min="2" max="2" width="70.13"/>
-    <col customWidth="1" min="3" max="3" width="48.88"/>
+    <col customWidth="1" min="2" max="3" width="48.88"/>
     <col customWidth="1" min="4" max="4" width="54.38"/>
     <col customWidth="1" min="5" max="5" width="67.5"/>
   </cols>
@@ -2459,143 +2466,143 @@
       <c r="C1" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>403</v>
-      </c>
-      <c r="C2" s="29"/>
+      <c r="B2" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="C2" s="48"/>
       <c r="D2" s="29"/>
       <c r="E2" s="26" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="C3" s="29"/>
+        <v>405</v>
+      </c>
+      <c r="C3" s="26"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
     </row>
     <row r="4">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>405</v>
-      </c>
-      <c r="C4" s="29"/>
+      <c r="B4" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="C4" s="48"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
     </row>
     <row r="5">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="C5" s="29"/>
+        <v>407</v>
+      </c>
+      <c r="C5" s="26"/>
       <c r="D5" s="29"/>
       <c r="E5" s="26" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="C6" s="29"/>
+        <v>408</v>
+      </c>
+      <c r="C6" s="26"/>
       <c r="D6" s="29"/>
       <c r="E6" s="26" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="C7" s="29"/>
+        <v>409</v>
+      </c>
+      <c r="C7" s="26"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
     </row>
     <row r="8">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="C8" s="29"/>
+        <v>410</v>
+      </c>
+      <c r="C8" s="26"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
     </row>
     <row r="9">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="49" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="C9" s="29"/>
+        <v>411</v>
+      </c>
+      <c r="C9" s="26"/>
       <c r="D9" s="29"/>
       <c r="E9" s="26" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>411</v>
-      </c>
-      <c r="C10" s="29"/>
+      <c r="B10" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="C10" s="51"/>
       <c r="D10" s="29"/>
       <c r="E10" s="26" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="50" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="C11" s="29"/>
+        <v>413</v>
+      </c>
+      <c r="C11" s="26"/>
       <c r="D11" s="29"/>
       <c r="E11" s="26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="50" t="s">
         <v>118</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="C12" s="29"/>
+        <v>414</v>
+      </c>
+      <c r="C12" s="26"/>
       <c r="D12" s="29"/>
       <c r="E12" s="26" t="s">
         <v>238</v>
@@ -2608,10 +2615,10 @@
       <c r="B13" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="29"/>
       <c r="E13" s="26" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14">
@@ -2621,10 +2628,10 @@
       <c r="B14" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="29"/>
       <c r="E14" s="26" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15">
@@ -2632,12 +2639,12 @@
         <v>154</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="C15" s="29"/>
+        <v>417</v>
+      </c>
+      <c r="C15" s="26"/>
       <c r="D15" s="29"/>
       <c r="E15" s="26" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16">
@@ -2645,12 +2652,12 @@
         <v>158</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="C16" s="29"/>
+        <v>419</v>
+      </c>
+      <c r="C16" s="26"/>
       <c r="D16" s="29"/>
       <c r="E16" s="26" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17">
@@ -2660,10 +2667,10 @@
       <c r="B17" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="C17" s="29"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="29"/>
       <c r="E17" s="26" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18">
@@ -2673,10 +2680,10 @@
       <c r="B18" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="29"/>
       <c r="E18" s="26" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19">
@@ -9446,175 +9453,175 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="s">
-        <v>422</v>
+      <c r="A2" s="47" t="s">
+        <v>423</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="46" t="s">
-        <v>422</v>
+      <c r="A3" s="47" t="s">
+        <v>423</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
     </row>
     <row r="4">
-      <c r="A4" s="46" t="s">
-        <v>422</v>
+      <c r="A4" s="47" t="s">
+        <v>423</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
     </row>
     <row r="5">
-      <c r="A5" s="46" t="s">
-        <v>427</v>
+      <c r="A5" s="47" t="s">
+        <v>428</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="46" t="s">
-        <v>427</v>
+      <c r="A6" s="47" t="s">
+        <v>428</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
     </row>
     <row r="7">
-      <c r="A7" s="46" t="s">
-        <v>427</v>
+      <c r="A7" s="47" t="s">
+        <v>428</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
     </row>
     <row r="8">
-      <c r="A8" s="51" t="s">
-        <v>432</v>
+      <c r="A8" s="52" t="s">
+        <v>433</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="51" t="s">
-        <v>432</v>
+      <c r="A9" s="52" t="s">
+        <v>433</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
     </row>
     <row r="10">
-      <c r="A10" s="51" t="s">
-        <v>432</v>
+      <c r="A10" s="52" t="s">
+        <v>433</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
     </row>
     <row r="11">
-      <c r="A11" s="52" t="s">
-        <v>437</v>
+      <c r="A11" s="53" t="s">
+        <v>438</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="52" t="s">
-        <v>437</v>
+      <c r="A12" s="53" t="s">
+        <v>438</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
     </row>
     <row r="13">
-      <c r="A13" s="52" t="s">
-        <v>437</v>
+      <c r="A13" s="53" t="s">
+        <v>438</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
     </row>
     <row r="14">
-      <c r="A14" s="48" t="s">
-        <v>442</v>
+      <c r="A14" s="49" t="s">
+        <v>443</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="48" t="s">
-        <v>442</v>
+      <c r="A15" s="49" t="s">
+        <v>443</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
     </row>
     <row r="16">
-      <c r="A16" s="48" t="s">
-        <v>442</v>
+      <c r="A16" s="49" t="s">
+        <v>443</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -9639,3130 +9646,3130 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="53" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="54" t="s">
         <v>448</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B2" s="55" t="s">
         <v>450</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B3" s="55" t="s">
         <v>452</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="B4" s="55" t="s">
         <v>454</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="B5" s="55" t="s">
         <v>456</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="B6" s="55">
+        <v>458</v>
+      </c>
+      <c r="B6" s="56">
         <v>60.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B7" s="55">
+        <v>459</v>
+      </c>
+      <c r="B7" s="56">
         <v>39.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="B8" s="55" t="s">
         <v>460</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B9" s="55" t="s">
         <v>462</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B10" s="55">
+        <v>464</v>
+      </c>
+      <c r="B10" s="56">
         <v>60.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B11" s="55">
+        <v>465</v>
+      </c>
+      <c r="B11" s="56">
         <v>39.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>460</v>
+        <v>466</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>462</v>
+        <v>467</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B14" s="55" t="s">
         <v>468</v>
       </c>
+      <c r="B14" s="56" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="15">
-      <c r="B15" s="56"/>
+      <c r="B15" s="57"/>
     </row>
     <row r="16">
-      <c r="A16" s="57" t="s">
-        <v>469</v>
-      </c>
-      <c r="B16" s="56"/>
+      <c r="A16" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="B16" s="57"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="B17" s="55">
+        <v>471</v>
+      </c>
+      <c r="B17" s="56">
         <v>60.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B18" s="55">
+        <v>472</v>
+      </c>
+      <c r="B18" s="56">
         <v>39.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>460</v>
+        <v>473</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>462</v>
+        <v>474</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B21" s="55">
+        <v>475</v>
+      </c>
+      <c r="B21" s="56">
         <v>60.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="B22" s="55">
+        <v>476</v>
+      </c>
+      <c r="B22" s="56">
         <v>39.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B23" s="55" t="s">
-        <v>460</v>
+        <v>477</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>462</v>
+        <v>478</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="B25" s="58">
+        <v>479</v>
+      </c>
+      <c r="B25" s="59">
         <v>60.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="B26" s="58">
+        <v>480</v>
+      </c>
+      <c r="B26" s="59">
         <v>39.6</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="56"/>
+      <c r="B27" s="57"/>
     </row>
     <row r="28">
-      <c r="A28" s="57" t="s">
-        <v>480</v>
-      </c>
-      <c r="B28" s="56"/>
+      <c r="A28" s="58" t="s">
+        <v>481</v>
+      </c>
+      <c r="B28" s="57"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B29" s="56"/>
+        <v>482</v>
+      </c>
+      <c r="B29" s="57"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B30" s="56"/>
+        <v>483</v>
+      </c>
+      <c r="B30" s="57"/>
     </row>
     <row r="31">
-      <c r="B31" s="56"/>
+      <c r="B31" s="57"/>
     </row>
     <row r="32">
-      <c r="B32" s="56"/>
+      <c r="B32" s="57"/>
     </row>
     <row r="33">
-      <c r="B33" s="56"/>
+      <c r="B33" s="57"/>
     </row>
     <row r="34">
-      <c r="B34" s="56"/>
+      <c r="B34" s="57"/>
     </row>
     <row r="35">
-      <c r="B35" s="56"/>
+      <c r="B35" s="57"/>
     </row>
     <row r="36">
-      <c r="B36" s="56"/>
+      <c r="B36" s="57"/>
     </row>
     <row r="37">
-      <c r="B37" s="56"/>
+      <c r="B37" s="57"/>
     </row>
     <row r="38">
-      <c r="B38" s="56"/>
+      <c r="B38" s="57"/>
     </row>
     <row r="39">
-      <c r="B39" s="56"/>
+      <c r="B39" s="57"/>
     </row>
     <row r="40">
-      <c r="B40" s="56"/>
+      <c r="B40" s="57"/>
     </row>
     <row r="41">
-      <c r="B41" s="56"/>
+      <c r="B41" s="57"/>
     </row>
     <row r="42">
-      <c r="B42" s="56"/>
+      <c r="B42" s="57"/>
     </row>
     <row r="43">
-      <c r="B43" s="56"/>
+      <c r="B43" s="57"/>
     </row>
     <row r="44">
-      <c r="B44" s="56"/>
+      <c r="B44" s="57"/>
     </row>
     <row r="45">
-      <c r="B45" s="56"/>
+      <c r="B45" s="57"/>
     </row>
     <row r="46">
-      <c r="B46" s="56"/>
+      <c r="B46" s="57"/>
     </row>
     <row r="47">
-      <c r="B47" s="56"/>
+      <c r="B47" s="57"/>
     </row>
     <row r="48">
-      <c r="B48" s="56"/>
+      <c r="B48" s="57"/>
     </row>
     <row r="49">
-      <c r="B49" s="56"/>
+      <c r="B49" s="57"/>
     </row>
     <row r="50">
-      <c r="B50" s="56"/>
+      <c r="B50" s="57"/>
     </row>
     <row r="51">
-      <c r="B51" s="56"/>
+      <c r="B51" s="57"/>
     </row>
     <row r="52">
-      <c r="B52" s="56"/>
+      <c r="B52" s="57"/>
     </row>
     <row r="53">
-      <c r="B53" s="56"/>
+      <c r="B53" s="57"/>
     </row>
     <row r="54">
-      <c r="B54" s="56"/>
+      <c r="B54" s="57"/>
     </row>
     <row r="55">
-      <c r="B55" s="56"/>
+      <c r="B55" s="57"/>
     </row>
     <row r="56">
-      <c r="B56" s="56"/>
+      <c r="B56" s="57"/>
     </row>
     <row r="57">
-      <c r="B57" s="56"/>
+      <c r="B57" s="57"/>
     </row>
     <row r="58">
-      <c r="B58" s="56"/>
+      <c r="B58" s="57"/>
     </row>
     <row r="59">
-      <c r="B59" s="56"/>
+      <c r="B59" s="57"/>
     </row>
     <row r="60">
-      <c r="B60" s="56"/>
+      <c r="B60" s="57"/>
     </row>
     <row r="61">
-      <c r="B61" s="56"/>
+      <c r="B61" s="57"/>
     </row>
     <row r="62">
-      <c r="B62" s="56"/>
+      <c r="B62" s="57"/>
     </row>
     <row r="63">
-      <c r="B63" s="56"/>
+      <c r="B63" s="57"/>
     </row>
     <row r="64">
-      <c r="B64" s="56"/>
+      <c r="B64" s="57"/>
     </row>
     <row r="65">
-      <c r="B65" s="56"/>
+      <c r="B65" s="57"/>
     </row>
     <row r="66">
-      <c r="B66" s="56"/>
+      <c r="B66" s="57"/>
     </row>
     <row r="67">
-      <c r="B67" s="56"/>
+      <c r="B67" s="57"/>
     </row>
     <row r="68">
-      <c r="B68" s="56"/>
+      <c r="B68" s="57"/>
     </row>
     <row r="69">
-      <c r="B69" s="56"/>
+      <c r="B69" s="57"/>
     </row>
     <row r="70">
-      <c r="B70" s="56"/>
+      <c r="B70" s="57"/>
     </row>
     <row r="71">
-      <c r="B71" s="56"/>
+      <c r="B71" s="57"/>
     </row>
     <row r="72">
-      <c r="B72" s="56"/>
+      <c r="B72" s="57"/>
     </row>
     <row r="73">
-      <c r="B73" s="56"/>
+      <c r="B73" s="57"/>
     </row>
     <row r="74">
-      <c r="B74" s="56"/>
+      <c r="B74" s="57"/>
     </row>
     <row r="75">
-      <c r="B75" s="56"/>
+      <c r="B75" s="57"/>
     </row>
     <row r="76">
-      <c r="B76" s="56"/>
+      <c r="B76" s="57"/>
     </row>
     <row r="77">
-      <c r="B77" s="56"/>
+      <c r="B77" s="57"/>
     </row>
     <row r="78">
-      <c r="B78" s="56"/>
+      <c r="B78" s="57"/>
     </row>
     <row r="79">
-      <c r="B79" s="56"/>
+      <c r="B79" s="57"/>
     </row>
     <row r="80">
-      <c r="B80" s="56"/>
+      <c r="B80" s="57"/>
     </row>
     <row r="81">
-      <c r="B81" s="56"/>
+      <c r="B81" s="57"/>
     </row>
     <row r="82">
-      <c r="B82" s="56"/>
+      <c r="B82" s="57"/>
     </row>
     <row r="83">
-      <c r="B83" s="56"/>
+      <c r="B83" s="57"/>
     </row>
     <row r="84">
-      <c r="B84" s="56"/>
+      <c r="B84" s="57"/>
     </row>
     <row r="85">
-      <c r="B85" s="56"/>
+      <c r="B85" s="57"/>
     </row>
     <row r="86">
-      <c r="B86" s="56"/>
+      <c r="B86" s="57"/>
     </row>
     <row r="87">
-      <c r="B87" s="56"/>
+      <c r="B87" s="57"/>
     </row>
     <row r="88">
-      <c r="B88" s="56"/>
+      <c r="B88" s="57"/>
     </row>
     <row r="89">
-      <c r="B89" s="56"/>
+      <c r="B89" s="57"/>
     </row>
     <row r="90">
-      <c r="B90" s="56"/>
+      <c r="B90" s="57"/>
     </row>
     <row r="91">
-      <c r="B91" s="56"/>
+      <c r="B91" s="57"/>
     </row>
     <row r="92">
-      <c r="B92" s="56"/>
+      <c r="B92" s="57"/>
     </row>
     <row r="93">
-      <c r="B93" s="56"/>
+      <c r="B93" s="57"/>
     </row>
     <row r="94">
-      <c r="B94" s="56"/>
+      <c r="B94" s="57"/>
     </row>
     <row r="95">
-      <c r="B95" s="56"/>
+      <c r="B95" s="57"/>
     </row>
     <row r="96">
-      <c r="B96" s="56"/>
+      <c r="B96" s="57"/>
     </row>
     <row r="97">
-      <c r="B97" s="56"/>
+      <c r="B97" s="57"/>
     </row>
     <row r="98">
-      <c r="B98" s="56"/>
+      <c r="B98" s="57"/>
     </row>
     <row r="99">
-      <c r="B99" s="56"/>
+      <c r="B99" s="57"/>
     </row>
     <row r="100">
-      <c r="B100" s="56"/>
+      <c r="B100" s="57"/>
     </row>
     <row r="101">
-      <c r="B101" s="56"/>
+      <c r="B101" s="57"/>
     </row>
     <row r="102">
-      <c r="B102" s="56"/>
+      <c r="B102" s="57"/>
     </row>
     <row r="103">
-      <c r="B103" s="56"/>
+      <c r="B103" s="57"/>
     </row>
     <row r="104">
-      <c r="B104" s="56"/>
+      <c r="B104" s="57"/>
     </row>
     <row r="105">
-      <c r="B105" s="56"/>
+      <c r="B105" s="57"/>
     </row>
     <row r="106">
-      <c r="B106" s="56"/>
+      <c r="B106" s="57"/>
     </row>
     <row r="107">
-      <c r="B107" s="56"/>
+      <c r="B107" s="57"/>
     </row>
     <row r="108">
-      <c r="B108" s="56"/>
+      <c r="B108" s="57"/>
     </row>
     <row r="109">
-      <c r="B109" s="56"/>
+      <c r="B109" s="57"/>
     </row>
     <row r="110">
-      <c r="B110" s="56"/>
+      <c r="B110" s="57"/>
     </row>
     <row r="111">
-      <c r="B111" s="56"/>
+      <c r="B111" s="57"/>
     </row>
     <row r="112">
-      <c r="B112" s="56"/>
+      <c r="B112" s="57"/>
     </row>
     <row r="113">
-      <c r="B113" s="56"/>
+      <c r="B113" s="57"/>
     </row>
     <row r="114">
-      <c r="B114" s="56"/>
+      <c r="B114" s="57"/>
     </row>
     <row r="115">
-      <c r="B115" s="56"/>
+      <c r="B115" s="57"/>
     </row>
     <row r="116">
-      <c r="B116" s="56"/>
+      <c r="B116" s="57"/>
     </row>
     <row r="117">
-      <c r="B117" s="56"/>
+      <c r="B117" s="57"/>
     </row>
     <row r="118">
-      <c r="B118" s="56"/>
+      <c r="B118" s="57"/>
     </row>
     <row r="119">
-      <c r="B119" s="56"/>
+      <c r="B119" s="57"/>
     </row>
     <row r="120">
-      <c r="B120" s="56"/>
+      <c r="B120" s="57"/>
     </row>
     <row r="121">
-      <c r="B121" s="56"/>
+      <c r="B121" s="57"/>
     </row>
     <row r="122">
-      <c r="B122" s="56"/>
+      <c r="B122" s="57"/>
     </row>
     <row r="123">
-      <c r="B123" s="56"/>
+      <c r="B123" s="57"/>
     </row>
     <row r="124">
-      <c r="B124" s="56"/>
+      <c r="B124" s="57"/>
     </row>
     <row r="125">
-      <c r="B125" s="56"/>
+      <c r="B125" s="57"/>
     </row>
     <row r="126">
-      <c r="B126" s="56"/>
+      <c r="B126" s="57"/>
     </row>
     <row r="127">
-      <c r="B127" s="56"/>
+      <c r="B127" s="57"/>
     </row>
     <row r="128">
-      <c r="B128" s="56"/>
+      <c r="B128" s="57"/>
     </row>
     <row r="129">
-      <c r="B129" s="56"/>
+      <c r="B129" s="57"/>
     </row>
     <row r="130">
-      <c r="B130" s="56"/>
+      <c r="B130" s="57"/>
     </row>
     <row r="131">
-      <c r="B131" s="56"/>
+      <c r="B131" s="57"/>
     </row>
     <row r="132">
-      <c r="B132" s="56"/>
+      <c r="B132" s="57"/>
     </row>
     <row r="133">
-      <c r="B133" s="56"/>
+      <c r="B133" s="57"/>
     </row>
     <row r="134">
-      <c r="B134" s="56"/>
+      <c r="B134" s="57"/>
     </row>
     <row r="135">
-      <c r="B135" s="56"/>
+      <c r="B135" s="57"/>
     </row>
     <row r="136">
-      <c r="B136" s="56"/>
+      <c r="B136" s="57"/>
     </row>
     <row r="137">
-      <c r="B137" s="56"/>
+      <c r="B137" s="57"/>
     </row>
     <row r="138">
-      <c r="B138" s="56"/>
+      <c r="B138" s="57"/>
     </row>
     <row r="139">
-      <c r="B139" s="56"/>
+      <c r="B139" s="57"/>
     </row>
     <row r="140">
-      <c r="B140" s="56"/>
+      <c r="B140" s="57"/>
     </row>
     <row r="141">
-      <c r="B141" s="56"/>
+      <c r="B141" s="57"/>
     </row>
     <row r="142">
-      <c r="B142" s="56"/>
+      <c r="B142" s="57"/>
     </row>
     <row r="143">
-      <c r="B143" s="56"/>
+      <c r="B143" s="57"/>
     </row>
     <row r="144">
-      <c r="B144" s="56"/>
+      <c r="B144" s="57"/>
     </row>
     <row r="145">
-      <c r="B145" s="56"/>
+      <c r="B145" s="57"/>
     </row>
     <row r="146">
-      <c r="B146" s="56"/>
+      <c r="B146" s="57"/>
     </row>
     <row r="147">
-      <c r="B147" s="56"/>
+      <c r="B147" s="57"/>
     </row>
     <row r="148">
-      <c r="B148" s="56"/>
+      <c r="B148" s="57"/>
     </row>
     <row r="149">
-      <c r="B149" s="56"/>
+      <c r="B149" s="57"/>
     </row>
     <row r="150">
-      <c r="B150" s="56"/>
+      <c r="B150" s="57"/>
     </row>
     <row r="151">
-      <c r="B151" s="56"/>
+      <c r="B151" s="57"/>
     </row>
     <row r="152">
-      <c r="B152" s="56"/>
+      <c r="B152" s="57"/>
     </row>
     <row r="153">
-      <c r="B153" s="56"/>
+      <c r="B153" s="57"/>
     </row>
     <row r="154">
-      <c r="B154" s="56"/>
+      <c r="B154" s="57"/>
     </row>
     <row r="155">
-      <c r="B155" s="56"/>
+      <c r="B155" s="57"/>
     </row>
     <row r="156">
-      <c r="B156" s="56"/>
+      <c r="B156" s="57"/>
     </row>
     <row r="157">
-      <c r="B157" s="56"/>
+      <c r="B157" s="57"/>
     </row>
     <row r="158">
-      <c r="B158" s="56"/>
+      <c r="B158" s="57"/>
     </row>
     <row r="159">
-      <c r="B159" s="56"/>
+      <c r="B159" s="57"/>
     </row>
     <row r="160">
-      <c r="B160" s="56"/>
+      <c r="B160" s="57"/>
     </row>
     <row r="161">
-      <c r="B161" s="56"/>
+      <c r="B161" s="57"/>
     </row>
     <row r="162">
-      <c r="B162" s="56"/>
+      <c r="B162" s="57"/>
     </row>
     <row r="163">
-      <c r="B163" s="56"/>
+      <c r="B163" s="57"/>
     </row>
     <row r="164">
-      <c r="B164" s="56"/>
+      <c r="B164" s="57"/>
     </row>
     <row r="165">
-      <c r="B165" s="56"/>
+      <c r="B165" s="57"/>
     </row>
     <row r="166">
-      <c r="B166" s="56"/>
+      <c r="B166" s="57"/>
     </row>
     <row r="167">
-      <c r="B167" s="56"/>
+      <c r="B167" s="57"/>
     </row>
     <row r="168">
-      <c r="B168" s="56"/>
+      <c r="B168" s="57"/>
     </row>
     <row r="169">
-      <c r="B169" s="56"/>
+      <c r="B169" s="57"/>
     </row>
     <row r="170">
-      <c r="B170" s="56"/>
+      <c r="B170" s="57"/>
     </row>
     <row r="171">
-      <c r="B171" s="56"/>
+      <c r="B171" s="57"/>
     </row>
     <row r="172">
-      <c r="B172" s="56"/>
+      <c r="B172" s="57"/>
     </row>
     <row r="173">
-      <c r="B173" s="56"/>
+      <c r="B173" s="57"/>
     </row>
     <row r="174">
-      <c r="B174" s="56"/>
+      <c r="B174" s="57"/>
     </row>
     <row r="175">
-      <c r="B175" s="56"/>
+      <c r="B175" s="57"/>
     </row>
     <row r="176">
-      <c r="B176" s="56"/>
+      <c r="B176" s="57"/>
     </row>
     <row r="177">
-      <c r="B177" s="56"/>
+      <c r="B177" s="57"/>
     </row>
     <row r="178">
-      <c r="B178" s="56"/>
+      <c r="B178" s="57"/>
     </row>
     <row r="179">
-      <c r="B179" s="56"/>
+      <c r="B179" s="57"/>
     </row>
     <row r="180">
-      <c r="B180" s="56"/>
+      <c r="B180" s="57"/>
     </row>
     <row r="181">
-      <c r="B181" s="56"/>
+      <c r="B181" s="57"/>
     </row>
     <row r="182">
-      <c r="B182" s="56"/>
+      <c r="B182" s="57"/>
     </row>
     <row r="183">
-      <c r="B183" s="56"/>
+      <c r="B183" s="57"/>
     </row>
     <row r="184">
-      <c r="B184" s="56"/>
+      <c r="B184" s="57"/>
     </row>
     <row r="185">
-      <c r="B185" s="56"/>
+      <c r="B185" s="57"/>
     </row>
     <row r="186">
-      <c r="B186" s="56"/>
+      <c r="B186" s="57"/>
     </row>
     <row r="187">
-      <c r="B187" s="56"/>
+      <c r="B187" s="57"/>
     </row>
     <row r="188">
-      <c r="B188" s="56"/>
+      <c r="B188" s="57"/>
     </row>
     <row r="189">
-      <c r="B189" s="56"/>
+      <c r="B189" s="57"/>
     </row>
     <row r="190">
-      <c r="B190" s="56"/>
+      <c r="B190" s="57"/>
     </row>
     <row r="191">
-      <c r="B191" s="56"/>
+      <c r="B191" s="57"/>
     </row>
     <row r="192">
-      <c r="B192" s="56"/>
+      <c r="B192" s="57"/>
     </row>
     <row r="193">
-      <c r="B193" s="56"/>
+      <c r="B193" s="57"/>
     </row>
     <row r="194">
-      <c r="B194" s="56"/>
+      <c r="B194" s="57"/>
     </row>
     <row r="195">
-      <c r="B195" s="56"/>
+      <c r="B195" s="57"/>
     </row>
     <row r="196">
-      <c r="B196" s="56"/>
+      <c r="B196" s="57"/>
     </row>
     <row r="197">
-      <c r="B197" s="56"/>
+      <c r="B197" s="57"/>
     </row>
     <row r="198">
-      <c r="B198" s="56"/>
+      <c r="B198" s="57"/>
     </row>
     <row r="199">
-      <c r="B199" s="56"/>
+      <c r="B199" s="57"/>
     </row>
     <row r="200">
-      <c r="B200" s="56"/>
+      <c r="B200" s="57"/>
     </row>
     <row r="201">
-      <c r="B201" s="56"/>
+      <c r="B201" s="57"/>
     </row>
     <row r="202">
-      <c r="B202" s="56"/>
+      <c r="B202" s="57"/>
     </row>
     <row r="203">
-      <c r="B203" s="56"/>
+      <c r="B203" s="57"/>
     </row>
     <row r="204">
-      <c r="B204" s="56"/>
+      <c r="B204" s="57"/>
     </row>
     <row r="205">
-      <c r="B205" s="56"/>
+      <c r="B205" s="57"/>
     </row>
     <row r="206">
-      <c r="B206" s="56"/>
+      <c r="B206" s="57"/>
     </row>
     <row r="207">
-      <c r="B207" s="56"/>
+      <c r="B207" s="57"/>
     </row>
     <row r="208">
-      <c r="B208" s="56"/>
+      <c r="B208" s="57"/>
     </row>
     <row r="209">
-      <c r="B209" s="56"/>
+      <c r="B209" s="57"/>
     </row>
     <row r="210">
-      <c r="B210" s="56"/>
+      <c r="B210" s="57"/>
     </row>
     <row r="211">
-      <c r="B211" s="56"/>
+      <c r="B211" s="57"/>
     </row>
     <row r="212">
-      <c r="B212" s="56"/>
+      <c r="B212" s="57"/>
     </row>
     <row r="213">
-      <c r="B213" s="56"/>
+      <c r="B213" s="57"/>
     </row>
     <row r="214">
-      <c r="B214" s="56"/>
+      <c r="B214" s="57"/>
     </row>
     <row r="215">
-      <c r="B215" s="56"/>
+      <c r="B215" s="57"/>
     </row>
     <row r="216">
-      <c r="B216" s="56"/>
+      <c r="B216" s="57"/>
     </row>
     <row r="217">
-      <c r="B217" s="56"/>
+      <c r="B217" s="57"/>
     </row>
     <row r="218">
-      <c r="B218" s="56"/>
+      <c r="B218" s="57"/>
     </row>
     <row r="219">
-      <c r="B219" s="56"/>
+      <c r="B219" s="57"/>
     </row>
     <row r="220">
-      <c r="B220" s="56"/>
+      <c r="B220" s="57"/>
     </row>
     <row r="221">
-      <c r="B221" s="56"/>
+      <c r="B221" s="57"/>
     </row>
     <row r="222">
-      <c r="B222" s="56"/>
+      <c r="B222" s="57"/>
     </row>
     <row r="223">
-      <c r="B223" s="56"/>
+      <c r="B223" s="57"/>
     </row>
     <row r="224">
-      <c r="B224" s="56"/>
+      <c r="B224" s="57"/>
     </row>
     <row r="225">
-      <c r="B225" s="56"/>
+      <c r="B225" s="57"/>
     </row>
     <row r="226">
-      <c r="B226" s="56"/>
+      <c r="B226" s="57"/>
     </row>
     <row r="227">
-      <c r="B227" s="56"/>
+      <c r="B227" s="57"/>
     </row>
     <row r="228">
-      <c r="B228" s="56"/>
+      <c r="B228" s="57"/>
     </row>
     <row r="229">
-      <c r="B229" s="56"/>
+      <c r="B229" s="57"/>
     </row>
     <row r="230">
-      <c r="B230" s="56"/>
+      <c r="B230" s="57"/>
     </row>
     <row r="231">
-      <c r="B231" s="56"/>
+      <c r="B231" s="57"/>
     </row>
     <row r="232">
-      <c r="B232" s="56"/>
+      <c r="B232" s="57"/>
     </row>
     <row r="233">
-      <c r="B233" s="56"/>
+      <c r="B233" s="57"/>
     </row>
     <row r="234">
-      <c r="B234" s="56"/>
+      <c r="B234" s="57"/>
     </row>
     <row r="235">
-      <c r="B235" s="56"/>
+      <c r="B235" s="57"/>
     </row>
     <row r="236">
-      <c r="B236" s="56"/>
+      <c r="B236" s="57"/>
     </row>
     <row r="237">
-      <c r="B237" s="56"/>
+      <c r="B237" s="57"/>
     </row>
     <row r="238">
-      <c r="B238" s="56"/>
+      <c r="B238" s="57"/>
     </row>
     <row r="239">
-      <c r="B239" s="56"/>
+      <c r="B239" s="57"/>
     </row>
     <row r="240">
-      <c r="B240" s="56"/>
+      <c r="B240" s="57"/>
     </row>
     <row r="241">
-      <c r="B241" s="56"/>
+      <c r="B241" s="57"/>
     </row>
     <row r="242">
-      <c r="B242" s="56"/>
+      <c r="B242" s="57"/>
     </row>
     <row r="243">
-      <c r="B243" s="56"/>
+      <c r="B243" s="57"/>
     </row>
     <row r="244">
-      <c r="B244" s="56"/>
+      <c r="B244" s="57"/>
     </row>
     <row r="245">
-      <c r="B245" s="56"/>
+      <c r="B245" s="57"/>
     </row>
     <row r="246">
-      <c r="B246" s="56"/>
+      <c r="B246" s="57"/>
     </row>
     <row r="247">
-      <c r="B247" s="56"/>
+      <c r="B247" s="57"/>
     </row>
     <row r="248">
-      <c r="B248" s="56"/>
+      <c r="B248" s="57"/>
     </row>
     <row r="249">
-      <c r="B249" s="56"/>
+      <c r="B249" s="57"/>
     </row>
     <row r="250">
-      <c r="B250" s="56"/>
+      <c r="B250" s="57"/>
     </row>
     <row r="251">
-      <c r="B251" s="56"/>
+      <c r="B251" s="57"/>
     </row>
     <row r="252">
-      <c r="B252" s="56"/>
+      <c r="B252" s="57"/>
     </row>
     <row r="253">
-      <c r="B253" s="56"/>
+      <c r="B253" s="57"/>
     </row>
     <row r="254">
-      <c r="B254" s="56"/>
+      <c r="B254" s="57"/>
     </row>
     <row r="255">
-      <c r="B255" s="56"/>
+      <c r="B255" s="57"/>
     </row>
     <row r="256">
-      <c r="B256" s="56"/>
+      <c r="B256" s="57"/>
     </row>
     <row r="257">
-      <c r="B257" s="56"/>
+      <c r="B257" s="57"/>
     </row>
     <row r="258">
-      <c r="B258" s="56"/>
+      <c r="B258" s="57"/>
     </row>
     <row r="259">
-      <c r="B259" s="56"/>
+      <c r="B259" s="57"/>
     </row>
     <row r="260">
-      <c r="B260" s="56"/>
+      <c r="B260" s="57"/>
     </row>
     <row r="261">
-      <c r="B261" s="56"/>
+      <c r="B261" s="57"/>
     </row>
     <row r="262">
-      <c r="B262" s="56"/>
+      <c r="B262" s="57"/>
     </row>
     <row r="263">
-      <c r="B263" s="56"/>
+      <c r="B263" s="57"/>
     </row>
     <row r="264">
-      <c r="B264" s="56"/>
+      <c r="B264" s="57"/>
     </row>
     <row r="265">
-      <c r="B265" s="56"/>
+      <c r="B265" s="57"/>
     </row>
     <row r="266">
-      <c r="B266" s="56"/>
+      <c r="B266" s="57"/>
     </row>
     <row r="267">
-      <c r="B267" s="56"/>
+      <c r="B267" s="57"/>
     </row>
     <row r="268">
-      <c r="B268" s="56"/>
+      <c r="B268" s="57"/>
     </row>
     <row r="269">
-      <c r="B269" s="56"/>
+      <c r="B269" s="57"/>
     </row>
     <row r="270">
-      <c r="B270" s="56"/>
+      <c r="B270" s="57"/>
     </row>
     <row r="271">
-      <c r="B271" s="56"/>
+      <c r="B271" s="57"/>
     </row>
     <row r="272">
-      <c r="B272" s="56"/>
+      <c r="B272" s="57"/>
     </row>
     <row r="273">
-      <c r="B273" s="56"/>
+      <c r="B273" s="57"/>
     </row>
     <row r="274">
-      <c r="B274" s="56"/>
+      <c r="B274" s="57"/>
     </row>
     <row r="275">
-      <c r="B275" s="56"/>
+      <c r="B275" s="57"/>
     </row>
     <row r="276">
-      <c r="B276" s="56"/>
+      <c r="B276" s="57"/>
     </row>
     <row r="277">
-      <c r="B277" s="56"/>
+      <c r="B277" s="57"/>
     </row>
     <row r="278">
-      <c r="B278" s="56"/>
+      <c r="B278" s="57"/>
     </row>
     <row r="279">
-      <c r="B279" s="56"/>
+      <c r="B279" s="57"/>
     </row>
     <row r="280">
-      <c r="B280" s="56"/>
+      <c r="B280" s="57"/>
     </row>
     <row r="281">
-      <c r="B281" s="56"/>
+      <c r="B281" s="57"/>
     </row>
     <row r="282">
-      <c r="B282" s="56"/>
+      <c r="B282" s="57"/>
     </row>
     <row r="283">
-      <c r="B283" s="56"/>
+      <c r="B283" s="57"/>
     </row>
     <row r="284">
-      <c r="B284" s="56"/>
+      <c r="B284" s="57"/>
     </row>
     <row r="285">
-      <c r="B285" s="56"/>
+      <c r="B285" s="57"/>
     </row>
     <row r="286">
-      <c r="B286" s="56"/>
+      <c r="B286" s="57"/>
     </row>
     <row r="287">
-      <c r="B287" s="56"/>
+      <c r="B287" s="57"/>
     </row>
     <row r="288">
-      <c r="B288" s="56"/>
+      <c r="B288" s="57"/>
     </row>
     <row r="289">
-      <c r="B289" s="56"/>
+      <c r="B289" s="57"/>
     </row>
     <row r="290">
-      <c r="B290" s="56"/>
+      <c r="B290" s="57"/>
     </row>
     <row r="291">
-      <c r="B291" s="56"/>
+      <c r="B291" s="57"/>
     </row>
     <row r="292">
-      <c r="B292" s="56"/>
+      <c r="B292" s="57"/>
     </row>
     <row r="293">
-      <c r="B293" s="56"/>
+      <c r="B293" s="57"/>
     </row>
     <row r="294">
-      <c r="B294" s="56"/>
+      <c r="B294" s="57"/>
     </row>
     <row r="295">
-      <c r="B295" s="56"/>
+      <c r="B295" s="57"/>
     </row>
     <row r="296">
-      <c r="B296" s="56"/>
+      <c r="B296" s="57"/>
     </row>
     <row r="297">
-      <c r="B297" s="56"/>
+      <c r="B297" s="57"/>
     </row>
     <row r="298">
-      <c r="B298" s="56"/>
+      <c r="B298" s="57"/>
     </row>
     <row r="299">
-      <c r="B299" s="56"/>
+      <c r="B299" s="57"/>
     </row>
     <row r="300">
-      <c r="B300" s="56"/>
+      <c r="B300" s="57"/>
     </row>
     <row r="301">
-      <c r="B301" s="56"/>
+      <c r="B301" s="57"/>
     </row>
     <row r="302">
-      <c r="B302" s="56"/>
+      <c r="B302" s="57"/>
     </row>
     <row r="303">
-      <c r="B303" s="56"/>
+      <c r="B303" s="57"/>
     </row>
     <row r="304">
-      <c r="B304" s="56"/>
+      <c r="B304" s="57"/>
     </row>
     <row r="305">
-      <c r="B305" s="56"/>
+      <c r="B305" s="57"/>
     </row>
     <row r="306">
-      <c r="B306" s="56"/>
+      <c r="B306" s="57"/>
     </row>
     <row r="307">
-      <c r="B307" s="56"/>
+      <c r="B307" s="57"/>
     </row>
     <row r="308">
-      <c r="B308" s="56"/>
+      <c r="B308" s="57"/>
     </row>
     <row r="309">
-      <c r="B309" s="56"/>
+      <c r="B309" s="57"/>
     </row>
     <row r="310">
-      <c r="B310" s="56"/>
+      <c r="B310" s="57"/>
     </row>
     <row r="311">
-      <c r="B311" s="56"/>
+      <c r="B311" s="57"/>
     </row>
     <row r="312">
-      <c r="B312" s="56"/>
+      <c r="B312" s="57"/>
     </row>
     <row r="313">
-      <c r="B313" s="56"/>
+      <c r="B313" s="57"/>
     </row>
     <row r="314">
-      <c r="B314" s="56"/>
+      <c r="B314" s="57"/>
     </row>
     <row r="315">
-      <c r="B315" s="56"/>
+      <c r="B315" s="57"/>
     </row>
     <row r="316">
-      <c r="B316" s="56"/>
+      <c r="B316" s="57"/>
     </row>
     <row r="317">
-      <c r="B317" s="56"/>
+      <c r="B317" s="57"/>
     </row>
     <row r="318">
-      <c r="B318" s="56"/>
+      <c r="B318" s="57"/>
     </row>
     <row r="319">
-      <c r="B319" s="56"/>
+      <c r="B319" s="57"/>
     </row>
     <row r="320">
-      <c r="B320" s="56"/>
+      <c r="B320" s="57"/>
     </row>
     <row r="321">
-      <c r="B321" s="56"/>
+      <c r="B321" s="57"/>
     </row>
     <row r="322">
-      <c r="B322" s="56"/>
+      <c r="B322" s="57"/>
     </row>
     <row r="323">
-      <c r="B323" s="56"/>
+      <c r="B323" s="57"/>
     </row>
     <row r="324">
-      <c r="B324" s="56"/>
+      <c r="B324" s="57"/>
     </row>
     <row r="325">
-      <c r="B325" s="56"/>
+      <c r="B325" s="57"/>
     </row>
     <row r="326">
-      <c r="B326" s="56"/>
+      <c r="B326" s="57"/>
     </row>
     <row r="327">
-      <c r="B327" s="56"/>
+      <c r="B327" s="57"/>
     </row>
     <row r="328">
-      <c r="B328" s="56"/>
+      <c r="B328" s="57"/>
     </row>
     <row r="329">
-      <c r="B329" s="56"/>
+      <c r="B329" s="57"/>
     </row>
     <row r="330">
-      <c r="B330" s="56"/>
+      <c r="B330" s="57"/>
     </row>
     <row r="331">
-      <c r="B331" s="56"/>
+      <c r="B331" s="57"/>
     </row>
     <row r="332">
-      <c r="B332" s="56"/>
+      <c r="B332" s="57"/>
     </row>
     <row r="333">
-      <c r="B333" s="56"/>
+      <c r="B333" s="57"/>
     </row>
     <row r="334">
-      <c r="B334" s="56"/>
+      <c r="B334" s="57"/>
     </row>
     <row r="335">
-      <c r="B335" s="56"/>
+      <c r="B335" s="57"/>
     </row>
     <row r="336">
-      <c r="B336" s="56"/>
+      <c r="B336" s="57"/>
     </row>
     <row r="337">
-      <c r="B337" s="56"/>
+      <c r="B337" s="57"/>
     </row>
     <row r="338">
-      <c r="B338" s="56"/>
+      <c r="B338" s="57"/>
     </row>
     <row r="339">
-      <c r="B339" s="56"/>
+      <c r="B339" s="57"/>
     </row>
     <row r="340">
-      <c r="B340" s="56"/>
+      <c r="B340" s="57"/>
     </row>
     <row r="341">
-      <c r="B341" s="56"/>
+      <c r="B341" s="57"/>
     </row>
     <row r="342">
-      <c r="B342" s="56"/>
+      <c r="B342" s="57"/>
     </row>
     <row r="343">
-      <c r="B343" s="56"/>
+      <c r="B343" s="57"/>
     </row>
     <row r="344">
-      <c r="B344" s="56"/>
+      <c r="B344" s="57"/>
     </row>
     <row r="345">
-      <c r="B345" s="56"/>
+      <c r="B345" s="57"/>
     </row>
     <row r="346">
-      <c r="B346" s="56"/>
+      <c r="B346" s="57"/>
     </row>
     <row r="347">
-      <c r="B347" s="56"/>
+      <c r="B347" s="57"/>
     </row>
     <row r="348">
-      <c r="B348" s="56"/>
+      <c r="B348" s="57"/>
     </row>
     <row r="349">
-      <c r="B349" s="56"/>
+      <c r="B349" s="57"/>
     </row>
     <row r="350">
-      <c r="B350" s="56"/>
+      <c r="B350" s="57"/>
     </row>
     <row r="351">
-      <c r="B351" s="56"/>
+      <c r="B351" s="57"/>
     </row>
     <row r="352">
-      <c r="B352" s="56"/>
+      <c r="B352" s="57"/>
     </row>
     <row r="353">
-      <c r="B353" s="56"/>
+      <c r="B353" s="57"/>
     </row>
     <row r="354">
-      <c r="B354" s="56"/>
+      <c r="B354" s="57"/>
     </row>
     <row r="355">
-      <c r="B355" s="56"/>
+      <c r="B355" s="57"/>
     </row>
     <row r="356">
-      <c r="B356" s="56"/>
+      <c r="B356" s="57"/>
     </row>
     <row r="357">
-      <c r="B357" s="56"/>
+      <c r="B357" s="57"/>
     </row>
     <row r="358">
-      <c r="B358" s="56"/>
+      <c r="B358" s="57"/>
     </row>
     <row r="359">
-      <c r="B359" s="56"/>
+      <c r="B359" s="57"/>
     </row>
     <row r="360">
-      <c r="B360" s="56"/>
+      <c r="B360" s="57"/>
     </row>
     <row r="361">
-      <c r="B361" s="56"/>
+      <c r="B361" s="57"/>
     </row>
     <row r="362">
-      <c r="B362" s="56"/>
+      <c r="B362" s="57"/>
     </row>
     <row r="363">
-      <c r="B363" s="56"/>
+      <c r="B363" s="57"/>
     </row>
     <row r="364">
-      <c r="B364" s="56"/>
+      <c r="B364" s="57"/>
     </row>
     <row r="365">
-      <c r="B365" s="56"/>
+      <c r="B365" s="57"/>
     </row>
     <row r="366">
-      <c r="B366" s="56"/>
+      <c r="B366" s="57"/>
     </row>
     <row r="367">
-      <c r="B367" s="56"/>
+      <c r="B367" s="57"/>
     </row>
     <row r="368">
-      <c r="B368" s="56"/>
+      <c r="B368" s="57"/>
     </row>
     <row r="369">
-      <c r="B369" s="56"/>
+      <c r="B369" s="57"/>
     </row>
     <row r="370">
-      <c r="B370" s="56"/>
+      <c r="B370" s="57"/>
     </row>
     <row r="371">
-      <c r="B371" s="56"/>
+      <c r="B371" s="57"/>
     </row>
     <row r="372">
-      <c r="B372" s="56"/>
+      <c r="B372" s="57"/>
     </row>
     <row r="373">
-      <c r="B373" s="56"/>
+      <c r="B373" s="57"/>
     </row>
     <row r="374">
-      <c r="B374" s="56"/>
+      <c r="B374" s="57"/>
     </row>
     <row r="375">
-      <c r="B375" s="56"/>
+      <c r="B375" s="57"/>
     </row>
     <row r="376">
-      <c r="B376" s="56"/>
+      <c r="B376" s="57"/>
     </row>
     <row r="377">
-      <c r="B377" s="56"/>
+      <c r="B377" s="57"/>
     </row>
     <row r="378">
-      <c r="B378" s="56"/>
+      <c r="B378" s="57"/>
     </row>
     <row r="379">
-      <c r="B379" s="56"/>
+      <c r="B379" s="57"/>
     </row>
     <row r="380">
-      <c r="B380" s="56"/>
+      <c r="B380" s="57"/>
     </row>
     <row r="381">
-      <c r="B381" s="56"/>
+      <c r="B381" s="57"/>
     </row>
     <row r="382">
-      <c r="B382" s="56"/>
+      <c r="B382" s="57"/>
     </row>
     <row r="383">
-      <c r="B383" s="56"/>
+      <c r="B383" s="57"/>
     </row>
     <row r="384">
-      <c r="B384" s="56"/>
+      <c r="B384" s="57"/>
     </row>
     <row r="385">
-      <c r="B385" s="56"/>
+      <c r="B385" s="57"/>
     </row>
     <row r="386">
-      <c r="B386" s="56"/>
+      <c r="B386" s="57"/>
     </row>
     <row r="387">
-      <c r="B387" s="56"/>
+      <c r="B387" s="57"/>
     </row>
     <row r="388">
-      <c r="B388" s="56"/>
+      <c r="B388" s="57"/>
     </row>
     <row r="389">
-      <c r="B389" s="56"/>
+      <c r="B389" s="57"/>
     </row>
     <row r="390">
-      <c r="B390" s="56"/>
+      <c r="B390" s="57"/>
     </row>
     <row r="391">
-      <c r="B391" s="56"/>
+      <c r="B391" s="57"/>
     </row>
     <row r="392">
-      <c r="B392" s="56"/>
+      <c r="B392" s="57"/>
     </row>
     <row r="393">
-      <c r="B393" s="56"/>
+      <c r="B393" s="57"/>
     </row>
     <row r="394">
-      <c r="B394" s="56"/>
+      <c r="B394" s="57"/>
     </row>
     <row r="395">
-      <c r="B395" s="56"/>
+      <c r="B395" s="57"/>
     </row>
     <row r="396">
-      <c r="B396" s="56"/>
+      <c r="B396" s="57"/>
     </row>
     <row r="397">
-      <c r="B397" s="56"/>
+      <c r="B397" s="57"/>
     </row>
     <row r="398">
-      <c r="B398" s="56"/>
+      <c r="B398" s="57"/>
     </row>
     <row r="399">
-      <c r="B399" s="56"/>
+      <c r="B399" s="57"/>
     </row>
     <row r="400">
-      <c r="B400" s="56"/>
+      <c r="B400" s="57"/>
     </row>
     <row r="401">
-      <c r="B401" s="56"/>
+      <c r="B401" s="57"/>
     </row>
     <row r="402">
-      <c r="B402" s="56"/>
+      <c r="B402" s="57"/>
     </row>
     <row r="403">
-      <c r="B403" s="56"/>
+      <c r="B403" s="57"/>
     </row>
     <row r="404">
-      <c r="B404" s="56"/>
+      <c r="B404" s="57"/>
     </row>
     <row r="405">
-      <c r="B405" s="56"/>
+      <c r="B405" s="57"/>
     </row>
     <row r="406">
-      <c r="B406" s="56"/>
+      <c r="B406" s="57"/>
     </row>
     <row r="407">
-      <c r="B407" s="56"/>
+      <c r="B407" s="57"/>
     </row>
     <row r="408">
-      <c r="B408" s="56"/>
+      <c r="B408" s="57"/>
     </row>
     <row r="409">
-      <c r="B409" s="56"/>
+      <c r="B409" s="57"/>
     </row>
     <row r="410">
-      <c r="B410" s="56"/>
+      <c r="B410" s="57"/>
     </row>
     <row r="411">
-      <c r="B411" s="56"/>
+      <c r="B411" s="57"/>
     </row>
     <row r="412">
-      <c r="B412" s="56"/>
+      <c r="B412" s="57"/>
     </row>
     <row r="413">
-      <c r="B413" s="56"/>
+      <c r="B413" s="57"/>
     </row>
     <row r="414">
-      <c r="B414" s="56"/>
+      <c r="B414" s="57"/>
     </row>
     <row r="415">
-      <c r="B415" s="56"/>
+      <c r="B415" s="57"/>
     </row>
     <row r="416">
-      <c r="B416" s="56"/>
+      <c r="B416" s="57"/>
     </row>
     <row r="417">
-      <c r="B417" s="56"/>
+      <c r="B417" s="57"/>
     </row>
     <row r="418">
-      <c r="B418" s="56"/>
+      <c r="B418" s="57"/>
     </row>
     <row r="419">
-      <c r="B419" s="56"/>
+      <c r="B419" s="57"/>
     </row>
     <row r="420">
-      <c r="B420" s="56"/>
+      <c r="B420" s="57"/>
     </row>
     <row r="421">
-      <c r="B421" s="56"/>
+      <c r="B421" s="57"/>
     </row>
     <row r="422">
-      <c r="B422" s="56"/>
+      <c r="B422" s="57"/>
     </row>
     <row r="423">
-      <c r="B423" s="56"/>
+      <c r="B423" s="57"/>
     </row>
     <row r="424">
-      <c r="B424" s="56"/>
+      <c r="B424" s="57"/>
     </row>
     <row r="425">
-      <c r="B425" s="56"/>
+      <c r="B425" s="57"/>
     </row>
     <row r="426">
-      <c r="B426" s="56"/>
+      <c r="B426" s="57"/>
     </row>
     <row r="427">
-      <c r="B427" s="56"/>
+      <c r="B427" s="57"/>
     </row>
     <row r="428">
-      <c r="B428" s="56"/>
+      <c r="B428" s="57"/>
     </row>
     <row r="429">
-      <c r="B429" s="56"/>
+      <c r="B429" s="57"/>
     </row>
     <row r="430">
-      <c r="B430" s="56"/>
+      <c r="B430" s="57"/>
     </row>
     <row r="431">
-      <c r="B431" s="56"/>
+      <c r="B431" s="57"/>
     </row>
     <row r="432">
-      <c r="B432" s="56"/>
+      <c r="B432" s="57"/>
     </row>
     <row r="433">
-      <c r="B433" s="56"/>
+      <c r="B433" s="57"/>
     </row>
     <row r="434">
-      <c r="B434" s="56"/>
+      <c r="B434" s="57"/>
     </row>
     <row r="435">
-      <c r="B435" s="56"/>
+      <c r="B435" s="57"/>
     </row>
     <row r="436">
-      <c r="B436" s="56"/>
+      <c r="B436" s="57"/>
     </row>
     <row r="437">
-      <c r="B437" s="56"/>
+      <c r="B437" s="57"/>
     </row>
     <row r="438">
-      <c r="B438" s="56"/>
+      <c r="B438" s="57"/>
     </row>
     <row r="439">
-      <c r="B439" s="56"/>
+      <c r="B439" s="57"/>
     </row>
     <row r="440">
-      <c r="B440" s="56"/>
+      <c r="B440" s="57"/>
     </row>
     <row r="441">
-      <c r="B441" s="56"/>
+      <c r="B441" s="57"/>
     </row>
     <row r="442">
-      <c r="B442" s="56"/>
+      <c r="B442" s="57"/>
     </row>
     <row r="443">
-      <c r="B443" s="56"/>
+      <c r="B443" s="57"/>
     </row>
     <row r="444">
-      <c r="B444" s="56"/>
+      <c r="B444" s="57"/>
     </row>
     <row r="445">
-      <c r="B445" s="56"/>
+      <c r="B445" s="57"/>
     </row>
     <row r="446">
-      <c r="B446" s="56"/>
+      <c r="B446" s="57"/>
     </row>
     <row r="447">
-      <c r="B447" s="56"/>
+      <c r="B447" s="57"/>
     </row>
     <row r="448">
-      <c r="B448" s="56"/>
+      <c r="B448" s="57"/>
     </row>
     <row r="449">
-      <c r="B449" s="56"/>
+      <c r="B449" s="57"/>
     </row>
     <row r="450">
-      <c r="B450" s="56"/>
+      <c r="B450" s="57"/>
     </row>
     <row r="451">
-      <c r="B451" s="56"/>
+      <c r="B451" s="57"/>
     </row>
     <row r="452">
-      <c r="B452" s="56"/>
+      <c r="B452" s="57"/>
     </row>
     <row r="453">
-      <c r="B453" s="56"/>
+      <c r="B453" s="57"/>
     </row>
     <row r="454">
-      <c r="B454" s="56"/>
+      <c r="B454" s="57"/>
     </row>
     <row r="455">
-      <c r="B455" s="56"/>
+      <c r="B455" s="57"/>
     </row>
     <row r="456">
-      <c r="B456" s="56"/>
+      <c r="B456" s="57"/>
     </row>
     <row r="457">
-      <c r="B457" s="56"/>
+      <c r="B457" s="57"/>
     </row>
     <row r="458">
-      <c r="B458" s="56"/>
+      <c r="B458" s="57"/>
     </row>
     <row r="459">
-      <c r="B459" s="56"/>
+      <c r="B459" s="57"/>
     </row>
     <row r="460">
-      <c r="B460" s="56"/>
+      <c r="B460" s="57"/>
     </row>
     <row r="461">
-      <c r="B461" s="56"/>
+      <c r="B461" s="57"/>
     </row>
     <row r="462">
-      <c r="B462" s="56"/>
+      <c r="B462" s="57"/>
     </row>
     <row r="463">
-      <c r="B463" s="56"/>
+      <c r="B463" s="57"/>
     </row>
     <row r="464">
-      <c r="B464" s="56"/>
+      <c r="B464" s="57"/>
     </row>
     <row r="465">
-      <c r="B465" s="56"/>
+      <c r="B465" s="57"/>
     </row>
     <row r="466">
-      <c r="B466" s="56"/>
+      <c r="B466" s="57"/>
     </row>
     <row r="467">
-      <c r="B467" s="56"/>
+      <c r="B467" s="57"/>
     </row>
     <row r="468">
-      <c r="B468" s="56"/>
+      <c r="B468" s="57"/>
     </row>
     <row r="469">
-      <c r="B469" s="56"/>
+      <c r="B469" s="57"/>
     </row>
     <row r="470">
-      <c r="B470" s="56"/>
+      <c r="B470" s="57"/>
     </row>
     <row r="471">
-      <c r="B471" s="56"/>
+      <c r="B471" s="57"/>
     </row>
     <row r="472">
-      <c r="B472" s="56"/>
+      <c r="B472" s="57"/>
     </row>
     <row r="473">
-      <c r="B473" s="56"/>
+      <c r="B473" s="57"/>
     </row>
     <row r="474">
-      <c r="B474" s="56"/>
+      <c r="B474" s="57"/>
     </row>
     <row r="475">
-      <c r="B475" s="56"/>
+      <c r="B475" s="57"/>
     </row>
     <row r="476">
-      <c r="B476" s="56"/>
+      <c r="B476" s="57"/>
     </row>
     <row r="477">
-      <c r="B477" s="56"/>
+      <c r="B477" s="57"/>
     </row>
     <row r="478">
-      <c r="B478" s="56"/>
+      <c r="B478" s="57"/>
     </row>
     <row r="479">
-      <c r="B479" s="56"/>
+      <c r="B479" s="57"/>
     </row>
     <row r="480">
-      <c r="B480" s="56"/>
+      <c r="B480" s="57"/>
     </row>
     <row r="481">
-      <c r="B481" s="56"/>
+      <c r="B481" s="57"/>
     </row>
     <row r="482">
-      <c r="B482" s="56"/>
+      <c r="B482" s="57"/>
     </row>
     <row r="483">
-      <c r="B483" s="56"/>
+      <c r="B483" s="57"/>
     </row>
     <row r="484">
-      <c r="B484" s="56"/>
+      <c r="B484" s="57"/>
     </row>
     <row r="485">
-      <c r="B485" s="56"/>
+      <c r="B485" s="57"/>
     </row>
     <row r="486">
-      <c r="B486" s="56"/>
+      <c r="B486" s="57"/>
     </row>
     <row r="487">
-      <c r="B487" s="56"/>
+      <c r="B487" s="57"/>
     </row>
     <row r="488">
-      <c r="B488" s="56"/>
+      <c r="B488" s="57"/>
     </row>
     <row r="489">
-      <c r="B489" s="56"/>
+      <c r="B489" s="57"/>
     </row>
     <row r="490">
-      <c r="B490" s="56"/>
+      <c r="B490" s="57"/>
     </row>
     <row r="491">
-      <c r="B491" s="56"/>
+      <c r="B491" s="57"/>
     </row>
     <row r="492">
-      <c r="B492" s="56"/>
+      <c r="B492" s="57"/>
     </row>
     <row r="493">
-      <c r="B493" s="56"/>
+      <c r="B493" s="57"/>
     </row>
     <row r="494">
-      <c r="B494" s="56"/>
+      <c r="B494" s="57"/>
     </row>
     <row r="495">
-      <c r="B495" s="56"/>
+      <c r="B495" s="57"/>
     </row>
     <row r="496">
-      <c r="B496" s="56"/>
+      <c r="B496" s="57"/>
     </row>
     <row r="497">
-      <c r="B497" s="56"/>
+      <c r="B497" s="57"/>
     </row>
     <row r="498">
-      <c r="B498" s="56"/>
+      <c r="B498" s="57"/>
     </row>
     <row r="499">
-      <c r="B499" s="56"/>
+      <c r="B499" s="57"/>
     </row>
     <row r="500">
-      <c r="B500" s="56"/>
+      <c r="B500" s="57"/>
     </row>
     <row r="501">
-      <c r="B501" s="56"/>
+      <c r="B501" s="57"/>
     </row>
     <row r="502">
-      <c r="B502" s="56"/>
+      <c r="B502" s="57"/>
     </row>
     <row r="503">
-      <c r="B503" s="56"/>
+      <c r="B503" s="57"/>
     </row>
     <row r="504">
-      <c r="B504" s="56"/>
+      <c r="B504" s="57"/>
     </row>
     <row r="505">
-      <c r="B505" s="56"/>
+      <c r="B505" s="57"/>
     </row>
     <row r="506">
-      <c r="B506" s="56"/>
+      <c r="B506" s="57"/>
     </row>
     <row r="507">
-      <c r="B507" s="56"/>
+      <c r="B507" s="57"/>
     </row>
     <row r="508">
-      <c r="B508" s="56"/>
+      <c r="B508" s="57"/>
     </row>
     <row r="509">
-      <c r="B509" s="56"/>
+      <c r="B509" s="57"/>
     </row>
     <row r="510">
-      <c r="B510" s="56"/>
+      <c r="B510" s="57"/>
     </row>
     <row r="511">
-      <c r="B511" s="56"/>
+      <c r="B511" s="57"/>
     </row>
     <row r="512">
-      <c r="B512" s="56"/>
+      <c r="B512" s="57"/>
     </row>
     <row r="513">
-      <c r="B513" s="56"/>
+      <c r="B513" s="57"/>
     </row>
     <row r="514">
-      <c r="B514" s="56"/>
+      <c r="B514" s="57"/>
     </row>
     <row r="515">
-      <c r="B515" s="56"/>
+      <c r="B515" s="57"/>
     </row>
     <row r="516">
-      <c r="B516" s="56"/>
+      <c r="B516" s="57"/>
     </row>
     <row r="517">
-      <c r="B517" s="56"/>
+      <c r="B517" s="57"/>
     </row>
     <row r="518">
-      <c r="B518" s="56"/>
+      <c r="B518" s="57"/>
     </row>
     <row r="519">
-      <c r="B519" s="56"/>
+      <c r="B519" s="57"/>
     </row>
     <row r="520">
-      <c r="B520" s="56"/>
+      <c r="B520" s="57"/>
     </row>
     <row r="521">
-      <c r="B521" s="56"/>
+      <c r="B521" s="57"/>
     </row>
     <row r="522">
-      <c r="B522" s="56"/>
+      <c r="B522" s="57"/>
     </row>
     <row r="523">
-      <c r="B523" s="56"/>
+      <c r="B523" s="57"/>
     </row>
     <row r="524">
-      <c r="B524" s="56"/>
+      <c r="B524" s="57"/>
     </row>
     <row r="525">
-      <c r="B525" s="56"/>
+      <c r="B525" s="57"/>
     </row>
     <row r="526">
-      <c r="B526" s="56"/>
+      <c r="B526" s="57"/>
     </row>
     <row r="527">
-      <c r="B527" s="56"/>
+      <c r="B527" s="57"/>
     </row>
     <row r="528">
-      <c r="B528" s="56"/>
+      <c r="B528" s="57"/>
     </row>
     <row r="529">
-      <c r="B529" s="56"/>
+      <c r="B529" s="57"/>
     </row>
     <row r="530">
-      <c r="B530" s="56"/>
+      <c r="B530" s="57"/>
     </row>
     <row r="531">
-      <c r="B531" s="56"/>
+      <c r="B531" s="57"/>
     </row>
     <row r="532">
-      <c r="B532" s="56"/>
+      <c r="B532" s="57"/>
     </row>
     <row r="533">
-      <c r="B533" s="56"/>
+      <c r="B533" s="57"/>
     </row>
     <row r="534">
-      <c r="B534" s="56"/>
+      <c r="B534" s="57"/>
     </row>
     <row r="535">
-      <c r="B535" s="56"/>
+      <c r="B535" s="57"/>
     </row>
     <row r="536">
-      <c r="B536" s="56"/>
+      <c r="B536" s="57"/>
     </row>
     <row r="537">
-      <c r="B537" s="56"/>
+      <c r="B537" s="57"/>
     </row>
     <row r="538">
-      <c r="B538" s="56"/>
+      <c r="B538" s="57"/>
     </row>
     <row r="539">
-      <c r="B539" s="56"/>
+      <c r="B539" s="57"/>
     </row>
     <row r="540">
-      <c r="B540" s="56"/>
+      <c r="B540" s="57"/>
     </row>
     <row r="541">
-      <c r="B541" s="56"/>
+      <c r="B541" s="57"/>
     </row>
     <row r="542">
-      <c r="B542" s="56"/>
+      <c r="B542" s="57"/>
     </row>
     <row r="543">
-      <c r="B543" s="56"/>
+      <c r="B543" s="57"/>
     </row>
     <row r="544">
-      <c r="B544" s="56"/>
+      <c r="B544" s="57"/>
     </row>
     <row r="545">
-      <c r="B545" s="56"/>
+      <c r="B545" s="57"/>
     </row>
     <row r="546">
-      <c r="B546" s="56"/>
+      <c r="B546" s="57"/>
     </row>
     <row r="547">
-      <c r="B547" s="56"/>
+      <c r="B547" s="57"/>
     </row>
     <row r="548">
-      <c r="B548" s="56"/>
+      <c r="B548" s="57"/>
     </row>
     <row r="549">
-      <c r="B549" s="56"/>
+      <c r="B549" s="57"/>
     </row>
     <row r="550">
-      <c r="B550" s="56"/>
+      <c r="B550" s="57"/>
     </row>
     <row r="551">
-      <c r="B551" s="56"/>
+      <c r="B551" s="57"/>
     </row>
     <row r="552">
-      <c r="B552" s="56"/>
+      <c r="B552" s="57"/>
     </row>
     <row r="553">
-      <c r="B553" s="56"/>
+      <c r="B553" s="57"/>
     </row>
     <row r="554">
-      <c r="B554" s="56"/>
+      <c r="B554" s="57"/>
     </row>
     <row r="555">
-      <c r="B555" s="56"/>
+      <c r="B555" s="57"/>
     </row>
     <row r="556">
-      <c r="B556" s="56"/>
+      <c r="B556" s="57"/>
     </row>
     <row r="557">
-      <c r="B557" s="56"/>
+      <c r="B557" s="57"/>
     </row>
     <row r="558">
-      <c r="B558" s="56"/>
+      <c r="B558" s="57"/>
     </row>
     <row r="559">
-      <c r="B559" s="56"/>
+      <c r="B559" s="57"/>
     </row>
     <row r="560">
-      <c r="B560" s="56"/>
+      <c r="B560" s="57"/>
     </row>
     <row r="561">
-      <c r="B561" s="56"/>
+      <c r="B561" s="57"/>
     </row>
     <row r="562">
-      <c r="B562" s="56"/>
+      <c r="B562" s="57"/>
     </row>
     <row r="563">
-      <c r="B563" s="56"/>
+      <c r="B563" s="57"/>
     </row>
     <row r="564">
-      <c r="B564" s="56"/>
+      <c r="B564" s="57"/>
     </row>
     <row r="565">
-      <c r="B565" s="56"/>
+      <c r="B565" s="57"/>
     </row>
     <row r="566">
-      <c r="B566" s="56"/>
+      <c r="B566" s="57"/>
     </row>
     <row r="567">
-      <c r="B567" s="56"/>
+      <c r="B567" s="57"/>
     </row>
     <row r="568">
-      <c r="B568" s="56"/>
+      <c r="B568" s="57"/>
     </row>
     <row r="569">
-      <c r="B569" s="56"/>
+      <c r="B569" s="57"/>
     </row>
     <row r="570">
-      <c r="B570" s="56"/>
+      <c r="B570" s="57"/>
     </row>
     <row r="571">
-      <c r="B571" s="56"/>
+      <c r="B571" s="57"/>
     </row>
     <row r="572">
-      <c r="B572" s="56"/>
+      <c r="B572" s="57"/>
     </row>
     <row r="573">
-      <c r="B573" s="56"/>
+      <c r="B573" s="57"/>
     </row>
     <row r="574">
-      <c r="B574" s="56"/>
+      <c r="B574" s="57"/>
     </row>
     <row r="575">
-      <c r="B575" s="56"/>
+      <c r="B575" s="57"/>
     </row>
     <row r="576">
-      <c r="B576" s="56"/>
+      <c r="B576" s="57"/>
     </row>
     <row r="577">
-      <c r="B577" s="56"/>
+      <c r="B577" s="57"/>
     </row>
     <row r="578">
-      <c r="B578" s="56"/>
+      <c r="B578" s="57"/>
     </row>
     <row r="579">
-      <c r="B579" s="56"/>
+      <c r="B579" s="57"/>
     </row>
     <row r="580">
-      <c r="B580" s="56"/>
+      <c r="B580" s="57"/>
     </row>
     <row r="581">
-      <c r="B581" s="56"/>
+      <c r="B581" s="57"/>
     </row>
     <row r="582">
-      <c r="B582" s="56"/>
+      <c r="B582" s="57"/>
     </row>
     <row r="583">
-      <c r="B583" s="56"/>
+      <c r="B583" s="57"/>
     </row>
     <row r="584">
-      <c r="B584" s="56"/>
+      <c r="B584" s="57"/>
     </row>
     <row r="585">
-      <c r="B585" s="56"/>
+      <c r="B585" s="57"/>
     </row>
     <row r="586">
-      <c r="B586" s="56"/>
+      <c r="B586" s="57"/>
     </row>
     <row r="587">
-      <c r="B587" s="56"/>
+      <c r="B587" s="57"/>
     </row>
     <row r="588">
-      <c r="B588" s="56"/>
+      <c r="B588" s="57"/>
     </row>
     <row r="589">
-      <c r="B589" s="56"/>
+      <c r="B589" s="57"/>
     </row>
     <row r="590">
-      <c r="B590" s="56"/>
+      <c r="B590" s="57"/>
     </row>
     <row r="591">
-      <c r="B591" s="56"/>
+      <c r="B591" s="57"/>
     </row>
     <row r="592">
-      <c r="B592" s="56"/>
+      <c r="B592" s="57"/>
     </row>
     <row r="593">
-      <c r="B593" s="56"/>
+      <c r="B593" s="57"/>
     </row>
     <row r="594">
-      <c r="B594" s="56"/>
+      <c r="B594" s="57"/>
     </row>
     <row r="595">
-      <c r="B595" s="56"/>
+      <c r="B595" s="57"/>
     </row>
     <row r="596">
-      <c r="B596" s="56"/>
+      <c r="B596" s="57"/>
     </row>
     <row r="597">
-      <c r="B597" s="56"/>
+      <c r="B597" s="57"/>
     </row>
     <row r="598">
-      <c r="B598" s="56"/>
+      <c r="B598" s="57"/>
     </row>
     <row r="599">
-      <c r="B599" s="56"/>
+      <c r="B599" s="57"/>
     </row>
     <row r="600">
-      <c r="B600" s="56"/>
+      <c r="B600" s="57"/>
     </row>
     <row r="601">
-      <c r="B601" s="56"/>
+      <c r="B601" s="57"/>
     </row>
     <row r="602">
-      <c r="B602" s="56"/>
+      <c r="B602" s="57"/>
     </row>
     <row r="603">
-      <c r="B603" s="56"/>
+      <c r="B603" s="57"/>
     </row>
     <row r="604">
-      <c r="B604" s="56"/>
+      <c r="B604" s="57"/>
     </row>
     <row r="605">
-      <c r="B605" s="56"/>
+      <c r="B605" s="57"/>
     </row>
     <row r="606">
-      <c r="B606" s="56"/>
+      <c r="B606" s="57"/>
     </row>
     <row r="607">
-      <c r="B607" s="56"/>
+      <c r="B607" s="57"/>
     </row>
     <row r="608">
-      <c r="B608" s="56"/>
+      <c r="B608" s="57"/>
     </row>
     <row r="609">
-      <c r="B609" s="56"/>
+      <c r="B609" s="57"/>
     </row>
     <row r="610">
-      <c r="B610" s="56"/>
+      <c r="B610" s="57"/>
     </row>
     <row r="611">
-      <c r="B611" s="56"/>
+      <c r="B611" s="57"/>
     </row>
     <row r="612">
-      <c r="B612" s="56"/>
+      <c r="B612" s="57"/>
     </row>
     <row r="613">
-      <c r="B613" s="56"/>
+      <c r="B613" s="57"/>
     </row>
     <row r="614">
-      <c r="B614" s="56"/>
+      <c r="B614" s="57"/>
     </row>
     <row r="615">
-      <c r="B615" s="56"/>
+      <c r="B615" s="57"/>
     </row>
     <row r="616">
-      <c r="B616" s="56"/>
+      <c r="B616" s="57"/>
     </row>
     <row r="617">
-      <c r="B617" s="56"/>
+      <c r="B617" s="57"/>
     </row>
     <row r="618">
-      <c r="B618" s="56"/>
+      <c r="B618" s="57"/>
     </row>
     <row r="619">
-      <c r="B619" s="56"/>
+      <c r="B619" s="57"/>
     </row>
     <row r="620">
-      <c r="B620" s="56"/>
+      <c r="B620" s="57"/>
     </row>
     <row r="621">
-      <c r="B621" s="56"/>
+      <c r="B621" s="57"/>
     </row>
     <row r="622">
-      <c r="B622" s="56"/>
+      <c r="B622" s="57"/>
     </row>
     <row r="623">
-      <c r="B623" s="56"/>
+      <c r="B623" s="57"/>
     </row>
     <row r="624">
-      <c r="B624" s="56"/>
+      <c r="B624" s="57"/>
     </row>
     <row r="625">
-      <c r="B625" s="56"/>
+      <c r="B625" s="57"/>
     </row>
     <row r="626">
-      <c r="B626" s="56"/>
+      <c r="B626" s="57"/>
     </row>
     <row r="627">
-      <c r="B627" s="56"/>
+      <c r="B627" s="57"/>
     </row>
     <row r="628">
-      <c r="B628" s="56"/>
+      <c r="B628" s="57"/>
     </row>
     <row r="629">
-      <c r="B629" s="56"/>
+      <c r="B629" s="57"/>
     </row>
     <row r="630">
-      <c r="B630" s="56"/>
+      <c r="B630" s="57"/>
     </row>
     <row r="631">
-      <c r="B631" s="56"/>
+      <c r="B631" s="57"/>
     </row>
     <row r="632">
-      <c r="B632" s="56"/>
+      <c r="B632" s="57"/>
     </row>
     <row r="633">
-      <c r="B633" s="56"/>
+      <c r="B633" s="57"/>
     </row>
     <row r="634">
-      <c r="B634" s="56"/>
+      <c r="B634" s="57"/>
     </row>
     <row r="635">
-      <c r="B635" s="56"/>
+      <c r="B635" s="57"/>
     </row>
     <row r="636">
-      <c r="B636" s="56"/>
+      <c r="B636" s="57"/>
     </row>
     <row r="637">
-      <c r="B637" s="56"/>
+      <c r="B637" s="57"/>
     </row>
     <row r="638">
-      <c r="B638" s="56"/>
+      <c r="B638" s="57"/>
     </row>
     <row r="639">
-      <c r="B639" s="56"/>
+      <c r="B639" s="57"/>
     </row>
     <row r="640">
-      <c r="B640" s="56"/>
+      <c r="B640" s="57"/>
     </row>
     <row r="641">
-      <c r="B641" s="56"/>
+      <c r="B641" s="57"/>
     </row>
     <row r="642">
-      <c r="B642" s="56"/>
+      <c r="B642" s="57"/>
     </row>
     <row r="643">
-      <c r="B643" s="56"/>
+      <c r="B643" s="57"/>
     </row>
     <row r="644">
-      <c r="B644" s="56"/>
+      <c r="B644" s="57"/>
     </row>
     <row r="645">
-      <c r="B645" s="56"/>
+      <c r="B645" s="57"/>
     </row>
     <row r="646">
-      <c r="B646" s="56"/>
+      <c r="B646" s="57"/>
     </row>
     <row r="647">
-      <c r="B647" s="56"/>
+      <c r="B647" s="57"/>
     </row>
     <row r="648">
-      <c r="B648" s="56"/>
+      <c r="B648" s="57"/>
     </row>
     <row r="649">
-      <c r="B649" s="56"/>
+      <c r="B649" s="57"/>
     </row>
     <row r="650">
-      <c r="B650" s="56"/>
+      <c r="B650" s="57"/>
     </row>
     <row r="651">
-      <c r="B651" s="56"/>
+      <c r="B651" s="57"/>
     </row>
     <row r="652">
-      <c r="B652" s="56"/>
+      <c r="B652" s="57"/>
     </row>
     <row r="653">
-      <c r="B653" s="56"/>
+      <c r="B653" s="57"/>
     </row>
     <row r="654">
-      <c r="B654" s="56"/>
+      <c r="B654" s="57"/>
     </row>
     <row r="655">
-      <c r="B655" s="56"/>
+      <c r="B655" s="57"/>
     </row>
     <row r="656">
-      <c r="B656" s="56"/>
+      <c r="B656" s="57"/>
     </row>
     <row r="657">
-      <c r="B657" s="56"/>
+      <c r="B657" s="57"/>
     </row>
     <row r="658">
-      <c r="B658" s="56"/>
+      <c r="B658" s="57"/>
     </row>
     <row r="659">
-      <c r="B659" s="56"/>
+      <c r="B659" s="57"/>
     </row>
     <row r="660">
-      <c r="B660" s="56"/>
+      <c r="B660" s="57"/>
     </row>
     <row r="661">
-      <c r="B661" s="56"/>
+      <c r="B661" s="57"/>
     </row>
     <row r="662">
-      <c r="B662" s="56"/>
+      <c r="B662" s="57"/>
     </row>
     <row r="663">
-      <c r="B663" s="56"/>
+      <c r="B663" s="57"/>
     </row>
     <row r="664">
-      <c r="B664" s="56"/>
+      <c r="B664" s="57"/>
     </row>
     <row r="665">
-      <c r="B665" s="56"/>
+      <c r="B665" s="57"/>
     </row>
     <row r="666">
-      <c r="B666" s="56"/>
+      <c r="B666" s="57"/>
     </row>
     <row r="667">
-      <c r="B667" s="56"/>
+      <c r="B667" s="57"/>
     </row>
     <row r="668">
-      <c r="B668" s="56"/>
+      <c r="B668" s="57"/>
     </row>
     <row r="669">
-      <c r="B669" s="56"/>
+      <c r="B669" s="57"/>
     </row>
     <row r="670">
-      <c r="B670" s="56"/>
+      <c r="B670" s="57"/>
     </row>
     <row r="671">
-      <c r="B671" s="56"/>
+      <c r="B671" s="57"/>
     </row>
     <row r="672">
-      <c r="B672" s="56"/>
+      <c r="B672" s="57"/>
     </row>
     <row r="673">
-      <c r="B673" s="56"/>
+      <c r="B673" s="57"/>
     </row>
     <row r="674">
-      <c r="B674" s="56"/>
+      <c r="B674" s="57"/>
     </row>
     <row r="675">
-      <c r="B675" s="56"/>
+      <c r="B675" s="57"/>
     </row>
     <row r="676">
-      <c r="B676" s="56"/>
+      <c r="B676" s="57"/>
     </row>
     <row r="677">
-      <c r="B677" s="56"/>
+      <c r="B677" s="57"/>
     </row>
     <row r="678">
-      <c r="B678" s="56"/>
+      <c r="B678" s="57"/>
     </row>
     <row r="679">
-      <c r="B679" s="56"/>
+      <c r="B679" s="57"/>
     </row>
     <row r="680">
-      <c r="B680" s="56"/>
+      <c r="B680" s="57"/>
     </row>
     <row r="681">
-      <c r="B681" s="56"/>
+      <c r="B681" s="57"/>
     </row>
     <row r="682">
-      <c r="B682" s="56"/>
+      <c r="B682" s="57"/>
     </row>
     <row r="683">
-      <c r="B683" s="56"/>
+      <c r="B683" s="57"/>
     </row>
     <row r="684">
-      <c r="B684" s="56"/>
+      <c r="B684" s="57"/>
     </row>
     <row r="685">
-      <c r="B685" s="56"/>
+      <c r="B685" s="57"/>
     </row>
     <row r="686">
-      <c r="B686" s="56"/>
+      <c r="B686" s="57"/>
     </row>
     <row r="687">
-      <c r="B687" s="56"/>
+      <c r="B687" s="57"/>
     </row>
     <row r="688">
-      <c r="B688" s="56"/>
+      <c r="B688" s="57"/>
     </row>
     <row r="689">
-      <c r="B689" s="56"/>
+      <c r="B689" s="57"/>
     </row>
     <row r="690">
-      <c r="B690" s="56"/>
+      <c r="B690" s="57"/>
     </row>
     <row r="691">
-      <c r="B691" s="56"/>
+      <c r="B691" s="57"/>
     </row>
     <row r="692">
-      <c r="B692" s="56"/>
+      <c r="B692" s="57"/>
     </row>
     <row r="693">
-      <c r="B693" s="56"/>
+      <c r="B693" s="57"/>
     </row>
     <row r="694">
-      <c r="B694" s="56"/>
+      <c r="B694" s="57"/>
     </row>
     <row r="695">
-      <c r="B695" s="56"/>
+      <c r="B695" s="57"/>
     </row>
     <row r="696">
-      <c r="B696" s="56"/>
+      <c r="B696" s="57"/>
     </row>
     <row r="697">
-      <c r="B697" s="56"/>
+      <c r="B697" s="57"/>
     </row>
     <row r="698">
-      <c r="B698" s="56"/>
+      <c r="B698" s="57"/>
     </row>
     <row r="699">
-      <c r="B699" s="56"/>
+      <c r="B699" s="57"/>
     </row>
     <row r="700">
-      <c r="B700" s="56"/>
+      <c r="B700" s="57"/>
     </row>
     <row r="701">
-      <c r="B701" s="56"/>
+      <c r="B701" s="57"/>
     </row>
     <row r="702">
-      <c r="B702" s="56"/>
+      <c r="B702" s="57"/>
     </row>
     <row r="703">
-      <c r="B703" s="56"/>
+      <c r="B703" s="57"/>
     </row>
     <row r="704">
-      <c r="B704" s="56"/>
+      <c r="B704" s="57"/>
     </row>
     <row r="705">
-      <c r="B705" s="56"/>
+      <c r="B705" s="57"/>
     </row>
     <row r="706">
-      <c r="B706" s="56"/>
+      <c r="B706" s="57"/>
     </row>
     <row r="707">
-      <c r="B707" s="56"/>
+      <c r="B707" s="57"/>
     </row>
     <row r="708">
-      <c r="B708" s="56"/>
+      <c r="B708" s="57"/>
     </row>
     <row r="709">
-      <c r="B709" s="56"/>
+      <c r="B709" s="57"/>
     </row>
     <row r="710">
-      <c r="B710" s="56"/>
+      <c r="B710" s="57"/>
     </row>
     <row r="711">
-      <c r="B711" s="56"/>
+      <c r="B711" s="57"/>
     </row>
     <row r="712">
-      <c r="B712" s="56"/>
+      <c r="B712" s="57"/>
     </row>
     <row r="713">
-      <c r="B713" s="56"/>
+      <c r="B713" s="57"/>
     </row>
     <row r="714">
-      <c r="B714" s="56"/>
+      <c r="B714" s="57"/>
     </row>
     <row r="715">
-      <c r="B715" s="56"/>
+      <c r="B715" s="57"/>
     </row>
     <row r="716">
-      <c r="B716" s="56"/>
+      <c r="B716" s="57"/>
     </row>
     <row r="717">
-      <c r="B717" s="56"/>
+      <c r="B717" s="57"/>
     </row>
     <row r="718">
-      <c r="B718" s="56"/>
+      <c r="B718" s="57"/>
     </row>
     <row r="719">
-      <c r="B719" s="56"/>
+      <c r="B719" s="57"/>
     </row>
     <row r="720">
-      <c r="B720" s="56"/>
+      <c r="B720" s="57"/>
     </row>
     <row r="721">
-      <c r="B721" s="56"/>
+      <c r="B721" s="57"/>
     </row>
     <row r="722">
-      <c r="B722" s="56"/>
+      <c r="B722" s="57"/>
     </row>
     <row r="723">
-      <c r="B723" s="56"/>
+      <c r="B723" s="57"/>
     </row>
     <row r="724">
-      <c r="B724" s="56"/>
+      <c r="B724" s="57"/>
     </row>
     <row r="725">
-      <c r="B725" s="56"/>
+      <c r="B725" s="57"/>
     </row>
     <row r="726">
-      <c r="B726" s="56"/>
+      <c r="B726" s="57"/>
     </row>
     <row r="727">
-      <c r="B727" s="56"/>
+      <c r="B727" s="57"/>
     </row>
     <row r="728">
-      <c r="B728" s="56"/>
+      <c r="B728" s="57"/>
     </row>
     <row r="729">
-      <c r="B729" s="56"/>
+      <c r="B729" s="57"/>
     </row>
     <row r="730">
-      <c r="B730" s="56"/>
+      <c r="B730" s="57"/>
     </row>
     <row r="731">
-      <c r="B731" s="56"/>
+      <c r="B731" s="57"/>
     </row>
     <row r="732">
-      <c r="B732" s="56"/>
+      <c r="B732" s="57"/>
     </row>
     <row r="733">
-      <c r="B733" s="56"/>
+      <c r="B733" s="57"/>
     </row>
     <row r="734">
-      <c r="B734" s="56"/>
+      <c r="B734" s="57"/>
     </row>
     <row r="735">
-      <c r="B735" s="56"/>
+      <c r="B735" s="57"/>
     </row>
     <row r="736">
-      <c r="B736" s="56"/>
+      <c r="B736" s="57"/>
     </row>
     <row r="737">
-      <c r="B737" s="56"/>
+      <c r="B737" s="57"/>
     </row>
     <row r="738">
-      <c r="B738" s="56"/>
+      <c r="B738" s="57"/>
     </row>
     <row r="739">
-      <c r="B739" s="56"/>
+      <c r="B739" s="57"/>
     </row>
     <row r="740">
-      <c r="B740" s="56"/>
+      <c r="B740" s="57"/>
     </row>
     <row r="741">
-      <c r="B741" s="56"/>
+      <c r="B741" s="57"/>
     </row>
     <row r="742">
-      <c r="B742" s="56"/>
+      <c r="B742" s="57"/>
     </row>
     <row r="743">
-      <c r="B743" s="56"/>
+      <c r="B743" s="57"/>
     </row>
     <row r="744">
-      <c r="B744" s="56"/>
+      <c r="B744" s="57"/>
     </row>
     <row r="745">
-      <c r="B745" s="56"/>
+      <c r="B745" s="57"/>
     </row>
     <row r="746">
-      <c r="B746" s="56"/>
+      <c r="B746" s="57"/>
     </row>
     <row r="747">
-      <c r="B747" s="56"/>
+      <c r="B747" s="57"/>
     </row>
     <row r="748">
-      <c r="B748" s="56"/>
+      <c r="B748" s="57"/>
     </row>
     <row r="749">
-      <c r="B749" s="56"/>
+      <c r="B749" s="57"/>
     </row>
     <row r="750">
-      <c r="B750" s="56"/>
+      <c r="B750" s="57"/>
     </row>
     <row r="751">
-      <c r="B751" s="56"/>
+      <c r="B751" s="57"/>
     </row>
     <row r="752">
-      <c r="B752" s="56"/>
+      <c r="B752" s="57"/>
     </row>
     <row r="753">
-      <c r="B753" s="56"/>
+      <c r="B753" s="57"/>
     </row>
     <row r="754">
-      <c r="B754" s="56"/>
+      <c r="B754" s="57"/>
     </row>
     <row r="755">
-      <c r="B755" s="56"/>
+      <c r="B755" s="57"/>
     </row>
     <row r="756">
-      <c r="B756" s="56"/>
+      <c r="B756" s="57"/>
     </row>
     <row r="757">
-      <c r="B757" s="56"/>
+      <c r="B757" s="57"/>
     </row>
     <row r="758">
-      <c r="B758" s="56"/>
+      <c r="B758" s="57"/>
     </row>
     <row r="759">
-      <c r="B759" s="56"/>
+      <c r="B759" s="57"/>
     </row>
     <row r="760">
-      <c r="B760" s="56"/>
+      <c r="B760" s="57"/>
     </row>
     <row r="761">
-      <c r="B761" s="56"/>
+      <c r="B761" s="57"/>
     </row>
     <row r="762">
-      <c r="B762" s="56"/>
+      <c r="B762" s="57"/>
     </row>
     <row r="763">
-      <c r="B763" s="56"/>
+      <c r="B763" s="57"/>
     </row>
     <row r="764">
-      <c r="B764" s="56"/>
+      <c r="B764" s="57"/>
     </row>
     <row r="765">
-      <c r="B765" s="56"/>
+      <c r="B765" s="57"/>
     </row>
     <row r="766">
-      <c r="B766" s="56"/>
+      <c r="B766" s="57"/>
     </row>
     <row r="767">
-      <c r="B767" s="56"/>
+      <c r="B767" s="57"/>
     </row>
     <row r="768">
-      <c r="B768" s="56"/>
+      <c r="B768" s="57"/>
     </row>
     <row r="769">
-      <c r="B769" s="56"/>
+      <c r="B769" s="57"/>
     </row>
     <row r="770">
-      <c r="B770" s="56"/>
+      <c r="B770" s="57"/>
     </row>
     <row r="771">
-      <c r="B771" s="56"/>
+      <c r="B771" s="57"/>
     </row>
     <row r="772">
-      <c r="B772" s="56"/>
+      <c r="B772" s="57"/>
     </row>
     <row r="773">
-      <c r="B773" s="56"/>
+      <c r="B773" s="57"/>
     </row>
     <row r="774">
-      <c r="B774" s="56"/>
+      <c r="B774" s="57"/>
     </row>
     <row r="775">
-      <c r="B775" s="56"/>
+      <c r="B775" s="57"/>
     </row>
     <row r="776">
-      <c r="B776" s="56"/>
+      <c r="B776" s="57"/>
     </row>
     <row r="777">
-      <c r="B777" s="56"/>
+      <c r="B777" s="57"/>
     </row>
     <row r="778">
-      <c r="B778" s="56"/>
+      <c r="B778" s="57"/>
     </row>
     <row r="779">
-      <c r="B779" s="56"/>
+      <c r="B779" s="57"/>
     </row>
     <row r="780">
-      <c r="B780" s="56"/>
+      <c r="B780" s="57"/>
     </row>
     <row r="781">
-      <c r="B781" s="56"/>
+      <c r="B781" s="57"/>
     </row>
     <row r="782">
-      <c r="B782" s="56"/>
+      <c r="B782" s="57"/>
     </row>
     <row r="783">
-      <c r="B783" s="56"/>
+      <c r="B783" s="57"/>
     </row>
     <row r="784">
-      <c r="B784" s="56"/>
+      <c r="B784" s="57"/>
     </row>
     <row r="785">
-      <c r="B785" s="56"/>
+      <c r="B785" s="57"/>
     </row>
     <row r="786">
-      <c r="B786" s="56"/>
+      <c r="B786" s="57"/>
     </row>
     <row r="787">
-      <c r="B787" s="56"/>
+      <c r="B787" s="57"/>
     </row>
     <row r="788">
-      <c r="B788" s="56"/>
+      <c r="B788" s="57"/>
     </row>
     <row r="789">
-      <c r="B789" s="56"/>
+      <c r="B789" s="57"/>
     </row>
     <row r="790">
-      <c r="B790" s="56"/>
+      <c r="B790" s="57"/>
     </row>
     <row r="791">
-      <c r="B791" s="56"/>
+      <c r="B791" s="57"/>
     </row>
     <row r="792">
-      <c r="B792" s="56"/>
+      <c r="B792" s="57"/>
     </row>
     <row r="793">
-      <c r="B793" s="56"/>
+      <c r="B793" s="57"/>
     </row>
     <row r="794">
-      <c r="B794" s="56"/>
+      <c r="B794" s="57"/>
     </row>
     <row r="795">
-      <c r="B795" s="56"/>
+      <c r="B795" s="57"/>
     </row>
     <row r="796">
-      <c r="B796" s="56"/>
+      <c r="B796" s="57"/>
     </row>
     <row r="797">
-      <c r="B797" s="56"/>
+      <c r="B797" s="57"/>
     </row>
     <row r="798">
-      <c r="B798" s="56"/>
+      <c r="B798" s="57"/>
     </row>
     <row r="799">
-      <c r="B799" s="56"/>
+      <c r="B799" s="57"/>
     </row>
     <row r="800">
-      <c r="B800" s="56"/>
+      <c r="B800" s="57"/>
     </row>
     <row r="801">
-      <c r="B801" s="56"/>
+      <c r="B801" s="57"/>
     </row>
     <row r="802">
-      <c r="B802" s="56"/>
+      <c r="B802" s="57"/>
     </row>
     <row r="803">
-      <c r="B803" s="56"/>
+      <c r="B803" s="57"/>
     </row>
     <row r="804">
-      <c r="B804" s="56"/>
+      <c r="B804" s="57"/>
     </row>
     <row r="805">
-      <c r="B805" s="56"/>
+      <c r="B805" s="57"/>
     </row>
     <row r="806">
-      <c r="B806" s="56"/>
+      <c r="B806" s="57"/>
     </row>
     <row r="807">
-      <c r="B807" s="56"/>
+      <c r="B807" s="57"/>
     </row>
     <row r="808">
-      <c r="B808" s="56"/>
+      <c r="B808" s="57"/>
     </row>
     <row r="809">
-      <c r="B809" s="56"/>
+      <c r="B809" s="57"/>
     </row>
     <row r="810">
-      <c r="B810" s="56"/>
+      <c r="B810" s="57"/>
     </row>
     <row r="811">
-      <c r="B811" s="56"/>
+      <c r="B811" s="57"/>
     </row>
     <row r="812">
-      <c r="B812" s="56"/>
+      <c r="B812" s="57"/>
     </row>
     <row r="813">
-      <c r="B813" s="56"/>
+      <c r="B813" s="57"/>
     </row>
     <row r="814">
-      <c r="B814" s="56"/>
+      <c r="B814" s="57"/>
     </row>
     <row r="815">
-      <c r="B815" s="56"/>
+      <c r="B815" s="57"/>
     </row>
     <row r="816">
-      <c r="B816" s="56"/>
+      <c r="B816" s="57"/>
     </row>
     <row r="817">
-      <c r="B817" s="56"/>
+      <c r="B817" s="57"/>
     </row>
     <row r="818">
-      <c r="B818" s="56"/>
+      <c r="B818" s="57"/>
     </row>
     <row r="819">
-      <c r="B819" s="56"/>
+      <c r="B819" s="57"/>
     </row>
     <row r="820">
-      <c r="B820" s="56"/>
+      <c r="B820" s="57"/>
     </row>
     <row r="821">
-      <c r="B821" s="56"/>
+      <c r="B821" s="57"/>
     </row>
     <row r="822">
-      <c r="B822" s="56"/>
+      <c r="B822" s="57"/>
     </row>
     <row r="823">
-      <c r="B823" s="56"/>
+      <c r="B823" s="57"/>
     </row>
     <row r="824">
-      <c r="B824" s="56"/>
+      <c r="B824" s="57"/>
     </row>
     <row r="825">
-      <c r="B825" s="56"/>
+      <c r="B825" s="57"/>
     </row>
     <row r="826">
-      <c r="B826" s="56"/>
+      <c r="B826" s="57"/>
     </row>
     <row r="827">
-      <c r="B827" s="56"/>
+      <c r="B827" s="57"/>
     </row>
     <row r="828">
-      <c r="B828" s="56"/>
+      <c r="B828" s="57"/>
     </row>
     <row r="829">
-      <c r="B829" s="56"/>
+      <c r="B829" s="57"/>
     </row>
     <row r="830">
-      <c r="B830" s="56"/>
+      <c r="B830" s="57"/>
     </row>
     <row r="831">
-      <c r="B831" s="56"/>
+      <c r="B831" s="57"/>
     </row>
     <row r="832">
-      <c r="B832" s="56"/>
+      <c r="B832" s="57"/>
     </row>
     <row r="833">
-      <c r="B833" s="56"/>
+      <c r="B833" s="57"/>
     </row>
     <row r="834">
-      <c r="B834" s="56"/>
+      <c r="B834" s="57"/>
     </row>
     <row r="835">
-      <c r="B835" s="56"/>
+      <c r="B835" s="57"/>
     </row>
     <row r="836">
-      <c r="B836" s="56"/>
+      <c r="B836" s="57"/>
     </row>
     <row r="837">
-      <c r="B837" s="56"/>
+      <c r="B837" s="57"/>
     </row>
     <row r="838">
-      <c r="B838" s="56"/>
+      <c r="B838" s="57"/>
     </row>
     <row r="839">
-      <c r="B839" s="56"/>
+      <c r="B839" s="57"/>
     </row>
     <row r="840">
-      <c r="B840" s="56"/>
+      <c r="B840" s="57"/>
     </row>
     <row r="841">
-      <c r="B841" s="56"/>
+      <c r="B841" s="57"/>
     </row>
     <row r="842">
-      <c r="B842" s="56"/>
+      <c r="B842" s="57"/>
     </row>
     <row r="843">
-      <c r="B843" s="56"/>
+      <c r="B843" s="57"/>
     </row>
     <row r="844">
-      <c r="B844" s="56"/>
+      <c r="B844" s="57"/>
     </row>
     <row r="845">
-      <c r="B845" s="56"/>
+      <c r="B845" s="57"/>
     </row>
     <row r="846">
-      <c r="B846" s="56"/>
+      <c r="B846" s="57"/>
     </row>
     <row r="847">
-      <c r="B847" s="56"/>
+      <c r="B847" s="57"/>
     </row>
     <row r="848">
-      <c r="B848" s="56"/>
+      <c r="B848" s="57"/>
     </row>
     <row r="849">
-      <c r="B849" s="56"/>
+      <c r="B849" s="57"/>
     </row>
     <row r="850">
-      <c r="B850" s="56"/>
+      <c r="B850" s="57"/>
     </row>
     <row r="851">
-      <c r="B851" s="56"/>
+      <c r="B851" s="57"/>
     </row>
     <row r="852">
-      <c r="B852" s="56"/>
+      <c r="B852" s="57"/>
     </row>
     <row r="853">
-      <c r="B853" s="56"/>
+      <c r="B853" s="57"/>
     </row>
     <row r="854">
-      <c r="B854" s="56"/>
+      <c r="B854" s="57"/>
     </row>
     <row r="855">
-      <c r="B855" s="56"/>
+      <c r="B855" s="57"/>
     </row>
     <row r="856">
-      <c r="B856" s="56"/>
+      <c r="B856" s="57"/>
     </row>
     <row r="857">
-      <c r="B857" s="56"/>
+      <c r="B857" s="57"/>
     </row>
     <row r="858">
-      <c r="B858" s="56"/>
+      <c r="B858" s="57"/>
     </row>
     <row r="859">
-      <c r="B859" s="56"/>
+      <c r="B859" s="57"/>
     </row>
     <row r="860">
-      <c r="B860" s="56"/>
+      <c r="B860" s="57"/>
     </row>
     <row r="861">
-      <c r="B861" s="56"/>
+      <c r="B861" s="57"/>
     </row>
     <row r="862">
-      <c r="B862" s="56"/>
+      <c r="B862" s="57"/>
     </row>
     <row r="863">
-      <c r="B863" s="56"/>
+      <c r="B863" s="57"/>
     </row>
     <row r="864">
-      <c r="B864" s="56"/>
+      <c r="B864" s="57"/>
     </row>
     <row r="865">
-      <c r="B865" s="56"/>
+      <c r="B865" s="57"/>
     </row>
     <row r="866">
-      <c r="B866" s="56"/>
+      <c r="B866" s="57"/>
     </row>
     <row r="867">
-      <c r="B867" s="56"/>
+      <c r="B867" s="57"/>
     </row>
     <row r="868">
-      <c r="B868" s="56"/>
+      <c r="B868" s="57"/>
     </row>
     <row r="869">
-      <c r="B869" s="56"/>
+      <c r="B869" s="57"/>
     </row>
     <row r="870">
-      <c r="B870" s="56"/>
+      <c r="B870" s="57"/>
     </row>
     <row r="871">
-      <c r="B871" s="56"/>
+      <c r="B871" s="57"/>
     </row>
     <row r="872">
-      <c r="B872" s="56"/>
+      <c r="B872" s="57"/>
     </row>
     <row r="873">
-      <c r="B873" s="56"/>
+      <c r="B873" s="57"/>
     </row>
     <row r="874">
-      <c r="B874" s="56"/>
+      <c r="B874" s="57"/>
     </row>
     <row r="875">
-      <c r="B875" s="56"/>
+      <c r="B875" s="57"/>
     </row>
     <row r="876">
-      <c r="B876" s="56"/>
+      <c r="B876" s="57"/>
     </row>
     <row r="877">
-      <c r="B877" s="56"/>
+      <c r="B877" s="57"/>
     </row>
     <row r="878">
-      <c r="B878" s="56"/>
+      <c r="B878" s="57"/>
     </row>
     <row r="879">
-      <c r="B879" s="56"/>
+      <c r="B879" s="57"/>
     </row>
     <row r="880">
-      <c r="B880" s="56"/>
+      <c r="B880" s="57"/>
     </row>
     <row r="881">
-      <c r="B881" s="56"/>
+      <c r="B881" s="57"/>
     </row>
     <row r="882">
-      <c r="B882" s="56"/>
+      <c r="B882" s="57"/>
     </row>
     <row r="883">
-      <c r="B883" s="56"/>
+      <c r="B883" s="57"/>
     </row>
     <row r="884">
-      <c r="B884" s="56"/>
+      <c r="B884" s="57"/>
     </row>
     <row r="885">
-      <c r="B885" s="56"/>
+      <c r="B885" s="57"/>
     </row>
     <row r="886">
-      <c r="B886" s="56"/>
+      <c r="B886" s="57"/>
     </row>
     <row r="887">
-      <c r="B887" s="56"/>
+      <c r="B887" s="57"/>
     </row>
     <row r="888">
-      <c r="B888" s="56"/>
+      <c r="B888" s="57"/>
     </row>
     <row r="889">
-      <c r="B889" s="56"/>
+      <c r="B889" s="57"/>
     </row>
     <row r="890">
-      <c r="B890" s="56"/>
+      <c r="B890" s="57"/>
     </row>
     <row r="891">
-      <c r="B891" s="56"/>
+      <c r="B891" s="57"/>
     </row>
     <row r="892">
-      <c r="B892" s="56"/>
+      <c r="B892" s="57"/>
     </row>
     <row r="893">
-      <c r="B893" s="56"/>
+      <c r="B893" s="57"/>
     </row>
     <row r="894">
-      <c r="B894" s="56"/>
+      <c r="B894" s="57"/>
     </row>
     <row r="895">
-      <c r="B895" s="56"/>
+      <c r="B895" s="57"/>
     </row>
     <row r="896">
-      <c r="B896" s="56"/>
+      <c r="B896" s="57"/>
     </row>
     <row r="897">
-      <c r="B897" s="56"/>
+      <c r="B897" s="57"/>
     </row>
     <row r="898">
-      <c r="B898" s="56"/>
+      <c r="B898" s="57"/>
     </row>
     <row r="899">
-      <c r="B899" s="56"/>
+      <c r="B899" s="57"/>
     </row>
     <row r="900">
-      <c r="B900" s="56"/>
+      <c r="B900" s="57"/>
     </row>
     <row r="901">
-      <c r="B901" s="56"/>
+      <c r="B901" s="57"/>
     </row>
     <row r="902">
-      <c r="B902" s="56"/>
+      <c r="B902" s="57"/>
     </row>
     <row r="903">
-      <c r="B903" s="56"/>
+      <c r="B903" s="57"/>
     </row>
     <row r="904">
-      <c r="B904" s="56"/>
+      <c r="B904" s="57"/>
     </row>
     <row r="905">
-      <c r="B905" s="56"/>
+      <c r="B905" s="57"/>
     </row>
     <row r="906">
-      <c r="B906" s="56"/>
+      <c r="B906" s="57"/>
     </row>
     <row r="907">
-      <c r="B907" s="56"/>
+      <c r="B907" s="57"/>
     </row>
     <row r="908">
-      <c r="B908" s="56"/>
+      <c r="B908" s="57"/>
     </row>
     <row r="909">
-      <c r="B909" s="56"/>
+      <c r="B909" s="57"/>
     </row>
     <row r="910">
-      <c r="B910" s="56"/>
+      <c r="B910" s="57"/>
     </row>
     <row r="911">
-      <c r="B911" s="56"/>
+      <c r="B911" s="57"/>
     </row>
     <row r="912">
-      <c r="B912" s="56"/>
+      <c r="B912" s="57"/>
     </row>
     <row r="913">
-      <c r="B913" s="56"/>
+      <c r="B913" s="57"/>
     </row>
     <row r="914">
-      <c r="B914" s="56"/>
+      <c r="B914" s="57"/>
     </row>
     <row r="915">
-      <c r="B915" s="56"/>
+      <c r="B915" s="57"/>
     </row>
     <row r="916">
-      <c r="B916" s="56"/>
+      <c r="B916" s="57"/>
     </row>
     <row r="917">
-      <c r="B917" s="56"/>
+      <c r="B917" s="57"/>
     </row>
     <row r="918">
-      <c r="B918" s="56"/>
+      <c r="B918" s="57"/>
     </row>
     <row r="919">
-      <c r="B919" s="56"/>
+      <c r="B919" s="57"/>
     </row>
     <row r="920">
-      <c r="B920" s="56"/>
+      <c r="B920" s="57"/>
     </row>
     <row r="921">
-      <c r="B921" s="56"/>
+      <c r="B921" s="57"/>
     </row>
     <row r="922">
-      <c r="B922" s="56"/>
+      <c r="B922" s="57"/>
     </row>
     <row r="923">
-      <c r="B923" s="56"/>
+      <c r="B923" s="57"/>
     </row>
     <row r="924">
-      <c r="B924" s="56"/>
+      <c r="B924" s="57"/>
     </row>
     <row r="925">
-      <c r="B925" s="56"/>
+      <c r="B925" s="57"/>
     </row>
     <row r="926">
-      <c r="B926" s="56"/>
+      <c r="B926" s="57"/>
     </row>
     <row r="927">
-      <c r="B927" s="56"/>
+      <c r="B927" s="57"/>
     </row>
     <row r="928">
-      <c r="B928" s="56"/>
+      <c r="B928" s="57"/>
     </row>
     <row r="929">
-      <c r="B929" s="56"/>
+      <c r="B929" s="57"/>
     </row>
     <row r="930">
-      <c r="B930" s="56"/>
+      <c r="B930" s="57"/>
     </row>
     <row r="931">
-      <c r="B931" s="56"/>
+      <c r="B931" s="57"/>
     </row>
     <row r="932">
-      <c r="B932" s="56"/>
+      <c r="B932" s="57"/>
     </row>
     <row r="933">
-      <c r="B933" s="56"/>
+      <c r="B933" s="57"/>
     </row>
     <row r="934">
-      <c r="B934" s="56"/>
+      <c r="B934" s="57"/>
     </row>
     <row r="935">
-      <c r="B935" s="56"/>
+      <c r="B935" s="57"/>
     </row>
     <row r="936">
-      <c r="B936" s="56"/>
+      <c r="B936" s="57"/>
     </row>
     <row r="937">
-      <c r="B937" s="56"/>
+      <c r="B937" s="57"/>
     </row>
     <row r="938">
-      <c r="B938" s="56"/>
+      <c r="B938" s="57"/>
     </row>
     <row r="939">
-      <c r="B939" s="56"/>
+      <c r="B939" s="57"/>
     </row>
     <row r="940">
-      <c r="B940" s="56"/>
+      <c r="B940" s="57"/>
     </row>
     <row r="941">
-      <c r="B941" s="56"/>
+      <c r="B941" s="57"/>
     </row>
     <row r="942">
-      <c r="B942" s="56"/>
+      <c r="B942" s="57"/>
     </row>
     <row r="943">
-      <c r="B943" s="56"/>
+      <c r="B943" s="57"/>
     </row>
     <row r="944">
-      <c r="B944" s="56"/>
+      <c r="B944" s="57"/>
     </row>
     <row r="945">
-      <c r="B945" s="56"/>
+      <c r="B945" s="57"/>
     </row>
     <row r="946">
-      <c r="B946" s="56"/>
+      <c r="B946" s="57"/>
     </row>
     <row r="947">
-      <c r="B947" s="56"/>
+      <c r="B947" s="57"/>
     </row>
     <row r="948">
-      <c r="B948" s="56"/>
+      <c r="B948" s="57"/>
     </row>
     <row r="949">
-      <c r="B949" s="56"/>
+      <c r="B949" s="57"/>
     </row>
     <row r="950">
-      <c r="B950" s="56"/>
+      <c r="B950" s="57"/>
     </row>
     <row r="951">
-      <c r="B951" s="56"/>
+      <c r="B951" s="57"/>
     </row>
     <row r="952">
-      <c r="B952" s="56"/>
+      <c r="B952" s="57"/>
     </row>
     <row r="953">
-      <c r="B953" s="56"/>
+      <c r="B953" s="57"/>
     </row>
     <row r="954">
-      <c r="B954" s="56"/>
+      <c r="B954" s="57"/>
     </row>
     <row r="955">
-      <c r="B955" s="56"/>
+      <c r="B955" s="57"/>
     </row>
     <row r="956">
-      <c r="B956" s="56"/>
+      <c r="B956" s="57"/>
     </row>
     <row r="957">
-      <c r="B957" s="56"/>
+      <c r="B957" s="57"/>
     </row>
     <row r="958">
-      <c r="B958" s="56"/>
+      <c r="B958" s="57"/>
     </row>
     <row r="959">
-      <c r="B959" s="56"/>
+      <c r="B959" s="57"/>
     </row>
     <row r="960">
-      <c r="B960" s="56"/>
+      <c r="B960" s="57"/>
     </row>
     <row r="961">
-      <c r="B961" s="56"/>
+      <c r="B961" s="57"/>
     </row>
     <row r="962">
-      <c r="B962" s="56"/>
+      <c r="B962" s="57"/>
     </row>
     <row r="963">
-      <c r="B963" s="56"/>
+      <c r="B963" s="57"/>
     </row>
     <row r="964">
-      <c r="B964" s="56"/>
+      <c r="B964" s="57"/>
     </row>
     <row r="965">
-      <c r="B965" s="56"/>
+      <c r="B965" s="57"/>
     </row>
     <row r="966">
-      <c r="B966" s="56"/>
+      <c r="B966" s="57"/>
     </row>
     <row r="967">
-      <c r="B967" s="56"/>
+      <c r="B967" s="57"/>
     </row>
     <row r="968">
-      <c r="B968" s="56"/>
+      <c r="B968" s="57"/>
     </row>
     <row r="969">
-      <c r="B969" s="56"/>
+      <c r="B969" s="57"/>
     </row>
     <row r="970">
-      <c r="B970" s="56"/>
+      <c r="B970" s="57"/>
     </row>
     <row r="971">
-      <c r="B971" s="56"/>
+      <c r="B971" s="57"/>
     </row>
     <row r="972">
-      <c r="B972" s="56"/>
+      <c r="B972" s="57"/>
     </row>
     <row r="973">
-      <c r="B973" s="56"/>
+      <c r="B973" s="57"/>
     </row>
     <row r="974">
-      <c r="B974" s="56"/>
+      <c r="B974" s="57"/>
     </row>
     <row r="975">
-      <c r="B975" s="56"/>
+      <c r="B975" s="57"/>
     </row>
     <row r="976">
-      <c r="B976" s="56"/>
+      <c r="B976" s="57"/>
     </row>
     <row r="977">
-      <c r="B977" s="56"/>
+      <c r="B977" s="57"/>
     </row>
     <row r="978">
-      <c r="B978" s="56"/>
+      <c r="B978" s="57"/>
     </row>
     <row r="979">
-      <c r="B979" s="56"/>
+      <c r="B979" s="57"/>
     </row>
     <row r="980">
-      <c r="B980" s="56"/>
+      <c r="B980" s="57"/>
     </row>
     <row r="981">
-      <c r="B981" s="56"/>
+      <c r="B981" s="57"/>
     </row>
     <row r="982">
-      <c r="B982" s="56"/>
+      <c r="B982" s="57"/>
     </row>
     <row r="983">
-      <c r="B983" s="56"/>
+      <c r="B983" s="57"/>
     </row>
     <row r="984">
-      <c r="B984" s="56"/>
+      <c r="B984" s="57"/>
     </row>
     <row r="985">
-      <c r="B985" s="56"/>
+      <c r="B985" s="57"/>
     </row>
     <row r="986">
-      <c r="B986" s="56"/>
+      <c r="B986" s="57"/>
     </row>
     <row r="987">
-      <c r="B987" s="56"/>
+      <c r="B987" s="57"/>
     </row>
     <row r="988">
-      <c r="B988" s="56"/>
+      <c r="B988" s="57"/>
     </row>
     <row r="989">
-      <c r="B989" s="56"/>
+      <c r="B989" s="57"/>
     </row>
     <row r="990">
-      <c r="B990" s="56"/>
+      <c r="B990" s="57"/>
     </row>
     <row r="991">
-      <c r="B991" s="56"/>
+      <c r="B991" s="57"/>
     </row>
     <row r="992">
-      <c r="B992" s="56"/>
+      <c r="B992" s="57"/>
     </row>
     <row r="993">
-      <c r="B993" s="56"/>
+      <c r="B993" s="57"/>
     </row>
     <row r="994">
-      <c r="B994" s="56"/>
+      <c r="B994" s="57"/>
     </row>
     <row r="995">
-      <c r="B995" s="56"/>
+      <c r="B995" s="57"/>
     </row>
     <row r="996">
-      <c r="B996" s="56"/>
+      <c r="B996" s="57"/>
     </row>
     <row r="997">
-      <c r="B997" s="56"/>
+      <c r="B997" s="57"/>
     </row>
     <row r="998">
-      <c r="B998" s="56"/>
+      <c r="B998" s="57"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -37735,9 +37742,6 @@
       <c r="C11" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>336</v>
-      </c>
       <c r="E11" s="19"/>
     </row>
     <row r="12">
@@ -43584,6 +43588,7 @@
       <c r="E979" s="20"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$E$18"/>
   <conditionalFormatting sqref="B2 B4 B19:B979">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B2))&gt;0</formula>
@@ -55790,7 +55795,7 @@
         <v>402</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="19"/>

--- a/Texte/Textbausteine_LENA_September2024.xlsx
+++ b/Texte/Textbausteine_LENA_September2024.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="488">
   <si>
     <t>Kanton</t>
   </si>
@@ -559,7 +559,7 @@
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben sich für die Pensionskassenreform ausgesprochen.</t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants disent oui à  #JaStimmenInProzent pour cent à la réforme de la LPP.</t>
+    <t>A #Gemeinde_f, les habitants disent oui à  #JaStimmenInProzent pour cent à la réforme du 2e pilier.</t>
   </si>
   <si>
     <t>Nel comune di #Gemeinde_i, i cittadini hanno accolto la riforma LPP con il #JaStimmenInProzent per cento di voti favorevoli.</t>
@@ -568,7 +568,7 @@
     <t>Die Pensionskassenreform ist in #Gemeinde_d mit #JaStimmenInProzent Prozent der Stimmen angenommen worden.</t>
   </si>
   <si>
-    <t>La réforme de la LPP est approuvée à #Gemeinde_f par #JaStimmenInProzent pour cent des votants.</t>
+    <t>La réforme du 2e pilier est approuvée à #Gemeinde_f par #JaStimmenInProzent pour cent des votants.</t>
   </si>
   <si>
     <t>A #Gemeinde_i gli abitanti hanno accolto la riforma LPP con il #JaStimmenInProzent per cento di "sì".</t>
@@ -616,7 +616,7 @@
     <t>Ja zur Pensionskassenreform in #Gemeinde_d. Mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen ist Vorlage angenommen worden.</t>
   </si>
   <si>
-    <t>Les électeurs de la petite commune de #Gemeinde_f ont accordé leur confiance à la réforme de la LPP. Ils ont dit oui au texte par #JaStimmenAbsolut voix, contre #NeinStimmenAbsolut.</t>
+    <t>Les électeurs de la petite commune de #Gemeinde_f ont accordé leur confiance à la réforme du 2e pilier. Ils ont dit oui au texte par #JaStimmenAbsolut voix, contre #NeinStimmenAbsolut.</t>
   </si>
   <si>
     <t>la riforma LPP è stata accolta dagli elettori di #Gemeinde_i, dove i voti a favore sono stati #JaStimmenAbsolut e quelli contrari #NeinStimmenAbsolut.</t>
@@ -664,7 +664,7 @@
     <t>In #Gemeinde_d ist die Pensionskassenreform mit #NeinStimmenInProzent Prozent gescheitert.</t>
   </si>
   <si>
-    <t>La réforme de la LPP n'a pas convaincu à #Gemeinde_f. Les citoyens de la commune ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
+    <t>La réforme du 2e pilier n'a pas convaincu à #Gemeinde_f. Les citoyens de la commune ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>Il #NeinStimmenInProzent per cento degli elettori di #Gemeinde_i ha respinto la riforma LPP.</t>
@@ -691,7 +691,7 @@
     <t>#Gemeinde_d hat die Pensionskassenreform mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen verworfen.</t>
   </si>
   <si>
-    <t>Les habitants de la petite commune de #Gemeinde_f ont refusé la réforme de la LPP. Ils ont dit non à cet objet par #NeinStimmenAbsolut voix contre #JaStimmenAbsolut.</t>
+    <t>Les habitants de la petite commune de #Gemeinde_f ont refusé la réforme du 2e pilier. Ils ont dit non à cet objet par #NeinStimmenAbsolut voix contre #JaStimmenAbsolut.</t>
   </si>
   <si>
     <t>la riforma LPP non ha passato la prova delle urne a #Gemeinde_i, dove è stata respinta con #NeinStimmenAbsolut voti contro i #JaStimmenAbsolut a favore.</t>
@@ -745,7 +745,7 @@
     <t>Mit einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent hat #Gemeinde_d bei dieser Vorlage schweizweit den höchsten Ja-Anteil erreicht.</t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse, la réforme de la LPP est approuvée plus clairement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
+    <t>Nulle part ailleurs en Suisse, la réforme du 2e pilier est approuvée plus clairement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>In nessun altro comune svizzero la riforma LPP è stata accolta come a #Gemeinde_i, dove l'elettorato l'ha votata con il #JaStimmenInProzent per cento di voti a favore.</t>
@@ -793,7 +793,7 @@
     <t>#Gemeinde_d hat schweizweit den zweithöchsten Nein-Anteil bei dieser Abstimmung: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se classe au deuxième rang des plus forts refus de la réforme de la LPP. Elle dit non à #NeinStimmenInProzent pour cent.</t>
+    <t>#Gemeinde_f se classe au deuxième rang des plus forts refus de la réforme de la LPP. La commune dit non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>#Gemeinde_i si è posizionato secondo nella graduatoria dei comuni in cui la riforma LPP è stata respinta maggiormente. È stata bocciata con il #NeinStimmenInProzent per cento di "no".</t>
@@ -882,7 +882,7 @@
     <t>Damit ist in #Gemeinde_d die Ablehnung im Vergleich zur letzten Abstimmung über die berufliche Vorsorge im Jahr 2010 gestiegen. Damals betrug der Nein-Stimmen-Anteil #HistNeinStimmenInProzent Prozent.</t>
   </si>
   <si>
-    <t>Le refus de la réforme de la LPP est plus fort que celui d'une précédente réforme en 2010. La proportion de "non" à #Gemeinde_f à une adaptation du taux de conversion était alors de #HistNeinStimmenInProzent pour cent.</t>
+    <t>Le refus de la réforme de la LPP est plus fort que celui de la précédente réforme en 2010. La proportion de "non" à #Gemeinde_f à une adaptation du taux de conversion était alors de #HistNeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t>Il rifiuto della riforma LPP a #Gemeinde_i si è mostrato più forte rispetto a quanto verificatosi nella votazione del 2010, quando a votare "no" a un adeguamento del asso di conversione era stato il #HistNeinStimmenInProzent per cento dei cittadini.</t>
@@ -894,7 +894,7 @@
     <t>HistoricPhrase_Nein_Nein_NeinAnteilGesunken</t>
   </si>
   <si>
-    <t>Damit hat die Ablehung in #Gemeinde_d im Vergleich zur letzten Abstimmung über die berufliche Vorsorge im Jahr 2010 weiter abgenommen. Damals betrug der Nein-Stimmen-Anteil noch #HistNeinStimmenInProzent Prozent.</t>
+    <t>Damit hat die Ablehung in #Gemeinde_d im Vergleich zur letzten Abstimmung über die berufliche Vorsorge im Jahr 2010 abgenommen. Damals betrug der Nein-Stimmen-Anteil noch #HistNeinStimmenInProzent Prozent.</t>
   </si>
   <si>
     <t>Le rejet de la loi est toutefois moins fort que celui de la précédente réforme en 2010. Les habitants de #Gemeinde_f avaient alors dit non à #HistNeinStimmenInProzent pour cent à une adaptation du taux de conversion.</t>
@@ -928,7 +928,7 @@
     <t>Erstaunlicherweise ist damit der Nein-Stimmen-Anteil in #Gemeinde_d im Vergleich zur letzten Abstimmung über die berufliche Vorsorge genau gleich geblieben.</t>
   </si>
   <si>
-    <t>Avec ce score, le résultat des urnes reste à #Gemeinde_f identique à celui de 2010, lorsque les citoyens avaient dû se prononcer sur une adaptation du taux de conversion.</t>
+    <t>Avec ce score, le résultat des urnes à #Gemeinde_f reste identique à celui de 2010, lorsque les citoyens avaient dû se prononcer sur une adaptation du taux de conversion.</t>
   </si>
   <si>
     <t xml:space="preserve">Con questo punteggio, il risultato delle urne a #Gemeinde_i rimane identico a quello del 2010, quando gli abitanti avevano dovuto esprimersi su un adeguamento dell'aliquota minima di conversione.
@@ -944,7 +944,7 @@
     <t>Damit hat in #Gemeinde_d seit der letzten Abstimmung über die berufliche Vorsorge im Jahr 2010 ein Meinungsumschwung stattgefunden: Damals hatte noch eine Mehrheit von #HistNeinStimmenInProzent Prozent ein Nein in die Urne gelegt.</t>
   </si>
   <si>
-    <t>Avec ce résultat, #Gemeinde_f bascule dans le camp du oui. La commune avait rejeté une précédente réforme de la LPP en 2010 avec #HistNeinStimmenInProzent pour cent des voix.</t>
+    <t>Avec ce résultat, #Gemeinde_f bascule dans le camp du oui. En 2010, la commune avait rejeté une précédente réforme de la LPP avec #HistNeinStimmenInProzent pour cent des voix.</t>
   </si>
   <si>
     <t xml:space="preserve">Con questo risultato, #Gemeinde_i si colloca nello schieramento dei fautori della LPP. Nel 2010 il comune aveva respinto la riforma LPP con il #HistNeinStimmenInProzent per cento dei voti contrari.
@@ -975,7 +975,7 @@
     <t xml:space="preserve">Wegen der Veränderung der Gemeindestruktur ist ein Vergleich mit der Abstimmung vor 7. Juni 2010 über die berufliche Vorsorge in #Gemeinde_d nicht möglich. </t>
   </si>
   <si>
-    <t>Il n'est pas possible de comparer les résultats de cette votation à ceux du 7 juin 2010 sur l'adaption du taux de conversion en raison de changements dans la structure de la commune de #Gemeinde_f.</t>
+    <t>Il n'est pas possible de comparer les résultats de cette votation à ceux du 7 juin 2010 sur l'adaptation du taux de conversion en raison de changements dans la structure de la commune de #Gemeinde_f.</t>
   </si>
   <si>
     <t xml:space="preserve">Non è possibile confrontare i risultati di questa votazione con quelli del 7 giugno 2010 sull'adeguamento dell'aliquota minima di conversione a causa di cambiamenti nella struttura del comune di #Gemeinde_i.
@@ -985,40 +985,40 @@
     <t>Vergleich nicht möglich</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix le maintien de la durée de la formation des enseignants. Ces derniers seront toujours formés durant quatre années.</t>
+    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix le maintien de la durée de la formation des enseignants. Ces derniers seront toujours formés durant quatre ans.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui le maintien de la durée de la formation des enseignants de l'école primaire. Ces derniers seront toujours formés durant quatre années.</t>
+    <t>Les habitants de #Gemeinde_f acceptent par #JaStimmenInProzent pour cent des voix le maintien de la durée de la formation des enseignants de l'école primaire. Ces derniers seront toujours formés durant quatre ans.</t>
   </si>
   <si>
-    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f en faveur de le maintien de la durée de la formation des enseignants de l'école primaire. Les enseignants seront toujours formés dans quatre années.</t>
+    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f au maintien de la durée de la formation des enseignants de l'école primaire. Les enseignants seront toujours formés en quatre ans.</t>
   </si>
   <si>
     <t>Le maintien de la durée de la formation des enseignants de l'école primaire passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à une formation qui s'étale sur quatre années.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix le maintien de la durée de la formation des enseignants de l'école primaire. Les enseignants seront toujours formés dans quatre années.</t>
+    <t>Les habitants de #Gemeinde_f ont refusé par #NeinStimmenInProzent pour cent des voix de changer la durée de la formation des enseignants de l'école primaire. Les enseignants seront toujours formés en quatre ans.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f refusent avec #NeinStimmenInProzent pour cent de non le maintien de la durée de la formation des enseignants de l'école primaire. Les enseignants seront toujours formés dans quatre années.</t>
+    <t>Les habitants de #Gemeinde_f refusent à #NeinStimmenInProzent pour cent de changer la durée de la formation des enseignants de l'école primaire. Les enseignants seront toujours formés en quatre ans.</t>
   </si>
   <si>
-    <t>C'est non à #NeinStimmenInProzent pour cent à la modification de la loi sur la formation des enseignants à #Gemeinde_f. Les enseignants seront toujours formés dans quatre années.</t>
+    <t>C'est non à #NeinStimmenInProzent pour cent à la modification de la loi sur la formation des enseignants à #Gemeinde_f. Les enseignants seront toujours formés en quatre ans.</t>
   </si>
   <si>
-    <t>La modification de la loi sur la formation des enseignants ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non et maintiennent la durée de formation à quatre années.</t>
+    <t>La modification de la loi sur la formation des enseignants ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non et maintiennent la durée de formation à quatre ans.</t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter le maintien de la durée de la formation des enseignants de l'école primaire et #NeinStimmenAbsolut à le refuser. Les enseignants seront toujours formés dans quatre années.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter le maintien de la durée de la formation des enseignants de l'école primaire et #NeinStimmenAbsolut à le refuser. Les enseignants seront toujours formés en quatre ans.</t>
   </si>
   <si>
-    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont déplacés dimanche ont tous accepté le maintien de la durée de la formation des enseignants de l'école primaire. Les enseignants seront toujours formés dans quatre années.</t>
+    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont déplacés dimanche ont tous accepté le maintien de la durée de la formation des enseignants de l'école primaire. Les enseignants seront toujours formés en quatre ans.</t>
   </si>
   <si>
-    <t>Le maintien de la durée de la formation des enseignants de l'école primaire a été balayé à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé. Les enseignants seront toujours formés dans quatre années.</t>
+    <t>#Gemeinde_f a balayé la réforme de la durée de la formation des enseignants de l'école primaire. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé le projet. Les enseignants seront toujours formés en quatre ans.</t>
   </si>
   <si>
-    <t>C'est à #Gemeinde_f que le texte a été la plus fortement approuvé.</t>
+    <t>C'est à #Gemeinde_f que le texte a été le plus fortement approuvé.</t>
   </si>
   <si>
     <t>Le rejet le plus net du texte a été enregistré à #Gemeinde_f.</t>
@@ -1045,7 +1045,7 @@
     <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui une baisse de l'imposition des entrepreneurs. Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
   </si>
   <si>
-    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f en faveur de une baisse de l'imposition des entrepreneurs. Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
+    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f à une baisse de l'imposition des entrepreneurs. Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
   </si>
   <si>
     <t>Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton a, elle aussi</t>
@@ -1054,10 +1054,10 @@
     <t>Une baisse de l'imposition des entrepreneurs passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à cette diminution concernant les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix une baisse de l'imposition des entrepreneurs. Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
+    <t>Les habitants de #Gemeinde_f ont refusé par #NeinStimmenInProzent pour cent des voix une baisse de l'imposition des entrepreneurs. Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f refusent avec #NeinStimmenInProzent pour cent de non une baisse de l'imposition des entrepreneurs. Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
+    <t>Les habitants de #Gemeinde_f refusent par #NeinStimmenInProzent pour cent des voix une baisse de l'imposition des entrepreneurs. Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
   </si>
   <si>
     <t>C'est non à #NeinStimmenInProzent pour cent à une baisse de l'imposition des entrepreneurs à #Gemeinde_f. Cette diminution concerne les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
@@ -1075,7 +1075,7 @@
     <t>La baisse de l'imposition des entrepreneurs a été balayé à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé cette diminution concernant les patrons qui détiennent au moins 10% de leur entreprise, qui travaillent et résident dans le canton.</t>
   </si>
   <si>
-    <t>C'est à #Gemeinde_f que la loi a été la plus fortement approuvée.</t>
+    <t>C'est à #Gemeinde_f que la loi a été le plus fortement approuvée.</t>
   </si>
   <si>
     <t>Le rejet le plus net de la loi a été enregistré à #Gemeinde_f.</t>
@@ -1084,10 +1084,10 @@
     <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
+    <t>Les habitants de #Gemeinde_f acceptent par #JaStimmenInProzent pour cent des voix la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
   </si>
   <si>
-    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f en faveur de la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
+    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f à la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
   </si>
   <si>
     <t>La loi sur les prestations complémentaires pour les familles passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à cette mesure de lutte contre la précarité, qui concerne 1500 familles.</t>
@@ -1096,7 +1096,7 @@
     <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f refusent avec #NeinStimmenInProzent pour cent de non la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
+    <t>Les habitants de #Gemeinde_f refusent à #NeinStimmenInProzent pour cent la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
   </si>
   <si>
     <t>C'est non à #NeinStimmenInProzent pour cent à la loi sur les prestations complémentaires à #Gemeinde_f. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
@@ -1108,7 +1108,7 @@
     <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter la loi sur les prestations complémentaires pour les familles et #NeinStimmenAbsolut à le refuser. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
   </si>
   <si>
-    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont déplacés dimanche ont tous accepté la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
+    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont rendus aux urnes dimanche ont tous accepté la loi sur les prestations complémentaires pour les familles. Cette mesure de lutte contre la précarité concerne 1500 familles.</t>
   </si>
   <si>
     <t>La loi sur les prestations complémentaires pour les familles a été balayé à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé cette mesure qui concerne 1500 familles.</t>
@@ -1123,14 +1123,13 @@
     <t xml:space="preserve">Mit #JaStimmenInProzent Prozent Ja hat sich #Gemeinde_d für das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura ausgesprochen. </t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui le Concordat réglant le transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
+    <t>Les habitants de #Gemeinde_f acceptent à #JaStimmenInProzent pour cent le Concordat réglant le transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
   </si>
   <si>
-    <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben dem Konkordat über den Wechsel der Gemeinde
-Moutier zum Kanton Jura zugestimmt.</t>
+    <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben dem Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura zugestimmt.</t>
   </si>
   <si>
-    <t>C'est oui à #JaStimmenInProzent pour cent au concordat de 65,5 millions de francs en faveur du Musée d'histoire naturelle à Fribourg à #Gemeinde_f. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
+    <t>C'est oui à #JaStimmenInProzent pour cent  à #Gemeinde_f au concordat réglant le transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
   </si>
   <si>
     <t>Das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura ist in #Gemeinde_d angenommen worden: #JaStimmenAbsolut Stimmberechtigte stimmten dafür, #NeinStimmenAbsolut lehnten sie ab.</t>
@@ -1148,7 +1147,7 @@
     <t>Nein zum Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura in #Gemeinde_d: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f refusent avec #NeinStimmenInProzent pour cent de non le Concordat réglant le transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
+    <t>Les habitants de #Gemeinde_f refusent par #NeinStimmenInProzent pour cent des voix le Concordat réglant le transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
   </si>
   <si>
     <t>Keine Mehrheit für das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura in #Gemeinde_d. #NeinStimmenInProzent Prozent haben sie verworfen.</t>
@@ -1160,7 +1159,7 @@
     <t>Das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura ist in #Gemeinde_d mit #NeinStimmenAbsolut zu #JaStimmenAbsolut Stimmen abgelehnt worden.</t>
   </si>
   <si>
-    <t>Le concordat réglant le transfort de Moutier ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à ce texte, qui exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
+    <t>Le concordat réglant le transfert de Moutier ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à ce texte, qui exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
   </si>
   <si>
     <t>Unentschieden in #Gemeinde_d bei der Abstimmung über das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura: Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner genau die Waage.</t>
@@ -1172,19 +1171,19 @@
     <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura zugestimmt.</t>
   </si>
   <si>
-    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont déplacés dimanche ont tous accepté le Concordat réglant le transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
+    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont déplacés aux urnes dimanche ont tous accepté le Concordat réglant le transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
   </si>
   <si>
     <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura abgelehnt.</t>
   </si>
   <si>
-    <t>Le concordat réglant le transfert de Moutier a été balayé à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé ce concordat, qui doit permettre le déménagement du musée et l'élaboration d'une nouvelle exposition permanente.</t>
+    <t>Le concordat réglant le transfert de Moutier a été balayé à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé ce concordat, qui exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Ja-Anteil im Kanton.</t>
   </si>
   <si>
-    <t>C'est à #Gemeinde_f que le concordat a été la plus fortement approuvé.</t>
+    <t>C'est à #Gemeinde_f que le concordat a été le plus fortement approuvé.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Nein-Anteil im Kanton.</t>
@@ -1211,13 +1210,22 @@
     <t xml:space="preserve">Mit #JaStimmenInProzent Prozent Ja hat sich #Gemeinde_d für das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura und die Aufhebung von Artikel 139 der Verfassung ausgesprochen. </t>
   </si>
   <si>
+    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui le Concordat réglant le transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
+  </si>
+  <si>
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben dem Konkordat zwischen den Kantonen Bern und Jura über den Kantonswechsel von Moutier und der Aufhebung von Artikel 139 der Verfassung zugestimmt.</t>
+  </si>
+  <si>
+    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f au transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
   </si>
   <si>
     <t>Das Konkordat zwischen den Kantonen Bern und Jura über den Kantonswechsel von Moutier und die Aufhebung von Artikel 139 der Verfassung ist in #Gemeinde_d angenommen worden: #JaStimmenAbsolut Stimmberechtigte stimmten dafür, #NeinStimmenAbsolut lehnten es ab.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura und die Aufhebung von Artikel 139 der Verfassung mit #NeinStimmenInProzent Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f ont refusé à #NeinStimmenInProzent pour cent le Concordat réglant le transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
   </si>
   <si>
     <t>Text</t>
@@ -1236,6 +1244,9 @@
   </si>
   <si>
     <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura und die Aufhebung von Artikel 139 der Verfassung zugestimmt.</t>
+  </si>
+  <si>
+    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont déplacés dimanche ont tous accepté le Concordat réglant le transfert de Moutier dans le canton du Jura. Ce texte exige que les deux cantons s'engagent à respecter leurs frontières dans l'esprit de la paix confédérale, mettant donc un terme à tout différend territorial.</t>
   </si>
   <si>
     <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden das Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura und die Aufhebung von Artikel 139 der Verfassung abgelehnt.</t>
@@ -1304,46 +1315,46 @@
     <t>Intro_HauptvorlageJa_GegenvorschlagJa_StichentscheidHauptvorlage</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat die Transparenz-Initiative mit #JaStimmenHauptvorlageInProzent Prozent und den Gegenvorschlag des Kantons- und Regierungsrats mit #JaStimmenGegenvorschlagInProzent Prozent angenommen.Bei der Stichfrage haben sich die Stimmberechtigten mit #StichentscheidZustimmungHauptvorlageInProzent Prozent für die Initiative ausgesprochen.</t>
+    <t>#Gemeinde_d hat die Transparenz-Initiative mit #JaStimmenHauptvorlageInProzent Prozent und den Gegenvorschlag von Kantons- und Regierungsrats mit #JaStimmenGegenvorschlagInProzent Prozent angenommen.Bei der Stichfrage haben sich die Stimmberechtigten mit #StichentscheidZustimmungHauptvorlageInProzent Prozent für die Initiative ausgesprochen.</t>
   </si>
   <si>
     <t>Hauptvorlage und Gegenvorschlag angenommen, Stichentscheid für Hauptvorlage</t>
   </si>
   <si>
-    <t>Die Verfassungsinitiative für die Offenlegung der Politikfinanzierung ist in #Gemeinde_d mit #JaStimmenHauptvorlageInProzent Prozent der Stimmen angenommen worden. Aber auch der Gegenvorschlag des Kantons- und Regierungsrats überzeugte einen Mehrheit von #JaStimmenGegenvorschlagInProzent Prozent. Bei der Stichfrage haben sich die Stimmberechtigten mit #StichentscheidZustimmungHauptvorlageInProzent Prozent für die Initiative ausgesprochen.</t>
+    <t>Die Verfassungsinitiative für die Offenlegung der Politikfinanzierung ist in #Gemeinde_d mit #JaStimmenHauptvorlageInProzent Prozent der Stimmen angenommen worden. Aber auch der Gegenvorschlag von Kantons- und Regierungsrat überzeugte einen Mehrheit von #JaStimmenGegenvorschlagInProzent Prozent. Bei der Stichfrage haben sich die Stimmberechtigten mit #StichentscheidZustimmungHauptvorlageInProzent Prozent für die Initiative ausgesprochen.</t>
   </si>
   <si>
-    <t>#JaStimmenHauptvorlageInProzent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben sich für die Transparenz-Initiative und #JaStimmenGegenvorschlagInProzent Prozent für den Gegenvorschlag Kantons- und Regierungsrats ausgesprochen. Bei der Stichfrage gaben #StichentscheidZustimmungHauptvorlageInProzent Prozent der Initiative den Vorrang.</t>
+    <t>#JaStimmenHauptvorlageInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben sich für die Transparenz-Initiative und #JaStimmenGegenvorschlagInProzent Prozent für den Gegenvorschlag von Kantons- und Regierungsrat ausgesprochen. Bei der Stichfrage gaben #StichentscheidZustimmungHauptvorlageInProzent Prozent der Initiative den Vorrang.</t>
   </si>
   <si>
     <t>Intro_HauptvorlageJa_GegenvorschlagJa_StichentscheidGegenvorschlag</t>
   </si>
   <si>
-    <t>Die Gemeinde #Gemeinde_d hat die Transparenz-Initiative mit #JaStimmenHauptvorlageInProzent Prozent und den Gegenvorschlag des Kantons- und Regierungsrats mit #JaStimmenGegenvorschlagInProzent Prozent angenommen. Bei der Stichfrage sprachen sich die Stimmberechtigten mit #StichentscheidZustimmungGegenvorschlagInProzent Prozent für den Gegenvorschlag aus.</t>
+    <t>Die Gemeinde #Gemeinde_d hat die Transparenz-Initiative mit #JaStimmenHauptvorlageInProzent Prozent und den Gegenvorschlag von Kantons- und Regierungsrat mit #JaStimmenGegenvorschlagInProzent Prozent angenommen. Bei der Stichfrage sprachen sich die Stimmberechtigten mit #StichentscheidZustimmungGegenvorschlagInProzent Prozent für den Gegenvorschlag aus.</t>
   </si>
   <si>
     <t>Hauptvorlage und Gegenvorschlag angenommen, Stichentscheid für Gegenvorschlag</t>
   </si>
   <si>
-    <t>Die Verfassungsinitiative für die Offenlegung der Politikfinanzierung ist in #Gemeinde_d mit #JaStimmenHauptvorlageInProzent Prozent der Stimmen angenommen worden. Aber auch der Gegenvorschlag des Kantons- und Regierungsrats überzeugte einen Mehrheit von #JaStimmenGegenvorschlagInProzent Prozent. Bei der Stichfrage bevorzugten #StichentscheidZustimmungGegenvorschlagInProzent Prozent den Gegenvorschlag.</t>
+    <t>Die Verfassungsinitiative für die Offenlegung der Politikfinanzierung ist in #Gemeinde_d mit #JaStimmenHauptvorlageInProzent Prozent der Stimmen angenommen worden. Aber auch der Gegenvorschlag von Kantons- und Regierungsrat überzeugte einen Mehrheit von #JaStimmenGegenvorschlagInProzent Prozent. Bei der Stichfrage bevorzugten #StichentscheidZustimmungGegenvorschlagInProzent Prozent den Gegenvorschlag.</t>
   </si>
   <si>
-    <t>#JaStimmenHauptvorlageInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben sich für die Transparenz-Initiative und #JaStimmenGegenvorschlagInProzent Prozent für den Gegenvorschlag des Kantons- und Regierungsrats ausgesprochen. Bei der Stichfrage gaben #StichentscheidZustimmungGegenvorschlagInProzent Prozent dem Gegenvorschlag den Vorrang.</t>
+    <t>#JaStimmenHauptvorlageInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben sich für die Transparenz-Initiative und #JaStimmenGegenvorschlagInProzent Prozent für den Gegenvorschlag von Kantons- und Regierungsrat ausgesprochen. Bei der Stichfrage gaben #StichentscheidZustimmungGegenvorschlagInProzent Prozent dem Gegenvorschlag den Vorrang.</t>
   </si>
   <si>
     <t>Intro_HauptvorlageJa_GegenvorschlagNein</t>
   </si>
   <si>
-    <t>Die Verfassungsinitiative für die Offenlegung der Politikfinanzierung ist in #Gemeinde_d mit #JaStimmenHauptvorlageInProzent Prozent der Stimmen angenommen worden. Der Gegenvorschlag des Kantons- und Regierungsrats hingegen wurde mit #NeinStimmenGegenvorschlagInProzent Prozent abgelehnt.</t>
+    <t>Die Verfassungsinitiative für die Offenlegung der Politikfinanzierung ist in #Gemeinde_d mit #JaStimmenHauptvorlageInProzent Prozent der Stimmen angenommen worden. Der Gegenvorschlag von Kantons- und Regierungsrat hingegen wurde mit #NeinStimmenGegenvorschlagInProzent Prozent abgelehnt.</t>
   </si>
   <si>
     <t>Hauptvorlage angenommen, Gegenvorschlag abgelehnt</t>
   </si>
   <si>
-    <t>Die Gemeinde #Gemeinde_d hat die Transparenz-Initiative mit #JaStimmenHauptvorlageInProzent Prozent angenommen. Der Gegenvorschlag des Kantons- und Regierungsrates hingegen wurde mit #NeinStimmenGegenvorschlagInProzent Prozent abgelehnt.</t>
+    <t>Die Gemeinde #Gemeinde_d hat die Transparenz-Initiative mit #JaStimmenHauptvorlageInProzent Prozent angenommen. Der Gegenvorschlag von Kantons- und Regierungsrat hingegen wurde mit #NeinStimmenGegenvorschlagInProzent Prozent abgelehnt.</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat mit #JaStimmenHauptvorlageInProzent Prozent Ja gesagt zur Transparenz-Initiative. Den Gegenvorschlag des Kantons- und Regierungsrates lehnte eine Mehrheit von #NeinStimmenGegenvorschlagInProzent Prozent ab.</t>
+    <t>#Gemeinde_d hat mit #JaStimmenHauptvorlageInProzent Prozent Ja gesagt zur Transparenz-Initiative. Den Gegenvorschlag von Kantons- und Regierungsrat lehnte eine Mehrheit von #NeinStimmenGegenvorschlagInProzent Prozent ab.</t>
   </si>
   <si>
     <t>Intro_HauptvorlageNein_GegenvorschlagJa</t>
@@ -2468,23 +2479,23 @@
     </row>
     <row r="2">
       <c r="A2" s="46" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="46" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -2492,10 +2503,10 @@
     </row>
     <row r="4">
       <c r="A4" s="46" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -2503,23 +2514,23 @@
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -2527,10 +2538,10 @@
     </row>
     <row r="7">
       <c r="A7" s="46" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -2538,23 +2549,23 @@
     </row>
     <row r="8">
       <c r="A8" s="51" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="51" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -2562,10 +2573,10 @@
     </row>
     <row r="10">
       <c r="A10" s="51" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -2573,23 +2584,23 @@
     </row>
     <row r="11">
       <c r="A11" s="52" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="52" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -2597,10 +2608,10 @@
     </row>
     <row r="13">
       <c r="A13" s="52" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -2608,23 +2619,23 @@
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -2632,10 +2643,10 @@
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -2661,47 +2672,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="53" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B6" s="55">
         <v>60.4</v>
@@ -2709,7 +2720,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B7" s="55">
         <v>39.6</v>
@@ -2717,23 +2728,23 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B10" s="55">
         <v>60.4</v>
@@ -2741,7 +2752,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B11" s="55">
         <v>39.6</v>
@@ -2749,26 +2760,26 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B13" s="55" t="s">
         <v>467</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15">
@@ -2776,13 +2787,13 @@
     </row>
     <row r="16">
       <c r="A16" s="57" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B16" s="56"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B17" s="55">
         <v>60.4</v>
@@ -2790,7 +2801,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B18" s="55">
         <v>39.6</v>
@@ -2798,23 +2809,23 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B21" s="55">
         <v>60.4</v>
@@ -2822,7 +2833,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B22" s="55">
         <v>39.6</v>
@@ -2830,23 +2841,23 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="29" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B25" s="58">
         <v>60.4</v>
@@ -2854,7 +2865,7 @@
     </row>
     <row r="26">
       <c r="A26" s="29" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B26" s="58">
         <v>39.6</v>
@@ -2865,19 +2876,19 @@
     </row>
     <row r="28">
       <c r="A28" s="57" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B28" s="56"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B29" s="56"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B30" s="56"/>
     </row>
@@ -42729,7 +42740,7 @@
         <v>392</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
@@ -42739,10 +42750,10 @@
         <v>52</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -42752,7 +42763,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>368</v>
@@ -42765,13 +42776,13 @@
         <v>81</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E6" s="19"/>
     </row>
@@ -42780,7 +42791,7 @@
         <v>81</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>372</v>
@@ -42792,7 +42803,7 @@
         <v>81</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>374</v>
@@ -42804,7 +42815,7 @@
         <v>103</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>376</v>
@@ -42817,7 +42828,7 @@
         <v>110</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>378</v>
@@ -42830,10 +42841,10 @@
         <v>114</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="19"/>
@@ -42843,10 +42854,10 @@
         <v>118</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="19"/>
@@ -48743,7 +48754,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="29"/>
@@ -48756,7 +48767,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="29"/>
@@ -48767,7 +48778,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="29"/>
@@ -48778,7 +48789,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="29"/>
@@ -48791,7 +48802,7 @@
         <v>81</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="29"/>
@@ -48804,7 +48815,7 @@
         <v>81</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="29"/>
@@ -48815,7 +48826,7 @@
         <v>81</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="29"/>
@@ -48826,7 +48837,7 @@
         <v>103</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="29"/>
@@ -48839,7 +48850,7 @@
         <v>110</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C10" s="50"/>
       <c r="D10" s="29"/>
@@ -48852,7 +48863,7 @@
         <v>114</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="29"/>
@@ -48865,7 +48876,7 @@
         <v>118</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="29"/>
@@ -48883,7 +48894,7 @@
       <c r="C13" s="26"/>
       <c r="D13" s="29"/>
       <c r="E13" s="26" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14">
@@ -48896,7 +48907,7 @@
       <c r="C14" s="26"/>
       <c r="D14" s="29"/>
       <c r="E14" s="26" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15">
@@ -48904,12 +48915,12 @@
         <v>154</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="29"/>
       <c r="E15" s="26" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16">
@@ -48917,12 +48928,12 @@
         <v>158</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="29"/>
       <c r="E16" s="26" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17">
@@ -48935,7 +48946,7 @@
       <c r="C17" s="26"/>
       <c r="D17" s="29"/>
       <c r="E17" s="26" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18">
@@ -48948,7 +48959,7 @@
       <c r="C18" s="26"/>
       <c r="D18" s="29"/>
       <c r="E18" s="26" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19">
